--- a/_WIP/Lou/Lou-Zeiterfassung.xlsx
+++ b/_WIP/Lou/Lou-Zeiterfassung.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lazarus\Documents\GitHub\Voodoo\_WIP\Lou\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12885"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="150">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -471,12 +466,15 @@
   </si>
   <si>
     <t>So., 12.08.2018</t>
+  </si>
+  <si>
+    <t>Knopf mesh, Knopf baking, Handsoft</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
@@ -528,7 +526,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -598,6 +596,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA4C2F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,50 +829,8 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="11" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="4" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -957,6 +919,48 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="13" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="13" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="13" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="13" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -966,6 +970,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF800000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1232,7 +1241,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1242,20 +1251,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="68" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="69" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" style="70" customWidth="1"/>
-    <col min="4" max="4" width="26" style="71" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" style="72" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" style="73" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.85546875" style="74" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" style="54" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="55" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="56" customWidth="1"/>
+    <col min="4" max="4" width="26" style="57" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" style="58" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" style="59" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.85546875" style="60" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="61" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1334,204 +1343,204 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+    <row r="6" spans="1:16" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="63">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="63">
         <v>0.75</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="64">
         <v>1</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="64">
         <f>(B6-C6)*-24-D6</f>
         <v>7</v>
       </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="32" t="s">
+      <c r="F6" s="65"/>
+      <c r="G6" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="33"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-    </row>
-    <row r="7" spans="1:16" s="35" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="H6" s="67"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+    </row>
+    <row r="7" spans="1:16" s="29" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="68">
         <v>0.375</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="68">
         <v>0.75</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="69">
         <v>1</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="64">
         <f t="shared" ref="E7:E12" si="0">(B7-C7)*-24-D7</f>
         <v>8</v>
       </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33" t="s">
+      <c r="F7" s="67"/>
+      <c r="G7" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-    </row>
-    <row r="8" spans="1:16" s="35" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
+      <c r="H7" s="67"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+    </row>
+    <row r="8" spans="1:16" s="29" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="68">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="68">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="69">
         <v>2</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="64">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33" t="s">
+      <c r="F8" s="67"/>
+      <c r="G8" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="33"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-    </row>
-    <row r="9" spans="1:16" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
+      <c r="H8" s="67"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+    </row>
+    <row r="9" spans="1:16" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="68">
         <v>0.38194444444444442</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="68">
         <v>0.78125</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="69">
         <v>1.5</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="64">
         <f t="shared" si="0"/>
         <v>8.0833333333333339</v>
       </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33" t="s">
+      <c r="F9" s="67"/>
+      <c r="G9" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="33"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-    </row>
-    <row r="10" spans="1:16" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
+      <c r="H9" s="67"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+    </row>
+    <row r="10" spans="1:16" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="68">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="68">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="30">
+      <c r="D10" s="69"/>
+      <c r="E10" s="64">
         <f>(B10-C10)*-24-D10</f>
         <v>7.5000000000000018</v>
       </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33" t="s">
+      <c r="F10" s="67"/>
+      <c r="G10" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-    </row>
-    <row r="11" spans="1:16" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
+      <c r="H10" s="67"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+    </row>
+    <row r="11" spans="1:16" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38">
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="70">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-    </row>
-    <row r="12" spans="1:16" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+    </row>
+    <row r="12" spans="1:16" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="41">
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="73">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
     </row>
     <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -1540,21 +1549,21 @@
       <c r="D13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="30">
         <f>SUM(E6:E12)</f>
         <v>36.583333333333336</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="7"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
@@ -1563,21 +1572,21 @@
       <c r="D14" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="31">
         <f>SUM(E13)</f>
         <v>36.583333333333336</v>
       </c>
-      <c r="F14" s="46"/>
+      <c r="F14" s="32"/>
       <c r="G14" s="18"/>
       <c r="H14" s="19"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
@@ -1604,189 +1613,189 @@
       <c r="H15" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-    </row>
-    <row r="16" spans="1:16" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+    </row>
+    <row r="16" spans="1:16" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="30">
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="64">
         <f>(B16-C16)*-24-D16</f>
         <v>0</v>
       </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-    </row>
-    <row r="17" spans="1:16" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+    </row>
+    <row r="17" spans="1:16" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="30">
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="64">
         <f t="shared" ref="E17:E22" si="1">(B17-C17)*-24-D17</f>
         <v>0</v>
       </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-    </row>
-    <row r="18" spans="1:16" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+    </row>
+    <row r="18" spans="1:16" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="68">
         <v>0.69791666666666663</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="68">
         <v>0.75</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="30">
+      <c r="D18" s="69"/>
+      <c r="E18" s="64">
         <f t="shared" si="1"/>
         <v>1.2500000000000009</v>
       </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33" t="s">
+      <c r="F18" s="67"/>
+      <c r="G18" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="33"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-    </row>
-    <row r="19" spans="1:16" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="28" t="s">
+      <c r="H18" s="67"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+    </row>
+    <row r="19" spans="1:16" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="30">
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="64">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-    </row>
-    <row r="20" spans="1:16" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+    </row>
+    <row r="20" spans="1:16" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="36">
+      <c r="B20" s="68">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C20" s="36">
+      <c r="C20" s="68">
         <v>0.71875</v>
       </c>
-      <c r="D20" s="37">
+      <c r="D20" s="69">
         <v>1</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="64">
         <f t="shared" si="1"/>
         <v>4.75</v>
       </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33" t="s">
+      <c r="F20" s="67"/>
+      <c r="G20" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="33"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-    </row>
-    <row r="21" spans="1:16" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
+      <c r="H20" s="67"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+    </row>
+    <row r="21" spans="1:16" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38">
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="70">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-    </row>
-    <row r="22" spans="1:16" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="28" t="s">
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+    </row>
+    <row r="22" spans="1:16" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="41">
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="73">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F22" s="42"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
     </row>
     <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
@@ -1795,21 +1804,21 @@
       <c r="D23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="44">
+      <c r="E23" s="30">
         <f>SUM(E16:E22)</f>
         <v>6.0000000000000009</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="7"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
     </row>
     <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12"/>
@@ -1818,21 +1827,21 @@
       <c r="D24" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="45">
+      <c r="E24" s="31">
         <f>SUM(E13+E23)</f>
         <v>42.583333333333336</v>
       </c>
-      <c r="F24" s="46"/>
+      <c r="F24" s="32"/>
       <c r="G24" s="18"/>
       <c r="H24" s="19"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
     </row>
     <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
@@ -1859,161 +1868,167 @@
       <c r="H25" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-    </row>
-    <row r="26" spans="1:16" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="28" t="s">
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+    </row>
+    <row r="26" spans="1:16" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="36">
+      <c r="B26" s="68">
         <v>0.375</v>
       </c>
-      <c r="C26" s="36">
+      <c r="C26" s="68">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D26" s="37">
+      <c r="D26" s="69">
         <v>1.5</v>
       </c>
-      <c r="E26" s="30">
+      <c r="E26" s="64">
         <f>(B26-C26)*-24-D26</f>
         <v>7</v>
       </c>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33" t="s">
+      <c r="F26" s="67"/>
+      <c r="G26" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="H26" s="33"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34"/>
-    </row>
-    <row r="27" spans="1:16" s="35" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="28" t="s">
+      <c r="H26" s="67"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+    </row>
+    <row r="27" spans="1:16" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="36">
+      <c r="B27" s="68">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C27" s="36">
+      <c r="C27" s="68">
         <v>0.69444444444444453</v>
       </c>
-      <c r="D27" s="37">
+      <c r="D27" s="69">
         <v>1.25</v>
       </c>
-      <c r="E27" s="30">
+      <c r="E27" s="64">
         <f t="shared" ref="E27:E32" si="2">(B27-C27)*-24-D27</f>
         <v>5.4166666666666679</v>
       </c>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33" t="s">
+      <c r="F27" s="67"/>
+      <c r="G27" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="33"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="34"/>
-      <c r="P27" s="34"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
     </row>
     <row r="28" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="36">
+      <c r="B28" s="68">
         <v>0.375</v>
       </c>
-      <c r="C28" s="36">
+      <c r="C28" s="68">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D28" s="37">
+      <c r="D28" s="69">
         <v>1.5</v>
       </c>
-      <c r="E28" s="30">
+      <c r="E28" s="64">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33" t="s">
+      <c r="F28" s="67"/>
+      <c r="G28" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="H28" s="33"/>
+      <c r="H28" s="67"/>
     </row>
     <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="68">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="49">
+      <c r="C29" s="68">
+        <v>0.75</v>
+      </c>
+      <c r="D29" s="69">
+        <v>1.25</v>
+      </c>
+      <c r="E29" s="64">
         <f t="shared" si="2"/>
-        <v>-10</v>
-      </c>
-      <c r="F29" s="50"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="52"/>
+        <v>6.75</v>
+      </c>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="H29" s="67"/>
     </row>
     <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="49">
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="64">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F30" s="50"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="52"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
     </row>
     <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="53">
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="70">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F31" s="50"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="52"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
     </row>
     <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="54"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="57">
+      <c r="B32" s="71"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="73">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F32" s="58"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="60"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
@@ -2022,9 +2037,9 @@
       <c r="D33" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E33" s="44">
+      <c r="E33" s="30">
         <f>SUM(E26:E32)</f>
-        <v>9.4166666666666679</v>
+        <v>26.166666666666668</v>
       </c>
       <c r="F33" s="6"/>
       <c r="G33" s="7"/>
@@ -2037,11 +2052,11 @@
       <c r="D34" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="45">
+      <c r="E34" s="31">
         <f>SUM(E13+E23+E33)</f>
-        <v>52</v>
-      </c>
-      <c r="F34" s="46"/>
+        <v>68.75</v>
+      </c>
+      <c r="F34" s="32"/>
       <c r="G34" s="18"/>
       <c r="H34" s="19"/>
     </row>
@@ -2058,7 +2073,7 @@
       <c r="D35" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="61" t="s">
+      <c r="E35" s="47" t="s">
         <v>7</v>
       </c>
       <c r="F35" s="25" t="s">
@@ -2072,109 +2087,111 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="10"/>
+      <c r="B36" s="10">
+        <v>0.375</v>
+      </c>
       <c r="C36" s="11"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="49">
+      <c r="D36" s="34"/>
+      <c r="E36" s="35">
         <f>(B36-C36)*-24-D36</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="50"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="52"/>
+        <v>-9</v>
+      </c>
+      <c r="F36" s="36"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="38"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="33" t="s">
         <v>45</v>
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="11"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="49">
+      <c r="D37" s="34"/>
+      <c r="E37" s="35">
         <f t="shared" ref="E37:E42" si="3">(B37-C37)*-24-D37</f>
         <v>0</v>
       </c>
-      <c r="F37" s="50"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="52"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="38"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="47" t="s">
+      <c r="A38" s="33" t="s">
         <v>46</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="11"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="49">
+      <c r="D38" s="34"/>
+      <c r="E38" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F38" s="50"/>
-      <c r="G38" s="51"/>
-      <c r="H38" s="52"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="38"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="33" t="s">
         <v>47</v>
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="11"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="49">
+      <c r="D39" s="34"/>
+      <c r="E39" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F39" s="50"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="52"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="38"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="47" t="s">
+      <c r="A40" s="33" t="s">
         <v>48</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="11"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="49">
+      <c r="D40" s="34"/>
+      <c r="E40" s="35">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F40" s="50"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="52"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="38"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="47" t="s">
+      <c r="A41" s="33" t="s">
         <v>49</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="11"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="53">
+      <c r="D41" s="34"/>
+      <c r="E41" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F41" s="50"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="52"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="38"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="54"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="57">
+      <c r="B42" s="40"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="43">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F42" s="58"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="60"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="46"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
@@ -2183,9 +2200,9 @@
       <c r="D43" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E43" s="44">
+      <c r="E43" s="30">
         <f>SUM(E36:E42)</f>
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="7"/>
@@ -2198,11 +2215,11 @@
       <c r="D44" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E44" s="45">
+      <c r="E44" s="31">
         <f>SUM(E13+E23+E33+E43)</f>
-        <v>52</v>
-      </c>
-      <c r="F44" s="46"/>
+        <v>59.75</v>
+      </c>
+      <c r="F44" s="32"/>
       <c r="G44" s="18"/>
       <c r="H44" s="19"/>
     </row>
@@ -2233,109 +2250,109 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="47" t="s">
+      <c r="A46" s="33" t="s">
         <v>51</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="11"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="49">
+      <c r="D46" s="34"/>
+      <c r="E46" s="35">
         <f>(B46-C46)*-24-D46</f>
         <v>0</v>
       </c>
-      <c r="F46" s="50"/>
-      <c r="G46" s="51"/>
-      <c r="H46" s="52"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="38"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="47" t="s">
+      <c r="A47" s="33" t="s">
         <v>52</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="11"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="49">
+      <c r="D47" s="34"/>
+      <c r="E47" s="35">
         <f t="shared" ref="E47:E52" si="4">(B47-C47)*-24-D47</f>
         <v>0</v>
       </c>
-      <c r="F47" s="50"/>
-      <c r="G47" s="51"/>
-      <c r="H47" s="52"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="38"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="47" t="s">
+      <c r="A48" s="33" t="s">
         <v>53</v>
       </c>
       <c r="B48" s="10"/>
       <c r="C48" s="11"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="49">
+      <c r="D48" s="34"/>
+      <c r="E48" s="35">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F48" s="50"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="52"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="38"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="47" t="s">
+      <c r="A49" s="33" t="s">
         <v>54</v>
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="11"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="49">
+      <c r="D49" s="34"/>
+      <c r="E49" s="35">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F49" s="50"/>
-      <c r="G49" s="51"/>
-      <c r="H49" s="52"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="38"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="47" t="s">
+      <c r="A50" s="33" t="s">
         <v>55</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="11"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="49">
+      <c r="D50" s="34"/>
+      <c r="E50" s="35">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F50" s="50"/>
-      <c r="G50" s="51"/>
-      <c r="H50" s="52"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="38"/>
     </row>
     <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="47" t="s">
+      <c r="A51" s="33" t="s">
         <v>56</v>
       </c>
       <c r="B51" s="10"/>
       <c r="C51" s="11"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="53">
+      <c r="D51" s="34"/>
+      <c r="E51" s="39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F51" s="50"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="52"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="38"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="47" t="s">
+      <c r="A52" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="54"/>
-      <c r="C52" s="55"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="57">
+      <c r="B52" s="40"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="43">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F52" s="58"/>
-      <c r="G52" s="59"/>
-      <c r="H52" s="60"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="46"/>
     </row>
     <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9"/>
@@ -2344,7 +2361,7 @@
       <c r="D53" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E53" s="44">
+      <c r="E53" s="30">
         <f>SUM(E46:E52)</f>
         <v>0</v>
       </c>
@@ -2359,11 +2376,11 @@
       <c r="D54" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E54" s="45">
+      <c r="E54" s="31">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>52</v>
-      </c>
-      <c r="F54" s="46"/>
+        <v>59.75</v>
+      </c>
+      <c r="F54" s="32"/>
       <c r="G54" s="18"/>
       <c r="H54" s="19"/>
     </row>
@@ -2394,109 +2411,109 @@
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="47" t="s">
+      <c r="A56" s="33" t="s">
         <v>58</v>
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="11"/>
-      <c r="D56" s="48"/>
-      <c r="E56" s="49">
+      <c r="D56" s="34"/>
+      <c r="E56" s="35">
         <f>(B56-C56)*-24-D56</f>
         <v>0</v>
       </c>
-      <c r="F56" s="50"/>
-      <c r="G56" s="51"/>
-      <c r="H56" s="52"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="38"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="47" t="s">
+      <c r="A57" s="33" t="s">
         <v>59</v>
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="11"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="49">
+      <c r="D57" s="34"/>
+      <c r="E57" s="35">
         <f t="shared" ref="E57:E62" si="5">(B57-C57)*-24-D57</f>
         <v>0</v>
       </c>
-      <c r="F57" s="50"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="52"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="38"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="47" t="s">
+      <c r="A58" s="33" t="s">
         <v>60</v>
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="11"/>
-      <c r="D58" s="48"/>
-      <c r="E58" s="49">
+      <c r="D58" s="34"/>
+      <c r="E58" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F58" s="50"/>
-      <c r="G58" s="51"/>
-      <c r="H58" s="52"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="38"/>
     </row>
     <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="47" t="s">
+      <c r="A59" s="33" t="s">
         <v>61</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="11"/>
-      <c r="D59" s="48"/>
-      <c r="E59" s="49">
+      <c r="D59" s="34"/>
+      <c r="E59" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F59" s="50"/>
-      <c r="G59" s="51"/>
-      <c r="H59" s="52"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="38"/>
     </row>
     <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="47" t="s">
+      <c r="A60" s="33" t="s">
         <v>62</v>
       </c>
       <c r="B60" s="10"/>
       <c r="C60" s="11"/>
-      <c r="D60" s="48"/>
-      <c r="E60" s="49">
+      <c r="D60" s="34"/>
+      <c r="E60" s="35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F60" s="50"/>
-      <c r="G60" s="51"/>
-      <c r="H60" s="52"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="38"/>
     </row>
     <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="47" t="s">
+      <c r="A61" s="33" t="s">
         <v>63</v>
       </c>
       <c r="B61" s="10"/>
       <c r="C61" s="11"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="53">
+      <c r="D61" s="34"/>
+      <c r="E61" s="39">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F61" s="50"/>
-      <c r="G61" s="51"/>
-      <c r="H61" s="52"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="38"/>
     </row>
     <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="47" t="s">
+      <c r="A62" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B62" s="54"/>
-      <c r="C62" s="55"/>
-      <c r="D62" s="56"/>
-      <c r="E62" s="57">
+      <c r="B62" s="40"/>
+      <c r="C62" s="41"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="43">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F62" s="58"/>
-      <c r="G62" s="59"/>
-      <c r="H62" s="60"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="45"/>
+      <c r="H62" s="46"/>
     </row>
     <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9"/>
@@ -2505,7 +2522,7 @@
       <c r="D63" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E63" s="44">
+      <c r="E63" s="30">
         <f>SUM(E56:E62)</f>
         <v>0</v>
       </c>
@@ -2520,11 +2537,11 @@
       <c r="D64" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E64" s="45">
+      <c r="E64" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>52</v>
-      </c>
-      <c r="F64" s="46"/>
+        <v>59.75</v>
+      </c>
+      <c r="F64" s="32"/>
       <c r="G64" s="18"/>
       <c r="H64" s="19"/>
     </row>
@@ -2555,109 +2572,109 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="47" t="s">
+      <c r="A66" s="33" t="s">
         <v>65</v>
       </c>
       <c r="B66" s="10"/>
       <c r="C66" s="11"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="49">
+      <c r="D66" s="34"/>
+      <c r="E66" s="35">
         <f>(B66-C66)*-24-D66</f>
         <v>0</v>
       </c>
-      <c r="F66" s="50"/>
-      <c r="G66" s="51"/>
-      <c r="H66" s="52"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="38"/>
     </row>
     <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="47" t="s">
+      <c r="A67" s="33" t="s">
         <v>66</v>
       </c>
       <c r="B67" s="10"/>
       <c r="C67" s="11"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="49">
+      <c r="D67" s="34"/>
+      <c r="E67" s="35">
         <f t="shared" ref="E67:E72" si="6">(B67-C67)*-24-D67</f>
         <v>0</v>
       </c>
-      <c r="F67" s="50"/>
-      <c r="G67" s="51"/>
-      <c r="H67" s="52"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="38"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="47" t="s">
+      <c r="A68" s="33" t="s">
         <v>67</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="11"/>
-      <c r="D68" s="48"/>
-      <c r="E68" s="49">
+      <c r="D68" s="34"/>
+      <c r="E68" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F68" s="50"/>
-      <c r="G68" s="51"/>
-      <c r="H68" s="52"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="38"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="47" t="s">
+      <c r="A69" s="33" t="s">
         <v>68</v>
       </c>
       <c r="B69" s="10"/>
       <c r="C69" s="11"/>
-      <c r="D69" s="48"/>
-      <c r="E69" s="49">
+      <c r="D69" s="34"/>
+      <c r="E69" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F69" s="50"/>
-      <c r="G69" s="51"/>
-      <c r="H69" s="52"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="38"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="47" t="s">
+      <c r="A70" s="33" t="s">
         <v>69</v>
       </c>
       <c r="B70" s="10"/>
       <c r="C70" s="11"/>
-      <c r="D70" s="48"/>
-      <c r="E70" s="49">
+      <c r="D70" s="34"/>
+      <c r="E70" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F70" s="50"/>
-      <c r="G70" s="51"/>
-      <c r="H70" s="52"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="38"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="47" t="s">
+      <c r="A71" s="33" t="s">
         <v>70</v>
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="11"/>
-      <c r="D71" s="48"/>
-      <c r="E71" s="49">
+      <c r="D71" s="34"/>
+      <c r="E71" s="35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F71" s="50"/>
-      <c r="G71" s="51"/>
-      <c r="H71" s="52"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="38"/>
     </row>
     <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="47" t="s">
+      <c r="A72" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="54"/>
-      <c r="C72" s="55"/>
-      <c r="D72" s="62"/>
-      <c r="E72" s="63">
+      <c r="B72" s="40"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="48"/>
+      <c r="E72" s="49">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F72" s="64"/>
-      <c r="G72" s="59"/>
-      <c r="H72" s="60"/>
+      <c r="F72" s="50"/>
+      <c r="G72" s="45"/>
+      <c r="H72" s="46"/>
     </row>
     <row r="73" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9"/>
@@ -2666,7 +2683,7 @@
       <c r="D73" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E73" s="65">
+      <c r="E73" s="51">
         <f>SUM(E66:E72)</f>
         <v>0</v>
       </c>
@@ -2681,11 +2698,11 @@
       <c r="D74" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E74" s="45">
+      <c r="E74" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>52</v>
-      </c>
-      <c r="F74" s="46"/>
+        <v>59.75</v>
+      </c>
+      <c r="F74" s="32"/>
       <c r="G74" s="18"/>
       <c r="H74" s="19"/>
     </row>
@@ -2716,109 +2733,109 @@
       </c>
     </row>
     <row r="76" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="47" t="s">
+      <c r="A76" s="33" t="s">
         <v>72</v>
       </c>
       <c r="B76" s="10"/>
       <c r="C76" s="11"/>
-      <c r="D76" s="48"/>
-      <c r="E76" s="49">
+      <c r="D76" s="34"/>
+      <c r="E76" s="35">
         <f>(B76-C76)*-24-D76</f>
         <v>0</v>
       </c>
-      <c r="F76" s="50"/>
-      <c r="G76" s="51"/>
-      <c r="H76" s="52"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="38"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="47" t="s">
+      <c r="A77" s="33" t="s">
         <v>73</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="11"/>
-      <c r="D77" s="48"/>
-      <c r="E77" s="49">
+      <c r="D77" s="34"/>
+      <c r="E77" s="35">
         <f t="shared" ref="E77:E82" si="7">(B77-C77)*-24-D77</f>
         <v>0</v>
       </c>
-      <c r="F77" s="50"/>
-      <c r="G77" s="51"/>
-      <c r="H77" s="52"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="37"/>
+      <c r="H77" s="38"/>
     </row>
     <row r="78" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="47" t="s">
+      <c r="A78" s="33" t="s">
         <v>74</v>
       </c>
       <c r="B78" s="10"/>
       <c r="C78" s="11"/>
-      <c r="D78" s="48"/>
-      <c r="E78" s="49">
+      <c r="D78" s="34"/>
+      <c r="E78" s="35">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F78" s="50"/>
-      <c r="G78" s="51"/>
-      <c r="H78" s="52"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="37"/>
+      <c r="H78" s="38"/>
     </row>
     <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="47" t="s">
+      <c r="A79" s="33" t="s">
         <v>75</v>
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="11"/>
-      <c r="D79" s="48"/>
-      <c r="E79" s="49">
+      <c r="D79" s="34"/>
+      <c r="E79" s="35">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F79" s="50"/>
-      <c r="G79" s="51"/>
-      <c r="H79" s="52"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="37"/>
+      <c r="H79" s="38"/>
     </row>
     <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="47" t="s">
+      <c r="A80" s="33" t="s">
         <v>76</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="11"/>
-      <c r="D80" s="48"/>
-      <c r="E80" s="49">
+      <c r="D80" s="34"/>
+      <c r="E80" s="35">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F80" s="50"/>
-      <c r="G80" s="51"/>
-      <c r="H80" s="52"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="37"/>
+      <c r="H80" s="38"/>
     </row>
     <row r="81" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="47" t="s">
+      <c r="A81" s="33" t="s">
         <v>77</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="11"/>
-      <c r="D81" s="48"/>
-      <c r="E81" s="49">
+      <c r="D81" s="34"/>
+      <c r="E81" s="35">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F81" s="50"/>
-      <c r="G81" s="51"/>
-      <c r="H81" s="52"/>
+      <c r="F81" s="36"/>
+      <c r="G81" s="37"/>
+      <c r="H81" s="38"/>
     </row>
     <row r="82" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="47" t="s">
+      <c r="A82" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="B82" s="54"/>
-      <c r="C82" s="55"/>
-      <c r="D82" s="62"/>
-      <c r="E82" s="63">
+      <c r="B82" s="40"/>
+      <c r="C82" s="41"/>
+      <c r="D82" s="48"/>
+      <c r="E82" s="49">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F82" s="64"/>
-      <c r="G82" s="59"/>
-      <c r="H82" s="60"/>
+      <c r="F82" s="50"/>
+      <c r="G82" s="45"/>
+      <c r="H82" s="46"/>
     </row>
     <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="9"/>
@@ -2827,7 +2844,7 @@
       <c r="D83" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E83" s="65">
+      <c r="E83" s="51">
         <f>SUM(E76:E82)</f>
         <v>0</v>
       </c>
@@ -2842,11 +2859,11 @@
       <c r="D84" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E84" s="45">
+      <c r="E84" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>52</v>
-      </c>
-      <c r="F84" s="46"/>
+        <v>59.75</v>
+      </c>
+      <c r="F84" s="32"/>
       <c r="G84" s="18"/>
       <c r="H84" s="19"/>
     </row>
@@ -2877,109 +2894,109 @@
       </c>
     </row>
     <row r="86" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="47" t="s">
+      <c r="A86" s="33" t="s">
         <v>79</v>
       </c>
       <c r="B86" s="10"/>
       <c r="C86" s="11"/>
-      <c r="D86" s="48"/>
-      <c r="E86" s="49">
+      <c r="D86" s="34"/>
+      <c r="E86" s="35">
         <f>(B86-C86)*-24-D86</f>
         <v>0</v>
       </c>
-      <c r="F86" s="50"/>
-      <c r="G86" s="51"/>
-      <c r="H86" s="52"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="37"/>
+      <c r="H86" s="38"/>
     </row>
     <row r="87" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="47" t="s">
+      <c r="A87" s="33" t="s">
         <v>80</v>
       </c>
       <c r="B87" s="10"/>
       <c r="C87" s="11"/>
-      <c r="D87" s="48"/>
-      <c r="E87" s="49">
+      <c r="D87" s="34"/>
+      <c r="E87" s="35">
         <f t="shared" ref="E87:E92" si="8">(B87-C87)*-24-D87</f>
         <v>0</v>
       </c>
-      <c r="F87" s="50"/>
-      <c r="G87" s="51"/>
-      <c r="H87" s="52"/>
+      <c r="F87" s="36"/>
+      <c r="G87" s="37"/>
+      <c r="H87" s="38"/>
     </row>
     <row r="88" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="47" t="s">
+      <c r="A88" s="33" t="s">
         <v>81</v>
       </c>
       <c r="B88" s="10"/>
       <c r="C88" s="11"/>
-      <c r="D88" s="48"/>
-      <c r="E88" s="49">
+      <c r="D88" s="34"/>
+      <c r="E88" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F88" s="50"/>
-      <c r="G88" s="51"/>
-      <c r="H88" s="52"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="37"/>
+      <c r="H88" s="38"/>
     </row>
     <row r="89" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="47" t="s">
+      <c r="A89" s="33" t="s">
         <v>82</v>
       </c>
       <c r="B89" s="10"/>
       <c r="C89" s="11"/>
-      <c r="D89" s="48"/>
-      <c r="E89" s="49">
+      <c r="D89" s="34"/>
+      <c r="E89" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F89" s="50"/>
-      <c r="G89" s="51"/>
-      <c r="H89" s="52"/>
+      <c r="F89" s="36"/>
+      <c r="G89" s="37"/>
+      <c r="H89" s="38"/>
     </row>
     <row r="90" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="47" t="s">
+      <c r="A90" s="33" t="s">
         <v>83</v>
       </c>
       <c r="B90" s="10"/>
       <c r="C90" s="11"/>
-      <c r="D90" s="48"/>
-      <c r="E90" s="49">
+      <c r="D90" s="34"/>
+      <c r="E90" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F90" s="50"/>
-      <c r="G90" s="51"/>
-      <c r="H90" s="52"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="37"/>
+      <c r="H90" s="38"/>
     </row>
     <row r="91" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="47" t="s">
+      <c r="A91" s="33" t="s">
         <v>84</v>
       </c>
       <c r="B91" s="10"/>
       <c r="C91" s="11"/>
-      <c r="D91" s="48"/>
-      <c r="E91" s="49">
+      <c r="D91" s="34"/>
+      <c r="E91" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F91" s="50"/>
-      <c r="G91" s="51"/>
-      <c r="H91" s="52"/>
+      <c r="F91" s="36"/>
+      <c r="G91" s="37"/>
+      <c r="H91" s="38"/>
     </row>
     <row r="92" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="47" t="s">
+      <c r="A92" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B92" s="54"/>
-      <c r="C92" s="55"/>
-      <c r="D92" s="62"/>
-      <c r="E92" s="63">
+      <c r="B92" s="40"/>
+      <c r="C92" s="41"/>
+      <c r="D92" s="48"/>
+      <c r="E92" s="49">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F92" s="64"/>
-      <c r="G92" s="59"/>
-      <c r="H92" s="60"/>
+      <c r="F92" s="50"/>
+      <c r="G92" s="45"/>
+      <c r="H92" s="46"/>
     </row>
     <row r="93" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9"/>
@@ -2988,7 +3005,7 @@
       <c r="D93" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E93" s="65">
+      <c r="E93" s="51">
         <f>SUM(E86:E92)</f>
         <v>0</v>
       </c>
@@ -3003,11 +3020,11 @@
       <c r="D94" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E94" s="45">
+      <c r="E94" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>52</v>
-      </c>
-      <c r="F94" s="46"/>
+        <v>59.75</v>
+      </c>
+      <c r="F94" s="32"/>
       <c r="G94" s="18"/>
       <c r="H94" s="19"/>
     </row>
@@ -3038,109 +3055,109 @@
       </c>
     </row>
     <row r="96" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="47" t="s">
+      <c r="A96" s="33" t="s">
         <v>86</v>
       </c>
       <c r="B96" s="10"/>
       <c r="C96" s="11"/>
-      <c r="D96" s="48"/>
-      <c r="E96" s="49">
+      <c r="D96" s="34"/>
+      <c r="E96" s="35">
         <f>(B96-C96)*-24-D96</f>
         <v>0</v>
       </c>
-      <c r="F96" s="50"/>
-      <c r="G96" s="51"/>
-      <c r="H96" s="52"/>
+      <c r="F96" s="36"/>
+      <c r="G96" s="37"/>
+      <c r="H96" s="38"/>
     </row>
     <row r="97" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="47" t="s">
+      <c r="A97" s="33" t="s">
         <v>87</v>
       </c>
       <c r="B97" s="10"/>
       <c r="C97" s="11"/>
-      <c r="D97" s="48"/>
-      <c r="E97" s="49">
+      <c r="D97" s="34"/>
+      <c r="E97" s="35">
         <f t="shared" ref="E97:E102" si="9">(B97-C97)*-24-D97</f>
         <v>0</v>
       </c>
-      <c r="F97" s="50"/>
-      <c r="G97" s="51"/>
-      <c r="H97" s="52"/>
+      <c r="F97" s="36"/>
+      <c r="G97" s="37"/>
+      <c r="H97" s="38"/>
     </row>
     <row r="98" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="47" t="s">
+      <c r="A98" s="33" t="s">
         <v>88</v>
       </c>
       <c r="B98" s="10"/>
       <c r="C98" s="11"/>
-      <c r="D98" s="48"/>
-      <c r="E98" s="49">
+      <c r="D98" s="34"/>
+      <c r="E98" s="35">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F98" s="50"/>
-      <c r="G98" s="51"/>
-      <c r="H98" s="52"/>
+      <c r="F98" s="36"/>
+      <c r="G98" s="37"/>
+      <c r="H98" s="38"/>
     </row>
     <row r="99" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="47" t="s">
+      <c r="A99" s="33" t="s">
         <v>89</v>
       </c>
       <c r="B99" s="10"/>
       <c r="C99" s="11"/>
-      <c r="D99" s="48"/>
-      <c r="E99" s="49">
+      <c r="D99" s="34"/>
+      <c r="E99" s="35">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F99" s="50"/>
-      <c r="G99" s="51"/>
-      <c r="H99" s="52"/>
+      <c r="F99" s="36"/>
+      <c r="G99" s="37"/>
+      <c r="H99" s="38"/>
     </row>
     <row r="100" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="47" t="s">
+      <c r="A100" s="33" t="s">
         <v>90</v>
       </c>
       <c r="B100" s="10"/>
       <c r="C100" s="11"/>
-      <c r="D100" s="48"/>
-      <c r="E100" s="49">
+      <c r="D100" s="34"/>
+      <c r="E100" s="35">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F100" s="50"/>
-      <c r="G100" s="51"/>
-      <c r="H100" s="52"/>
+      <c r="F100" s="36"/>
+      <c r="G100" s="37"/>
+      <c r="H100" s="38"/>
     </row>
     <row r="101" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="47" t="s">
+      <c r="A101" s="33" t="s">
         <v>91</v>
       </c>
       <c r="B101" s="10"/>
       <c r="C101" s="11"/>
-      <c r="D101" s="48"/>
-      <c r="E101" s="49">
+      <c r="D101" s="34"/>
+      <c r="E101" s="35">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F101" s="50"/>
-      <c r="G101" s="51"/>
-      <c r="H101" s="52"/>
+      <c r="F101" s="36"/>
+      <c r="G101" s="37"/>
+      <c r="H101" s="38"/>
     </row>
     <row r="102" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="47" t="s">
+      <c r="A102" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="B102" s="54"/>
-      <c r="C102" s="55"/>
-      <c r="D102" s="62"/>
-      <c r="E102" s="63">
+      <c r="B102" s="40"/>
+      <c r="C102" s="41"/>
+      <c r="D102" s="48"/>
+      <c r="E102" s="49">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F102" s="64"/>
-      <c r="G102" s="59"/>
-      <c r="H102" s="60"/>
+      <c r="F102" s="50"/>
+      <c r="G102" s="45"/>
+      <c r="H102" s="46"/>
     </row>
     <row r="103" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="9"/>
@@ -3149,7 +3166,7 @@
       <c r="D103" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E103" s="65">
+      <c r="E103" s="51">
         <f>SUM(E96:E102)</f>
         <v>0</v>
       </c>
@@ -3164,11 +3181,11 @@
       <c r="D104" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E104" s="45">
+      <c r="E104" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>52</v>
-      </c>
-      <c r="F104" s="46"/>
+        <v>59.75</v>
+      </c>
+      <c r="F104" s="32"/>
       <c r="G104" s="18"/>
       <c r="H104" s="19"/>
     </row>
@@ -3199,109 +3216,109 @@
       </c>
     </row>
     <row r="106" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="47" t="s">
+      <c r="A106" s="33" t="s">
         <v>93</v>
       </c>
       <c r="B106" s="10"/>
       <c r="C106" s="11"/>
-      <c r="D106" s="48"/>
-      <c r="E106" s="49">
+      <c r="D106" s="34"/>
+      <c r="E106" s="35">
         <f>(B106-C106)*-24-D106</f>
         <v>0</v>
       </c>
-      <c r="F106" s="50"/>
-      <c r="G106" s="51"/>
-      <c r="H106" s="52"/>
+      <c r="F106" s="36"/>
+      <c r="G106" s="37"/>
+      <c r="H106" s="38"/>
     </row>
     <row r="107" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="47" t="s">
+      <c r="A107" s="33" t="s">
         <v>94</v>
       </c>
       <c r="B107" s="10"/>
       <c r="C107" s="11"/>
-      <c r="D107" s="48"/>
-      <c r="E107" s="49">
+      <c r="D107" s="34"/>
+      <c r="E107" s="35">
         <f t="shared" ref="E107:E112" si="10">(B107-C107)*-24-D107</f>
         <v>0</v>
       </c>
-      <c r="F107" s="50"/>
-      <c r="G107" s="51"/>
-      <c r="H107" s="52"/>
+      <c r="F107" s="36"/>
+      <c r="G107" s="37"/>
+      <c r="H107" s="38"/>
     </row>
     <row r="108" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="47" t="s">
+      <c r="A108" s="33" t="s">
         <v>95</v>
       </c>
       <c r="B108" s="10"/>
       <c r="C108" s="11"/>
-      <c r="D108" s="48"/>
-      <c r="E108" s="49">
+      <c r="D108" s="34"/>
+      <c r="E108" s="35">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F108" s="50"/>
-      <c r="G108" s="51"/>
-      <c r="H108" s="52"/>
+      <c r="F108" s="36"/>
+      <c r="G108" s="37"/>
+      <c r="H108" s="38"/>
     </row>
     <row r="109" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="47" t="s">
+      <c r="A109" s="33" t="s">
         <v>96</v>
       </c>
       <c r="B109" s="10"/>
       <c r="C109" s="11"/>
-      <c r="D109" s="48"/>
-      <c r="E109" s="49">
+      <c r="D109" s="34"/>
+      <c r="E109" s="35">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F109" s="50"/>
-      <c r="G109" s="51"/>
-      <c r="H109" s="52"/>
+      <c r="F109" s="36"/>
+      <c r="G109" s="37"/>
+      <c r="H109" s="38"/>
     </row>
     <row r="110" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="47" t="s">
+      <c r="A110" s="33" t="s">
         <v>97</v>
       </c>
       <c r="B110" s="10"/>
       <c r="C110" s="11"/>
-      <c r="D110" s="48"/>
-      <c r="E110" s="49">
+      <c r="D110" s="34"/>
+      <c r="E110" s="35">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F110" s="50"/>
-      <c r="G110" s="51"/>
-      <c r="H110" s="52"/>
+      <c r="F110" s="36"/>
+      <c r="G110" s="37"/>
+      <c r="H110" s="38"/>
     </row>
     <row r="111" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="47" t="s">
+      <c r="A111" s="33" t="s">
         <v>98</v>
       </c>
       <c r="B111" s="10"/>
       <c r="C111" s="11"/>
-      <c r="D111" s="48"/>
-      <c r="E111" s="49">
+      <c r="D111" s="34"/>
+      <c r="E111" s="35">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F111" s="50"/>
-      <c r="G111" s="51"/>
-      <c r="H111" s="52"/>
+      <c r="F111" s="36"/>
+      <c r="G111" s="37"/>
+      <c r="H111" s="38"/>
     </row>
     <row r="112" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="47" t="s">
+      <c r="A112" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="B112" s="54"/>
-      <c r="C112" s="55"/>
-      <c r="D112" s="62"/>
-      <c r="E112" s="63">
+      <c r="B112" s="40"/>
+      <c r="C112" s="41"/>
+      <c r="D112" s="48"/>
+      <c r="E112" s="49">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F112" s="64"/>
-      <c r="G112" s="59"/>
-      <c r="H112" s="60"/>
+      <c r="F112" s="50"/>
+      <c r="G112" s="45"/>
+      <c r="H112" s="46"/>
     </row>
     <row r="113" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="9"/>
@@ -3310,7 +3327,7 @@
       <c r="D113" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E113" s="65">
+      <c r="E113" s="51">
         <f>SUM(E106:E112)</f>
         <v>0</v>
       </c>
@@ -3325,11 +3342,11 @@
       <c r="D114" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E114" s="45">
+      <c r="E114" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>52</v>
-      </c>
-      <c r="F114" s="46"/>
+        <v>59.75</v>
+      </c>
+      <c r="F114" s="32"/>
       <c r="G114" s="18"/>
       <c r="H114" s="19"/>
     </row>
@@ -3360,109 +3377,109 @@
       </c>
     </row>
     <row r="116" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="47" t="s">
+      <c r="A116" s="33" t="s">
         <v>100</v>
       </c>
       <c r="B116" s="10"/>
       <c r="C116" s="11"/>
-      <c r="D116" s="48"/>
-      <c r="E116" s="49">
+      <c r="D116" s="34"/>
+      <c r="E116" s="35">
         <f>(B116-C116)*-24-D116</f>
         <v>0</v>
       </c>
-      <c r="F116" s="50"/>
-      <c r="G116" s="51"/>
-      <c r="H116" s="52"/>
+      <c r="F116" s="36"/>
+      <c r="G116" s="37"/>
+      <c r="H116" s="38"/>
     </row>
     <row r="117" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="47" t="s">
+      <c r="A117" s="33" t="s">
         <v>101</v>
       </c>
       <c r="B117" s="10"/>
       <c r="C117" s="11"/>
-      <c r="D117" s="48"/>
-      <c r="E117" s="49">
+      <c r="D117" s="34"/>
+      <c r="E117" s="35">
         <f t="shared" ref="E117:E122" si="11">(B117-C117)*-24-D117</f>
         <v>0</v>
       </c>
-      <c r="F117" s="50"/>
-      <c r="G117" s="51"/>
-      <c r="H117" s="52"/>
+      <c r="F117" s="36"/>
+      <c r="G117" s="37"/>
+      <c r="H117" s="38"/>
     </row>
     <row r="118" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="47" t="s">
+      <c r="A118" s="33" t="s">
         <v>102</v>
       </c>
       <c r="B118" s="10"/>
       <c r="C118" s="11"/>
-      <c r="D118" s="48"/>
-      <c r="E118" s="49">
+      <c r="D118" s="34"/>
+      <c r="E118" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F118" s="50"/>
-      <c r="G118" s="51"/>
-      <c r="H118" s="52"/>
+      <c r="F118" s="36"/>
+      <c r="G118" s="37"/>
+      <c r="H118" s="38"/>
     </row>
     <row r="119" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="47" t="s">
+      <c r="A119" s="33" t="s">
         <v>103</v>
       </c>
       <c r="B119" s="10"/>
       <c r="C119" s="11"/>
-      <c r="D119" s="48"/>
-      <c r="E119" s="49">
+      <c r="D119" s="34"/>
+      <c r="E119" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F119" s="50"/>
-      <c r="G119" s="51"/>
-      <c r="H119" s="52"/>
+      <c r="F119" s="36"/>
+      <c r="G119" s="37"/>
+      <c r="H119" s="38"/>
     </row>
     <row r="120" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="47" t="s">
+      <c r="A120" s="33" t="s">
         <v>104</v>
       </c>
       <c r="B120" s="10"/>
       <c r="C120" s="11"/>
-      <c r="D120" s="48"/>
-      <c r="E120" s="49">
+      <c r="D120" s="34"/>
+      <c r="E120" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F120" s="50"/>
-      <c r="G120" s="51"/>
-      <c r="H120" s="52"/>
+      <c r="F120" s="36"/>
+      <c r="G120" s="37"/>
+      <c r="H120" s="38"/>
     </row>
     <row r="121" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="47" t="s">
+      <c r="A121" s="33" t="s">
         <v>105</v>
       </c>
       <c r="B121" s="10"/>
       <c r="C121" s="11"/>
-      <c r="D121" s="48"/>
-      <c r="E121" s="49">
+      <c r="D121" s="34"/>
+      <c r="E121" s="35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F121" s="50"/>
-      <c r="G121" s="51"/>
-      <c r="H121" s="52"/>
+      <c r="F121" s="36"/>
+      <c r="G121" s="37"/>
+      <c r="H121" s="38"/>
     </row>
     <row r="122" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="47" t="s">
+      <c r="A122" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="B122" s="54"/>
-      <c r="C122" s="55"/>
-      <c r="D122" s="62"/>
-      <c r="E122" s="63">
+      <c r="B122" s="40"/>
+      <c r="C122" s="41"/>
+      <c r="D122" s="48"/>
+      <c r="E122" s="49">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F122" s="64"/>
-      <c r="G122" s="59"/>
-      <c r="H122" s="60"/>
+      <c r="F122" s="50"/>
+      <c r="G122" s="45"/>
+      <c r="H122" s="46"/>
     </row>
     <row r="123" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="9"/>
@@ -3471,7 +3488,7 @@
       <c r="D123" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E123" s="65">
+      <c r="E123" s="51">
         <f>SUM(E116:E122)</f>
         <v>0</v>
       </c>
@@ -3486,11 +3503,11 @@
       <c r="D124" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E124" s="45">
+      <c r="E124" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>52</v>
-      </c>
-      <c r="F124" s="46"/>
+        <v>59.75</v>
+      </c>
+      <c r="F124" s="32"/>
       <c r="G124" s="18"/>
       <c r="H124" s="19"/>
     </row>
@@ -3521,109 +3538,109 @@
       </c>
     </row>
     <row r="126" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="66" t="s">
+      <c r="A126" s="52" t="s">
         <v>107</v>
       </c>
       <c r="B126" s="10"/>
       <c r="C126" s="11"/>
-      <c r="D126" s="48"/>
-      <c r="E126" s="49">
+      <c r="D126" s="34"/>
+      <c r="E126" s="35">
         <f>(B126-C126)*-24-D126</f>
         <v>0</v>
       </c>
-      <c r="F126" s="50"/>
-      <c r="G126" s="51"/>
-      <c r="H126" s="52"/>
+      <c r="F126" s="36"/>
+      <c r="G126" s="37"/>
+      <c r="H126" s="38"/>
     </row>
     <row r="127" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="66" t="s">
+      <c r="A127" s="52" t="s">
         <v>108</v>
       </c>
       <c r="B127" s="10"/>
       <c r="C127" s="11"/>
-      <c r="D127" s="48"/>
-      <c r="E127" s="49">
+      <c r="D127" s="34"/>
+      <c r="E127" s="35">
         <f t="shared" ref="E127:E132" si="12">(B127-C127)*-24-D127</f>
         <v>0</v>
       </c>
-      <c r="F127" s="50"/>
-      <c r="G127" s="51"/>
-      <c r="H127" s="52"/>
+      <c r="F127" s="36"/>
+      <c r="G127" s="37"/>
+      <c r="H127" s="38"/>
     </row>
     <row r="128" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="66" t="s">
+      <c r="A128" s="52" t="s">
         <v>109</v>
       </c>
       <c r="B128" s="10"/>
       <c r="C128" s="11"/>
-      <c r="D128" s="48"/>
-      <c r="E128" s="49">
+      <c r="D128" s="34"/>
+      <c r="E128" s="35">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F128" s="50"/>
-      <c r="G128" s="51"/>
-      <c r="H128" s="52"/>
+      <c r="F128" s="36"/>
+      <c r="G128" s="37"/>
+      <c r="H128" s="38"/>
     </row>
     <row r="129" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="66" t="s">
+      <c r="A129" s="52" t="s">
         <v>110</v>
       </c>
       <c r="B129" s="10"/>
       <c r="C129" s="11"/>
-      <c r="D129" s="48"/>
-      <c r="E129" s="49">
+      <c r="D129" s="34"/>
+      <c r="E129" s="35">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F129" s="50"/>
-      <c r="G129" s="51"/>
-      <c r="H129" s="52"/>
+      <c r="F129" s="36"/>
+      <c r="G129" s="37"/>
+      <c r="H129" s="38"/>
     </row>
     <row r="130" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="66" t="s">
+      <c r="A130" s="52" t="s">
         <v>111</v>
       </c>
       <c r="B130" s="10"/>
       <c r="C130" s="11"/>
-      <c r="D130" s="48"/>
-      <c r="E130" s="49">
+      <c r="D130" s="34"/>
+      <c r="E130" s="35">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F130" s="50"/>
-      <c r="G130" s="51"/>
-      <c r="H130" s="52"/>
+      <c r="F130" s="36"/>
+      <c r="G130" s="37"/>
+      <c r="H130" s="38"/>
     </row>
     <row r="131" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="66" t="s">
+      <c r="A131" s="52" t="s">
         <v>112</v>
       </c>
       <c r="B131" s="10"/>
       <c r="C131" s="11"/>
-      <c r="D131" s="48"/>
-      <c r="E131" s="49">
+      <c r="D131" s="34"/>
+      <c r="E131" s="35">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F131" s="50"/>
-      <c r="G131" s="51"/>
-      <c r="H131" s="52"/>
+      <c r="F131" s="36"/>
+      <c r="G131" s="37"/>
+      <c r="H131" s="38"/>
     </row>
     <row r="132" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="66" t="s">
+      <c r="A132" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="B132" s="54"/>
-      <c r="C132" s="55"/>
-      <c r="D132" s="62"/>
-      <c r="E132" s="63">
+      <c r="B132" s="40"/>
+      <c r="C132" s="41"/>
+      <c r="D132" s="48"/>
+      <c r="E132" s="49">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F132" s="64"/>
-      <c r="G132" s="59"/>
-      <c r="H132" s="60"/>
+      <c r="F132" s="50"/>
+      <c r="G132" s="45"/>
+      <c r="H132" s="46"/>
     </row>
     <row r="133" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="9"/>
@@ -3632,7 +3649,7 @@
       <c r="D133" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E133" s="65">
+      <c r="E133" s="51">
         <f>SUM(E126:E132)</f>
         <v>0</v>
       </c>
@@ -3647,11 +3664,11 @@
       <c r="D134" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E134" s="45">
+      <c r="E134" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>52</v>
-      </c>
-      <c r="F134" s="46"/>
+        <v>59.75</v>
+      </c>
+      <c r="F134" s="32"/>
       <c r="G134" s="18"/>
       <c r="H134" s="19"/>
     </row>
@@ -3682,109 +3699,109 @@
       </c>
     </row>
     <row r="136" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="66" t="s">
+      <c r="A136" s="52" t="s">
         <v>114</v>
       </c>
       <c r="B136" s="10"/>
       <c r="C136" s="11"/>
-      <c r="D136" s="48"/>
-      <c r="E136" s="49">
+      <c r="D136" s="34"/>
+      <c r="E136" s="35">
         <f>(B136-C136)*-24-D136</f>
         <v>0</v>
       </c>
-      <c r="F136" s="50"/>
-      <c r="G136" s="51"/>
-      <c r="H136" s="52"/>
+      <c r="F136" s="36"/>
+      <c r="G136" s="37"/>
+      <c r="H136" s="38"/>
     </row>
     <row r="137" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="66" t="s">
+      <c r="A137" s="52" t="s">
         <v>115</v>
       </c>
       <c r="B137" s="10"/>
       <c r="C137" s="11"/>
-      <c r="D137" s="48"/>
-      <c r="E137" s="49">
+      <c r="D137" s="34"/>
+      <c r="E137" s="35">
         <f t="shared" ref="E137:E142" si="13">(B137-C137)*-24-D137</f>
         <v>0</v>
       </c>
-      <c r="F137" s="50"/>
-      <c r="G137" s="51"/>
-      <c r="H137" s="52"/>
+      <c r="F137" s="36"/>
+      <c r="G137" s="37"/>
+      <c r="H137" s="38"/>
     </row>
     <row r="138" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="66" t="s">
+      <c r="A138" s="52" t="s">
         <v>116</v>
       </c>
       <c r="B138" s="10"/>
       <c r="C138" s="11"/>
-      <c r="D138" s="48"/>
-      <c r="E138" s="49">
+      <c r="D138" s="34"/>
+      <c r="E138" s="35">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F138" s="50"/>
-      <c r="G138" s="51"/>
-      <c r="H138" s="52"/>
+      <c r="F138" s="36"/>
+      <c r="G138" s="37"/>
+      <c r="H138" s="38"/>
     </row>
     <row r="139" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="66" t="s">
+      <c r="A139" s="52" t="s">
         <v>117</v>
       </c>
       <c r="B139" s="10"/>
       <c r="C139" s="11"/>
-      <c r="D139" s="48"/>
-      <c r="E139" s="49">
+      <c r="D139" s="34"/>
+      <c r="E139" s="35">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F139" s="50"/>
-      <c r="G139" s="51"/>
-      <c r="H139" s="52"/>
+      <c r="F139" s="36"/>
+      <c r="G139" s="37"/>
+      <c r="H139" s="38"/>
     </row>
     <row r="140" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="66" t="s">
+      <c r="A140" s="52" t="s">
         <v>118</v>
       </c>
       <c r="B140" s="10"/>
       <c r="C140" s="11"/>
-      <c r="D140" s="48"/>
-      <c r="E140" s="49">
+      <c r="D140" s="34"/>
+      <c r="E140" s="35">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F140" s="50"/>
-      <c r="G140" s="51"/>
-      <c r="H140" s="52"/>
+      <c r="F140" s="36"/>
+      <c r="G140" s="37"/>
+      <c r="H140" s="38"/>
     </row>
     <row r="141" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="66" t="s">
+      <c r="A141" s="52" t="s">
         <v>119</v>
       </c>
       <c r="B141" s="10"/>
       <c r="C141" s="11"/>
-      <c r="D141" s="48"/>
-      <c r="E141" s="49">
+      <c r="D141" s="34"/>
+      <c r="E141" s="35">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F141" s="50"/>
-      <c r="G141" s="51"/>
-      <c r="H141" s="52"/>
+      <c r="F141" s="36"/>
+      <c r="G141" s="37"/>
+      <c r="H141" s="38"/>
     </row>
     <row r="142" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="66" t="s">
+      <c r="A142" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="B142" s="54"/>
-      <c r="C142" s="55"/>
-      <c r="D142" s="62"/>
-      <c r="E142" s="63">
+      <c r="B142" s="40"/>
+      <c r="C142" s="41"/>
+      <c r="D142" s="48"/>
+      <c r="E142" s="49">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F142" s="64"/>
-      <c r="G142" s="59"/>
-      <c r="H142" s="60"/>
+      <c r="F142" s="50"/>
+      <c r="G142" s="45"/>
+      <c r="H142" s="46"/>
     </row>
     <row r="143" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="9"/>
@@ -3793,7 +3810,7 @@
       <c r="D143" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E143" s="65">
+      <c r="E143" s="51">
         <f>SUM(E136:E142)</f>
         <v>0</v>
       </c>
@@ -3808,11 +3825,11 @@
       <c r="D144" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E144" s="45">
+      <c r="E144" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>52</v>
-      </c>
-      <c r="F144" s="46"/>
+        <v>59.75</v>
+      </c>
+      <c r="F144" s="32"/>
       <c r="G144" s="18"/>
       <c r="H144" s="19"/>
     </row>
@@ -3843,109 +3860,109 @@
       </c>
     </row>
     <row r="146" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="66" t="s">
+      <c r="A146" s="52" t="s">
         <v>121</v>
       </c>
       <c r="B146" s="10"/>
       <c r="C146" s="11"/>
-      <c r="D146" s="48"/>
-      <c r="E146" s="49">
+      <c r="D146" s="34"/>
+      <c r="E146" s="35">
         <f>(B146-C146)*-24-D146</f>
         <v>0</v>
       </c>
-      <c r="F146" s="50"/>
-      <c r="G146" s="51"/>
-      <c r="H146" s="52"/>
+      <c r="F146" s="36"/>
+      <c r="G146" s="37"/>
+      <c r="H146" s="38"/>
     </row>
     <row r="147" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="66" t="s">
+      <c r="A147" s="52" t="s">
         <v>122</v>
       </c>
       <c r="B147" s="10"/>
       <c r="C147" s="11"/>
-      <c r="D147" s="48"/>
-      <c r="E147" s="49">
+      <c r="D147" s="34"/>
+      <c r="E147" s="35">
         <f t="shared" ref="E147:E152" si="14">(B147-C147)*-24-D147</f>
         <v>0</v>
       </c>
-      <c r="F147" s="50"/>
-      <c r="G147" s="51"/>
-      <c r="H147" s="52"/>
+      <c r="F147" s="36"/>
+      <c r="G147" s="37"/>
+      <c r="H147" s="38"/>
     </row>
     <row r="148" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="66" t="s">
+      <c r="A148" s="52" t="s">
         <v>123</v>
       </c>
       <c r="B148" s="10"/>
       <c r="C148" s="11"/>
-      <c r="D148" s="48"/>
-      <c r="E148" s="49">
+      <c r="D148" s="34"/>
+      <c r="E148" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F148" s="50"/>
-      <c r="G148" s="51"/>
-      <c r="H148" s="52"/>
+      <c r="F148" s="36"/>
+      <c r="G148" s="37"/>
+      <c r="H148" s="38"/>
     </row>
     <row r="149" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="66" t="s">
+      <c r="A149" s="52" t="s">
         <v>124</v>
       </c>
       <c r="B149" s="10"/>
       <c r="C149" s="11"/>
-      <c r="D149" s="48"/>
-      <c r="E149" s="49">
+      <c r="D149" s="34"/>
+      <c r="E149" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F149" s="50"/>
-      <c r="G149" s="51"/>
-      <c r="H149" s="52"/>
+      <c r="F149" s="36"/>
+      <c r="G149" s="37"/>
+      <c r="H149" s="38"/>
     </row>
     <row r="150" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="66" t="s">
+      <c r="A150" s="52" t="s">
         <v>125</v>
       </c>
       <c r="B150" s="10"/>
       <c r="C150" s="11"/>
-      <c r="D150" s="48"/>
-      <c r="E150" s="49">
+      <c r="D150" s="34"/>
+      <c r="E150" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F150" s="50"/>
-      <c r="G150" s="51"/>
-      <c r="H150" s="52"/>
+      <c r="F150" s="36"/>
+      <c r="G150" s="37"/>
+      <c r="H150" s="38"/>
     </row>
     <row r="151" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="66" t="s">
+      <c r="A151" s="52" t="s">
         <v>126</v>
       </c>
       <c r="B151" s="10"/>
       <c r="C151" s="11"/>
-      <c r="D151" s="48"/>
-      <c r="E151" s="49">
+      <c r="D151" s="34"/>
+      <c r="E151" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F151" s="50"/>
-      <c r="G151" s="51"/>
-      <c r="H151" s="52"/>
+      <c r="F151" s="36"/>
+      <c r="G151" s="37"/>
+      <c r="H151" s="38"/>
     </row>
     <row r="152" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="66" t="s">
+      <c r="A152" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="B152" s="54"/>
-      <c r="C152" s="55"/>
-      <c r="D152" s="62"/>
-      <c r="E152" s="63">
+      <c r="B152" s="40"/>
+      <c r="C152" s="41"/>
+      <c r="D152" s="48"/>
+      <c r="E152" s="49">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F152" s="64"/>
-      <c r="G152" s="59"/>
-      <c r="H152" s="60"/>
+      <c r="F152" s="50"/>
+      <c r="G152" s="45"/>
+      <c r="H152" s="46"/>
     </row>
     <row r="153" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="9"/>
@@ -3954,7 +3971,7 @@
       <c r="D153" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E153" s="65">
+      <c r="E153" s="51">
         <f>SUM(E146:E152)</f>
         <v>0</v>
       </c>
@@ -3969,11 +3986,11 @@
       <c r="D154" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E154" s="45">
+      <c r="E154" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>52</v>
-      </c>
-      <c r="F154" s="46"/>
+        <v>59.75</v>
+      </c>
+      <c r="F154" s="32"/>
       <c r="G154" s="18"/>
       <c r="H154" s="19"/>
     </row>
@@ -4004,108 +4021,108 @@
       </c>
     </row>
     <row r="156" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="66" t="s">
+      <c r="A156" s="52" t="s">
         <v>128</v>
       </c>
       <c r="B156" s="10"/>
       <c r="C156" s="11"/>
-      <c r="D156" s="48"/>
-      <c r="E156" s="49">
+      <c r="D156" s="34"/>
+      <c r="E156" s="35">
         <f>(B156-C156)*-24-D156</f>
         <v>0</v>
       </c>
-      <c r="F156" s="50"/>
-      <c r="G156" s="51"/>
-      <c r="H156" s="52"/>
+      <c r="F156" s="36"/>
+      <c r="G156" s="37"/>
+      <c r="H156" s="38"/>
     </row>
     <row r="157" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="66" t="s">
+      <c r="A157" s="52" t="s">
         <v>129</v>
       </c>
       <c r="B157" s="10"/>
       <c r="C157" s="11"/>
-      <c r="D157" s="48"/>
-      <c r="E157" s="49">
+      <c r="D157" s="34"/>
+      <c r="E157" s="35">
         <f t="shared" ref="E157:E161" si="15">(B157-C157)*-24-D157</f>
         <v>0</v>
       </c>
-      <c r="F157" s="50"/>
-      <c r="G157" s="51"/>
-      <c r="H157" s="52"/>
+      <c r="F157" s="36"/>
+      <c r="G157" s="37"/>
+      <c r="H157" s="38"/>
     </row>
     <row r="158" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="66" t="s">
+      <c r="A158" s="52" t="s">
         <v>130</v>
       </c>
       <c r="B158" s="10"/>
       <c r="C158" s="11"/>
-      <c r="D158" s="48"/>
-      <c r="E158" s="49">
+      <c r="D158" s="34"/>
+      <c r="E158" s="35">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F158" s="50"/>
-      <c r="G158" s="51"/>
-      <c r="H158" s="52"/>
+      <c r="F158" s="36"/>
+      <c r="G158" s="37"/>
+      <c r="H158" s="38"/>
     </row>
     <row r="159" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="66" t="s">
+      <c r="A159" s="52" t="s">
         <v>131</v>
       </c>
       <c r="B159" s="10"/>
       <c r="C159" s="11"/>
-      <c r="D159" s="48"/>
-      <c r="E159" s="49">
+      <c r="D159" s="34"/>
+      <c r="E159" s="35">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F159" s="50"/>
-      <c r="G159" s="51"/>
-      <c r="H159" s="52"/>
+      <c r="F159" s="36"/>
+      <c r="G159" s="37"/>
+      <c r="H159" s="38"/>
     </row>
     <row r="160" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="66" t="s">
+      <c r="A160" s="52" t="s">
         <v>132</v>
       </c>
       <c r="B160" s="10"/>
       <c r="C160" s="11"/>
-      <c r="D160" s="48"/>
-      <c r="E160" s="49">
+      <c r="D160" s="34"/>
+      <c r="E160" s="35">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F160" s="50"/>
-      <c r="G160" s="51"/>
-      <c r="H160" s="52"/>
+      <c r="F160" s="36"/>
+      <c r="G160" s="37"/>
+      <c r="H160" s="38"/>
     </row>
     <row r="161" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="66" t="s">
+      <c r="A161" s="52" t="s">
         <v>133</v>
       </c>
       <c r="B161" s="10"/>
       <c r="C161" s="11"/>
-      <c r="D161" s="48"/>
-      <c r="E161" s="49">
+      <c r="D161" s="34"/>
+      <c r="E161" s="35">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F161" s="50"/>
-      <c r="G161" s="51"/>
-      <c r="H161" s="52"/>
+      <c r="F161" s="36"/>
+      <c r="G161" s="37"/>
+      <c r="H161" s="38"/>
     </row>
     <row r="162" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="66" t="s">
+      <c r="A162" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="B162" s="54"/>
-      <c r="C162" s="55"/>
-      <c r="D162" s="62"/>
-      <c r="E162" s="67">
-        <v>0</v>
-      </c>
-      <c r="F162" s="64"/>
-      <c r="G162" s="59"/>
-      <c r="H162" s="60"/>
+      <c r="B162" s="40"/>
+      <c r="C162" s="41"/>
+      <c r="D162" s="48"/>
+      <c r="E162" s="53">
+        <v>0</v>
+      </c>
+      <c r="F162" s="50"/>
+      <c r="G162" s="45"/>
+      <c r="H162" s="46"/>
     </row>
     <row r="163" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="9"/>
@@ -4114,7 +4131,7 @@
       <c r="D163" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E163" s="65">
+      <c r="E163" s="51">
         <f>SUM(E156:E162)</f>
         <v>0</v>
       </c>
@@ -4129,11 +4146,11 @@
       <c r="D164" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E164" s="45">
+      <c r="E164" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>52</v>
-      </c>
-      <c r="F164" s="46"/>
+        <v>59.75</v>
+      </c>
+      <c r="F164" s="32"/>
       <c r="G164" s="18"/>
       <c r="H164" s="19"/>
     </row>
@@ -4164,109 +4181,109 @@
       </c>
     </row>
     <row r="166" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="66" t="s">
+      <c r="A166" s="52" t="s">
         <v>135</v>
       </c>
       <c r="B166" s="10"/>
       <c r="C166" s="11"/>
-      <c r="D166" s="48"/>
-      <c r="E166" s="49">
+      <c r="D166" s="34"/>
+      <c r="E166" s="35">
         <f>(B166-C166)*-24-D166</f>
         <v>0</v>
       </c>
-      <c r="F166" s="50"/>
-      <c r="G166" s="51"/>
-      <c r="H166" s="52"/>
+      <c r="F166" s="36"/>
+      <c r="G166" s="37"/>
+      <c r="H166" s="38"/>
     </row>
     <row r="167" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="66" t="s">
+      <c r="A167" s="52" t="s">
         <v>136</v>
       </c>
       <c r="B167" s="10"/>
       <c r="C167" s="11"/>
-      <c r="D167" s="48"/>
-      <c r="E167" s="49">
+      <c r="D167" s="34"/>
+      <c r="E167" s="35">
         <f t="shared" ref="E167:E172" si="16">(B167-C167)*-24-D167</f>
         <v>0</v>
       </c>
-      <c r="F167" s="50"/>
-      <c r="G167" s="51"/>
-      <c r="H167" s="52"/>
+      <c r="F167" s="36"/>
+      <c r="G167" s="37"/>
+      <c r="H167" s="38"/>
     </row>
     <row r="168" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="66" t="s">
+      <c r="A168" s="52" t="s">
         <v>137</v>
       </c>
       <c r="B168" s="10"/>
       <c r="C168" s="11"/>
-      <c r="D168" s="48"/>
-      <c r="E168" s="49">
+      <c r="D168" s="34"/>
+      <c r="E168" s="35">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F168" s="50"/>
-      <c r="G168" s="51"/>
-      <c r="H168" s="52"/>
+      <c r="F168" s="36"/>
+      <c r="G168" s="37"/>
+      <c r="H168" s="38"/>
     </row>
     <row r="169" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="66" t="s">
+      <c r="A169" s="52" t="s">
         <v>138</v>
       </c>
       <c r="B169" s="10"/>
       <c r="C169" s="11"/>
-      <c r="D169" s="48"/>
-      <c r="E169" s="49">
+      <c r="D169" s="34"/>
+      <c r="E169" s="35">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F169" s="50"/>
-      <c r="G169" s="51"/>
-      <c r="H169" s="52"/>
+      <c r="F169" s="36"/>
+      <c r="G169" s="37"/>
+      <c r="H169" s="38"/>
     </row>
     <row r="170" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="66" t="s">
+      <c r="A170" s="52" t="s">
         <v>139</v>
       </c>
       <c r="B170" s="10"/>
       <c r="C170" s="11"/>
-      <c r="D170" s="48"/>
-      <c r="E170" s="49">
+      <c r="D170" s="34"/>
+      <c r="E170" s="35">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F170" s="50"/>
-      <c r="G170" s="51"/>
-      <c r="H170" s="52"/>
+      <c r="F170" s="36"/>
+      <c r="G170" s="37"/>
+      <c r="H170" s="38"/>
     </row>
     <row r="171" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="66" t="s">
+      <c r="A171" s="52" t="s">
         <v>140</v>
       </c>
       <c r="B171" s="10"/>
       <c r="C171" s="11"/>
-      <c r="D171" s="48"/>
-      <c r="E171" s="49">
+      <c r="D171" s="34"/>
+      <c r="E171" s="35">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F171" s="50"/>
-      <c r="G171" s="51"/>
-      <c r="H171" s="52"/>
+      <c r="F171" s="36"/>
+      <c r="G171" s="37"/>
+      <c r="H171" s="38"/>
     </row>
     <row r="172" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="66" t="s">
+      <c r="A172" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="B172" s="54"/>
-      <c r="C172" s="55"/>
-      <c r="D172" s="62"/>
-      <c r="E172" s="63">
+      <c r="B172" s="40"/>
+      <c r="C172" s="41"/>
+      <c r="D172" s="48"/>
+      <c r="E172" s="49">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F172" s="64"/>
-      <c r="G172" s="59"/>
-      <c r="H172" s="60"/>
+      <c r="F172" s="50"/>
+      <c r="G172" s="45"/>
+      <c r="H172" s="46"/>
     </row>
     <row r="173" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="9"/>
@@ -4275,7 +4292,7 @@
       <c r="D173" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E173" s="65">
+      <c r="E173" s="51">
         <f>SUM(E166:E172)</f>
         <v>0</v>
       </c>
@@ -4290,11 +4307,11 @@
       <c r="D174" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E174" s="45">
+      <c r="E174" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>52</v>
-      </c>
-      <c r="F174" s="46"/>
+        <v>59.75</v>
+      </c>
+      <c r="F174" s="32"/>
       <c r="G174" s="18"/>
       <c r="H174" s="19"/>
     </row>
@@ -4325,109 +4342,109 @@
       </c>
     </row>
     <row r="176" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="66" t="s">
+      <c r="A176" s="52" t="s">
         <v>142</v>
       </c>
       <c r="B176" s="10"/>
       <c r="C176" s="11"/>
-      <c r="D176" s="48"/>
-      <c r="E176" s="49">
+      <c r="D176" s="34"/>
+      <c r="E176" s="35">
         <f>(B176-C176)*-24-D176</f>
         <v>0</v>
       </c>
-      <c r="F176" s="50"/>
-      <c r="G176" s="51"/>
-      <c r="H176" s="52"/>
+      <c r="F176" s="36"/>
+      <c r="G176" s="37"/>
+      <c r="H176" s="38"/>
     </row>
     <row r="177" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="66" t="s">
+      <c r="A177" s="52" t="s">
         <v>143</v>
       </c>
       <c r="B177" s="10"/>
       <c r="C177" s="11"/>
-      <c r="D177" s="48"/>
-      <c r="E177" s="49">
+      <c r="D177" s="34"/>
+      <c r="E177" s="35">
         <f t="shared" ref="E177:E182" si="17">(B177-C177)*-24-D177</f>
         <v>0</v>
       </c>
-      <c r="F177" s="50"/>
-      <c r="G177" s="51"/>
-      <c r="H177" s="52"/>
+      <c r="F177" s="36"/>
+      <c r="G177" s="37"/>
+      <c r="H177" s="38"/>
     </row>
     <row r="178" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="66" t="s">
+      <c r="A178" s="52" t="s">
         <v>144</v>
       </c>
       <c r="B178" s="10"/>
       <c r="C178" s="11"/>
-      <c r="D178" s="48"/>
-      <c r="E178" s="49">
+      <c r="D178" s="34"/>
+      <c r="E178" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F178" s="50"/>
-      <c r="G178" s="51"/>
-      <c r="H178" s="52"/>
+      <c r="F178" s="36"/>
+      <c r="G178" s="37"/>
+      <c r="H178" s="38"/>
     </row>
     <row r="179" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="66" t="s">
+      <c r="A179" s="52" t="s">
         <v>145</v>
       </c>
       <c r="B179" s="10"/>
       <c r="C179" s="11"/>
-      <c r="D179" s="48"/>
-      <c r="E179" s="49">
+      <c r="D179" s="34"/>
+      <c r="E179" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F179" s="50"/>
-      <c r="G179" s="51"/>
-      <c r="H179" s="52"/>
+      <c r="F179" s="36"/>
+      <c r="G179" s="37"/>
+      <c r="H179" s="38"/>
     </row>
     <row r="180" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="66" t="s">
+      <c r="A180" s="52" t="s">
         <v>146</v>
       </c>
       <c r="B180" s="10"/>
       <c r="C180" s="11"/>
-      <c r="D180" s="48"/>
-      <c r="E180" s="49">
+      <c r="D180" s="34"/>
+      <c r="E180" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F180" s="50"/>
-      <c r="G180" s="51"/>
-      <c r="H180" s="52"/>
+      <c r="F180" s="36"/>
+      <c r="G180" s="37"/>
+      <c r="H180" s="38"/>
     </row>
     <row r="181" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="66" t="s">
+      <c r="A181" s="52" t="s">
         <v>147</v>
       </c>
       <c r="B181" s="10"/>
       <c r="C181" s="11"/>
-      <c r="D181" s="48"/>
-      <c r="E181" s="49">
+      <c r="D181" s="34"/>
+      <c r="E181" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F181" s="50"/>
-      <c r="G181" s="51"/>
-      <c r="H181" s="52"/>
+      <c r="F181" s="36"/>
+      <c r="G181" s="37"/>
+      <c r="H181" s="38"/>
     </row>
     <row r="182" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="66" t="s">
+      <c r="A182" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="B182" s="54"/>
-      <c r="C182" s="55"/>
-      <c r="D182" s="62"/>
-      <c r="E182" s="63">
+      <c r="B182" s="40"/>
+      <c r="C182" s="41"/>
+      <c r="D182" s="48"/>
+      <c r="E182" s="49">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F182" s="64"/>
-      <c r="G182" s="59"/>
-      <c r="H182" s="60"/>
+      <c r="F182" s="50"/>
+      <c r="G182" s="45"/>
+      <c r="H182" s="46"/>
     </row>
     <row r="183" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="9"/>
@@ -4436,7 +4453,7 @@
       <c r="D183" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E183" s="65">
+      <c r="E183" s="51">
         <f>SUM(E176:E182)</f>
         <v>0</v>
       </c>
@@ -4451,9 +4468,9 @@
       <c r="D184" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E184" s="65">
+      <c r="E184" s="51">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>52</v>
+        <v>59.75</v>
       </c>
       <c r="F184" s="6"/>
       <c r="G184" s="7"/>

--- a/_WIP/Lou/Lou-Zeiterfassung.xlsx
+++ b/_WIP/Lou/Lou-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="151">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -469,6 +469,9 @@
   </si>
   <si>
     <t>Knopf mesh, Knopf baking, Handsoft</t>
+  </si>
+  <si>
+    <t>Voodoo Puppe Textur, Substance painter</t>
   </si>
 </sst>
 </file>
@@ -1241,7 +1244,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1252,7 +1255,7 @@
   <dimension ref="A1:P184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2093,26 +2096,34 @@
       <c r="B36" s="10">
         <v>0.375</v>
       </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="34"/>
+      <c r="C36" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="D36" s="34">
+        <v>1.25</v>
+      </c>
       <c r="E36" s="35">
         <f>(B36-C36)*-24-D36</f>
-        <v>-9</v>
+        <v>7.75</v>
       </c>
       <c r="F36" s="36"/>
-      <c r="G36" s="37"/>
+      <c r="G36" s="37" t="s">
+        <v>150</v>
+      </c>
       <c r="H36" s="38"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="10"/>
+      <c r="B37" s="10">
+        <v>0.40277777777777773</v>
+      </c>
       <c r="C37" s="11"/>
       <c r="D37" s="34"/>
       <c r="E37" s="35">
         <f t="shared" ref="E37:E42" si="3">(B37-C37)*-24-D37</f>
-        <v>0</v>
+        <v>-9.6666666666666661</v>
       </c>
       <c r="F37" s="36"/>
       <c r="G37" s="37"/>
@@ -2202,7 +2213,7 @@
       </c>
       <c r="E43" s="30">
         <f>SUM(E36:E42)</f>
-        <v>-9</v>
+        <v>-1.9166666666666661</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="7"/>
@@ -2217,7 +2228,7 @@
       </c>
       <c r="E44" s="31">
         <f>SUM(E13+E23+E33+E43)</f>
-        <v>59.75</v>
+        <v>66.833333333333329</v>
       </c>
       <c r="F44" s="32"/>
       <c r="G44" s="18"/>
@@ -2378,7 +2389,7 @@
       </c>
       <c r="E54" s="31">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>59.75</v>
+        <v>66.833333333333329</v>
       </c>
       <c r="F54" s="32"/>
       <c r="G54" s="18"/>
@@ -2539,7 +2550,7 @@
       </c>
       <c r="E64" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>59.75</v>
+        <v>66.833333333333329</v>
       </c>
       <c r="F64" s="32"/>
       <c r="G64" s="18"/>
@@ -2700,7 +2711,7 @@
       </c>
       <c r="E74" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>59.75</v>
+        <v>66.833333333333329</v>
       </c>
       <c r="F74" s="32"/>
       <c r="G74" s="18"/>
@@ -2861,7 +2872,7 @@
       </c>
       <c r="E84" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>59.75</v>
+        <v>66.833333333333329</v>
       </c>
       <c r="F84" s="32"/>
       <c r="G84" s="18"/>
@@ -3022,7 +3033,7 @@
       </c>
       <c r="E94" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>59.75</v>
+        <v>66.833333333333329</v>
       </c>
       <c r="F94" s="32"/>
       <c r="G94" s="18"/>
@@ -3183,7 +3194,7 @@
       </c>
       <c r="E104" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>59.75</v>
+        <v>66.833333333333329</v>
       </c>
       <c r="F104" s="32"/>
       <c r="G104" s="18"/>
@@ -3344,7 +3355,7 @@
       </c>
       <c r="E114" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>59.75</v>
+        <v>66.833333333333329</v>
       </c>
       <c r="F114" s="32"/>
       <c r="G114" s="18"/>
@@ -3505,7 +3516,7 @@
       </c>
       <c r="E124" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>59.75</v>
+        <v>66.833333333333329</v>
       </c>
       <c r="F124" s="32"/>
       <c r="G124" s="18"/>
@@ -3666,7 +3677,7 @@
       </c>
       <c r="E134" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>59.75</v>
+        <v>66.833333333333329</v>
       </c>
       <c r="F134" s="32"/>
       <c r="G134" s="18"/>
@@ -3827,7 +3838,7 @@
       </c>
       <c r="E144" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>59.75</v>
+        <v>66.833333333333329</v>
       </c>
       <c r="F144" s="32"/>
       <c r="G144" s="18"/>
@@ -3988,7 +3999,7 @@
       </c>
       <c r="E154" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>59.75</v>
+        <v>66.833333333333329</v>
       </c>
       <c r="F154" s="32"/>
       <c r="G154" s="18"/>
@@ -4148,7 +4159,7 @@
       </c>
       <c r="E164" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>59.75</v>
+        <v>66.833333333333329</v>
       </c>
       <c r="F164" s="32"/>
       <c r="G164" s="18"/>
@@ -4309,7 +4320,7 @@
       </c>
       <c r="E174" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>59.75</v>
+        <v>66.833333333333329</v>
       </c>
       <c r="F174" s="32"/>
       <c r="G174" s="18"/>
@@ -4470,7 +4481,7 @@
       </c>
       <c r="E184" s="51">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>59.75</v>
+        <v>66.833333333333329</v>
       </c>
       <c r="F184" s="6"/>
       <c r="G184" s="7"/>

--- a/_WIP/Lou/Lou-Zeiterfassung.xlsx
+++ b/_WIP/Lou/Lou-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="154">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -472,6 +472,15 @@
   </si>
   <si>
     <t>Voodoo Puppe Textur, Substance painter</t>
+  </si>
+  <si>
+    <t>Voodoo Puppe, Textur tests</t>
+  </si>
+  <si>
+    <t>Textur tests, Farbpaletten; unity tests</t>
+  </si>
+  <si>
+    <t>Texturen, hibiskus Mesh, Unity test</t>
   </si>
 </sst>
 </file>
@@ -1244,7 +1253,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1255,7 +1264,7 @@
   <dimension ref="A1:P184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2090,119 +2099,141 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="68">
         <v>0.375</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="68">
         <v>0.75</v>
       </c>
-      <c r="D36" s="34">
+      <c r="D36" s="69">
         <v>1.25</v>
       </c>
-      <c r="E36" s="35">
+      <c r="E36" s="64">
         <f>(B36-C36)*-24-D36</f>
         <v>7.75</v>
       </c>
-      <c r="F36" s="36"/>
-      <c r="G36" s="37" t="s">
+      <c r="F36" s="67"/>
+      <c r="G36" s="67" t="s">
         <v>150</v>
       </c>
-      <c r="H36" s="38"/>
+      <c r="H36" s="67"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="33" t="s">
+      <c r="A37" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="68"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="64">
+        <f>(B37-C37)*-24-D37</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="68">
         <v>0.40277777777777773</v>
       </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="35">
-        <f t="shared" ref="E37:E42" si="3">(B37-C37)*-24-D37</f>
-        <v>-9.6666666666666661</v>
-      </c>
-      <c r="F37" s="36"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="38"/>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="35">
+      <c r="C38" s="68">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D38" s="69">
+        <v>0.45</v>
+      </c>
+      <c r="E38" s="64">
+        <f>(B38-C38)*-24-D38</f>
+        <v>8.3833333333333364</v>
+      </c>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67" t="s">
+        <v>151</v>
+      </c>
+      <c r="H38" s="67"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="68">
+        <v>0.375</v>
+      </c>
+      <c r="C39" s="68">
+        <v>0.6875</v>
+      </c>
+      <c r="D39" s="69">
+        <v>1</v>
+      </c>
+      <c r="E39" s="64">
+        <f>(B39-C39)*-24-D39</f>
+        <v>6.5</v>
+      </c>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67" t="s">
+        <v>152</v>
+      </c>
+      <c r="H39" s="67"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="68">
+        <v>0.375</v>
+      </c>
+      <c r="C40" s="68">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="D40" s="69">
+        <v>1</v>
+      </c>
+      <c r="E40" s="64">
+        <f t="shared" ref="E37:E42" si="3">(B40-C40)*-24-D40</f>
+        <v>6.7499999999999991</v>
+      </c>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67" t="s">
+        <v>153</v>
+      </c>
+      <c r="H40" s="67"/>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="68"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="70">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F38" s="36"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="38"/>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="35">
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="71"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="73">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F39" s="36"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="38"/>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="35">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F40" s="36"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="38"/>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="39">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="36"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="38"/>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="40"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="44"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="46"/>
+      <c r="F42" s="74"/>
+      <c r="G42" s="75"/>
+      <c r="H42" s="75"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
@@ -2213,7 +2244,7 @@
       </c>
       <c r="E43" s="30">
         <f>SUM(E36:E42)</f>
-        <v>-1.9166666666666661</v>
+        <v>29.383333333333336</v>
       </c>
       <c r="F43" s="6"/>
       <c r="G43" s="7"/>
@@ -2228,7 +2259,7 @@
       </c>
       <c r="E44" s="31">
         <f>SUM(E13+E23+E33+E43)</f>
-        <v>66.833333333333329</v>
+        <v>98.13333333333334</v>
       </c>
       <c r="F44" s="32"/>
       <c r="G44" s="18"/>
@@ -2389,7 +2420,7 @@
       </c>
       <c r="E54" s="31">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>66.833333333333329</v>
+        <v>98.13333333333334</v>
       </c>
       <c r="F54" s="32"/>
       <c r="G54" s="18"/>
@@ -2550,7 +2581,7 @@
       </c>
       <c r="E64" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>66.833333333333329</v>
+        <v>98.13333333333334</v>
       </c>
       <c r="F64" s="32"/>
       <c r="G64" s="18"/>
@@ -2711,7 +2742,7 @@
       </c>
       <c r="E74" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>66.833333333333329</v>
+        <v>98.13333333333334</v>
       </c>
       <c r="F74" s="32"/>
       <c r="G74" s="18"/>
@@ -2872,7 +2903,7 @@
       </c>
       <c r="E84" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>66.833333333333329</v>
+        <v>98.13333333333334</v>
       </c>
       <c r="F84" s="32"/>
       <c r="G84" s="18"/>
@@ -3033,7 +3064,7 @@
       </c>
       <c r="E94" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>66.833333333333329</v>
+        <v>98.13333333333334</v>
       </c>
       <c r="F94" s="32"/>
       <c r="G94" s="18"/>
@@ -3194,7 +3225,7 @@
       </c>
       <c r="E104" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>66.833333333333329</v>
+        <v>98.13333333333334</v>
       </c>
       <c r="F104" s="32"/>
       <c r="G104" s="18"/>
@@ -3355,7 +3386,7 @@
       </c>
       <c r="E114" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>66.833333333333329</v>
+        <v>98.13333333333334</v>
       </c>
       <c r="F114" s="32"/>
       <c r="G114" s="18"/>
@@ -3516,7 +3547,7 @@
       </c>
       <c r="E124" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>66.833333333333329</v>
+        <v>98.13333333333334</v>
       </c>
       <c r="F124" s="32"/>
       <c r="G124" s="18"/>
@@ -3677,7 +3708,7 @@
       </c>
       <c r="E134" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>66.833333333333329</v>
+        <v>98.13333333333334</v>
       </c>
       <c r="F134" s="32"/>
       <c r="G134" s="18"/>
@@ -3838,7 +3869,7 @@
       </c>
       <c r="E144" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>66.833333333333329</v>
+        <v>98.13333333333334</v>
       </c>
       <c r="F144" s="32"/>
       <c r="G144" s="18"/>
@@ -3999,7 +4030,7 @@
       </c>
       <c r="E154" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>66.833333333333329</v>
+        <v>98.13333333333334</v>
       </c>
       <c r="F154" s="32"/>
       <c r="G154" s="18"/>
@@ -4159,7 +4190,7 @@
       </c>
       <c r="E164" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>66.833333333333329</v>
+        <v>98.13333333333334</v>
       </c>
       <c r="F164" s="32"/>
       <c r="G164" s="18"/>
@@ -4320,7 +4351,7 @@
       </c>
       <c r="E174" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>66.833333333333329</v>
+        <v>98.13333333333334</v>
       </c>
       <c r="F174" s="32"/>
       <c r="G174" s="18"/>
@@ -4481,7 +4512,7 @@
       </c>
       <c r="E184" s="51">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>66.833333333333329</v>
+        <v>98.13333333333334</v>
       </c>
       <c r="F184" s="6"/>
       <c r="G184" s="7"/>

--- a/_WIP/Lou/Lou-Zeiterfassung.xlsx
+++ b/_WIP/Lou/Lou-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="155">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -481,6 +481,9 @@
   </si>
   <si>
     <t>Texturen, hibiskus Mesh, Unity test</t>
+  </si>
+  <si>
+    <t>Hibiskus mesh</t>
   </si>
 </sst>
 </file>
@@ -1253,7 +1256,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1263,8 +1266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2196,7 +2199,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="64">
-        <f t="shared" ref="E37:E42" si="3">(B40-C40)*-24-D40</f>
+        <f t="shared" ref="E40:E42" si="3">(B40-C40)*-24-D40</f>
         <v>6.7499999999999991</v>
       </c>
       <c r="F40" s="67"/>
@@ -2292,30 +2295,40 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="33" t="s">
+      <c r="A46" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="35">
+      <c r="B46" s="68">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C46" s="68">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D46" s="69">
+        <v>1</v>
+      </c>
+      <c r="E46" s="64">
         <f>(B46-C46)*-24-D46</f>
-        <v>0</v>
-      </c>
-      <c r="F46" s="36"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="38"/>
+        <v>6</v>
+      </c>
+      <c r="F46" s="67"/>
+      <c r="G46" s="67" t="s">
+        <v>154</v>
+      </c>
+      <c r="H46" s="67"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="10"/>
+      <c r="B47" s="10">
+        <v>0.39583333333333331</v>
+      </c>
       <c r="C47" s="11"/>
       <c r="D47" s="34"/>
       <c r="E47" s="35">
         <f t="shared" ref="E47:E52" si="4">(B47-C47)*-24-D47</f>
-        <v>0</v>
+        <v>-9.5</v>
       </c>
       <c r="F47" s="36"/>
       <c r="G47" s="37"/>
@@ -2405,7 +2418,7 @@
       </c>
       <c r="E53" s="30">
         <f>SUM(E46:E52)</f>
-        <v>0</v>
+        <v>-3.5</v>
       </c>
       <c r="F53" s="6"/>
       <c r="G53" s="7"/>
@@ -2420,7 +2433,7 @@
       </c>
       <c r="E54" s="31">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>98.13333333333334</v>
+        <v>94.63333333333334</v>
       </c>
       <c r="F54" s="32"/>
       <c r="G54" s="18"/>
@@ -2581,7 +2594,7 @@
       </c>
       <c r="E64" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>98.13333333333334</v>
+        <v>94.63333333333334</v>
       </c>
       <c r="F64" s="32"/>
       <c r="G64" s="18"/>
@@ -2742,7 +2755,7 @@
       </c>
       <c r="E74" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>98.13333333333334</v>
+        <v>94.63333333333334</v>
       </c>
       <c r="F74" s="32"/>
       <c r="G74" s="18"/>
@@ -2903,7 +2916,7 @@
       </c>
       <c r="E84" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>98.13333333333334</v>
+        <v>94.63333333333334</v>
       </c>
       <c r="F84" s="32"/>
       <c r="G84" s="18"/>
@@ -3064,7 +3077,7 @@
       </c>
       <c r="E94" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>98.13333333333334</v>
+        <v>94.63333333333334</v>
       </c>
       <c r="F94" s="32"/>
       <c r="G94" s="18"/>
@@ -3225,7 +3238,7 @@
       </c>
       <c r="E104" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>98.13333333333334</v>
+        <v>94.63333333333334</v>
       </c>
       <c r="F104" s="32"/>
       <c r="G104" s="18"/>
@@ -3386,7 +3399,7 @@
       </c>
       <c r="E114" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>98.13333333333334</v>
+        <v>94.63333333333334</v>
       </c>
       <c r="F114" s="32"/>
       <c r="G114" s="18"/>
@@ -3547,7 +3560,7 @@
       </c>
       <c r="E124" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>98.13333333333334</v>
+        <v>94.63333333333334</v>
       </c>
       <c r="F124" s="32"/>
       <c r="G124" s="18"/>
@@ -3708,7 +3721,7 @@
       </c>
       <c r="E134" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>98.13333333333334</v>
+        <v>94.63333333333334</v>
       </c>
       <c r="F134" s="32"/>
       <c r="G134" s="18"/>
@@ -3869,7 +3882,7 @@
       </c>
       <c r="E144" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>98.13333333333334</v>
+        <v>94.63333333333334</v>
       </c>
       <c r="F144" s="32"/>
       <c r="G144" s="18"/>
@@ -4030,7 +4043,7 @@
       </c>
       <c r="E154" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>98.13333333333334</v>
+        <v>94.63333333333334</v>
       </c>
       <c r="F154" s="32"/>
       <c r="G154" s="18"/>
@@ -4190,7 +4203,7 @@
       </c>
       <c r="E164" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>98.13333333333334</v>
+        <v>94.63333333333334</v>
       </c>
       <c r="F164" s="32"/>
       <c r="G164" s="18"/>
@@ -4351,7 +4364,7 @@
       </c>
       <c r="E174" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>98.13333333333334</v>
+        <v>94.63333333333334</v>
       </c>
       <c r="F174" s="32"/>
       <c r="G174" s="18"/>
@@ -4512,7 +4525,7 @@
       </c>
       <c r="E184" s="51">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>98.13333333333334</v>
+        <v>94.63333333333334</v>
       </c>
       <c r="F184" s="6"/>
       <c r="G184" s="7"/>

--- a/_WIP/Lou/Lou-Zeiterfassung.xlsx
+++ b/_WIP/Lou/Lou-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="157">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -484,6 +484,12 @@
   </si>
   <si>
     <t>Hibiskus mesh</t>
+  </si>
+  <si>
+    <t>Feiertag</t>
+  </si>
+  <si>
+    <t>Texturen</t>
   </si>
 </sst>
 </file>
@@ -621,7 +627,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -756,12 +762,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -976,6 +1040,87 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="13" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="13" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="13" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1256,7 +1401,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1267,7 +1412,7 @@
   <dimension ref="A1:P184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2269,160 +2414,184 @@
       <c r="H44" s="19"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="D45" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="24" t="s">
+      <c r="E45" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="F45" s="25" t="s">
+      <c r="F45" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="26" t="s">
+      <c r="G45" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="H45" s="27" t="s">
+      <c r="H45" s="86" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="62" t="s">
+      <c r="A46" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="68">
+      <c r="B46" s="92">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C46" s="68">
+      <c r="C46" s="92">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D46" s="69">
+      <c r="D46" s="93">
         <v>1</v>
       </c>
-      <c r="E46" s="64">
+      <c r="E46" s="94">
         <f>(B46-C46)*-24-D46</f>
         <v>6</v>
       </c>
-      <c r="F46" s="67"/>
-      <c r="G46" s="67" t="s">
+      <c r="F46" s="95"/>
+      <c r="G46" s="95" t="s">
         <v>154</v>
       </c>
-      <c r="H46" s="67"/>
+      <c r="H46" s="96"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="33" t="s">
+      <c r="A47" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="92">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="35">
+      <c r="C47" s="92">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D47" s="93">
+        <v>1</v>
+      </c>
+      <c r="E47" s="94">
         <f t="shared" ref="E47:E52" si="4">(B47-C47)*-24-D47</f>
-        <v>-9.5</v>
-      </c>
-      <c r="F47" s="36"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="38"/>
+        <v>7</v>
+      </c>
+      <c r="F47" s="95"/>
+      <c r="G47" s="95" t="s">
+        <v>156</v>
+      </c>
+      <c r="H47" s="96"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="33" t="s">
+      <c r="A48" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="35">
+      <c r="B48" s="92">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C48" s="92">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D48" s="93">
+        <v>1</v>
+      </c>
+      <c r="E48" s="94">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F48" s="36"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="38"/>
+        <v>6.4999999999999982</v>
+      </c>
+      <c r="F48" s="95"/>
+      <c r="G48" s="95" t="s">
+        <v>156</v>
+      </c>
+      <c r="H48" s="96"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="33" t="s">
+      <c r="A49" s="91" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="35">
+      <c r="B49" s="92"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="93"/>
+      <c r="E49" s="94">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F49" s="36"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="38"/>
+      <c r="F49" s="95" t="s">
+        <v>155</v>
+      </c>
+      <c r="G49" s="97"/>
+      <c r="H49" s="96"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="33" t="s">
+      <c r="A50" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="35">
+      <c r="B50" s="92">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="C50" s="92">
+        <v>0.75</v>
+      </c>
+      <c r="D50" s="93">
+        <v>2</v>
+      </c>
+      <c r="E50" s="94">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F50" s="36"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="38"/>
+        <v>6.75</v>
+      </c>
+      <c r="F50" s="95"/>
+      <c r="G50" s="95" t="s">
+        <v>156</v>
+      </c>
+      <c r="H50" s="96"/>
     </row>
     <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="33" t="s">
+      <c r="A51" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="39">
+      <c r="B51" s="92"/>
+      <c r="C51" s="92"/>
+      <c r="D51" s="93"/>
+      <c r="E51" s="94">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F51" s="36"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="38"/>
+      <c r="F51" s="95"/>
+      <c r="G51" s="95"/>
+      <c r="H51" s="96"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="33" t="s">
+      <c r="A52" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="40"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="43">
+      <c r="B52" s="98"/>
+      <c r="C52" s="98"/>
+      <c r="D52" s="99"/>
+      <c r="E52" s="100">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F52" s="44"/>
-      <c r="G52" s="45"/>
-      <c r="H52" s="46"/>
+      <c r="F52" s="101"/>
+      <c r="G52" s="101"/>
+      <c r="H52" s="102"/>
     </row>
     <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="9"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="4" t="s">
+      <c r="A53" s="87"/>
+      <c r="B53" s="88"/>
+      <c r="C53" s="89"/>
+      <c r="D53" s="90" t="s">
         <v>23</v>
       </c>
       <c r="E53" s="30">
         <f>SUM(E46:E52)</f>
-        <v>-3.5</v>
-      </c>
-      <c r="F53" s="6"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="8"/>
+        <v>26.25</v>
+      </c>
+      <c r="F53" s="76"/>
+      <c r="G53" s="77"/>
+      <c r="H53" s="78"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12"/>
@@ -2433,7 +2602,7 @@
       </c>
       <c r="E54" s="31">
         <f>SUM(E13+E23+E33+E43+E53)</f>
-        <v>94.63333333333334</v>
+        <v>124.38333333333334</v>
       </c>
       <c r="F54" s="32"/>
       <c r="G54" s="18"/>
@@ -2594,7 +2763,7 @@
       </c>
       <c r="E64" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>94.63333333333334</v>
+        <v>124.38333333333334</v>
       </c>
       <c r="F64" s="32"/>
       <c r="G64" s="18"/>
@@ -2755,7 +2924,7 @@
       </c>
       <c r="E74" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>94.63333333333334</v>
+        <v>124.38333333333334</v>
       </c>
       <c r="F74" s="32"/>
       <c r="G74" s="18"/>
@@ -2916,7 +3085,7 @@
       </c>
       <c r="E84" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>94.63333333333334</v>
+        <v>124.38333333333334</v>
       </c>
       <c r="F84" s="32"/>
       <c r="G84" s="18"/>
@@ -3077,7 +3246,7 @@
       </c>
       <c r="E94" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>94.63333333333334</v>
+        <v>124.38333333333334</v>
       </c>
       <c r="F94" s="32"/>
       <c r="G94" s="18"/>
@@ -3238,7 +3407,7 @@
       </c>
       <c r="E104" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>94.63333333333334</v>
+        <v>124.38333333333334</v>
       </c>
       <c r="F104" s="32"/>
       <c r="G104" s="18"/>
@@ -3399,7 +3568,7 @@
       </c>
       <c r="E114" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>94.63333333333334</v>
+        <v>124.38333333333334</v>
       </c>
       <c r="F114" s="32"/>
       <c r="G114" s="18"/>
@@ -3560,7 +3729,7 @@
       </c>
       <c r="E124" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>94.63333333333334</v>
+        <v>124.38333333333334</v>
       </c>
       <c r="F124" s="32"/>
       <c r="G124" s="18"/>
@@ -3721,7 +3890,7 @@
       </c>
       <c r="E134" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>94.63333333333334</v>
+        <v>124.38333333333334</v>
       </c>
       <c r="F134" s="32"/>
       <c r="G134" s="18"/>
@@ -3882,7 +4051,7 @@
       </c>
       <c r="E144" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>94.63333333333334</v>
+        <v>124.38333333333334</v>
       </c>
       <c r="F144" s="32"/>
       <c r="G144" s="18"/>
@@ -4043,7 +4212,7 @@
       </c>
       <c r="E154" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>94.63333333333334</v>
+        <v>124.38333333333334</v>
       </c>
       <c r="F154" s="32"/>
       <c r="G154" s="18"/>
@@ -4203,7 +4372,7 @@
       </c>
       <c r="E164" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>94.63333333333334</v>
+        <v>124.38333333333334</v>
       </c>
       <c r="F164" s="32"/>
       <c r="G164" s="18"/>
@@ -4364,7 +4533,7 @@
       </c>
       <c r="E174" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>94.63333333333334</v>
+        <v>124.38333333333334</v>
       </c>
       <c r="F174" s="32"/>
       <c r="G174" s="18"/>
@@ -4525,7 +4694,7 @@
       </c>
       <c r="E184" s="51">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>94.63333333333334</v>
+        <v>124.38333333333334</v>
       </c>
       <c r="F184" s="6"/>
       <c r="G184" s="7"/>

--- a/_WIP/Lou/Lou-Zeiterfassung.xlsx
+++ b/_WIP/Lou/Lou-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="159">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -490,6 +490,12 @@
   </si>
   <si>
     <t>Texturen</t>
+  </si>
+  <si>
+    <t>Krank</t>
+  </si>
+  <si>
+    <t>Moodboard, stuhl textur</t>
   </si>
 </sst>
 </file>
@@ -825,7 +831,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -937,22 +943,10 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="6" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1401,7 +1395,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1411,20 +1405,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="54" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="55" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" style="56" customWidth="1"/>
-    <col min="4" max="4" width="26" style="57" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" style="58" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" style="59" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.85546875" style="60" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" style="50" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="51" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="52" customWidth="1"/>
+    <col min="4" max="4" width="26" style="53" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" style="54" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.85546875" style="56" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1504,27 +1498,27 @@
       </c>
     </row>
     <row r="6" spans="1:16" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="63">
+      <c r="B6" s="59">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C6" s="63">
+      <c r="C6" s="59">
         <v>0.75</v>
       </c>
-      <c r="D6" s="64">
+      <c r="D6" s="60">
         <v>1</v>
       </c>
-      <c r="E6" s="64">
+      <c r="E6" s="60">
         <f>(B6-C6)*-24-D6</f>
         <v>7</v>
       </c>
-      <c r="F6" s="65"/>
-      <c r="G6" s="66" t="s">
+      <c r="F6" s="61"/>
+      <c r="G6" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="67"/>
+      <c r="H6" s="63"/>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
@@ -1535,27 +1529,27 @@
       <c r="P6" s="28"/>
     </row>
     <row r="7" spans="1:16" s="29" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="68">
+      <c r="B7" s="64">
         <v>0.375</v>
       </c>
-      <c r="C7" s="68">
+      <c r="C7" s="64">
         <v>0.75</v>
       </c>
-      <c r="D7" s="69">
+      <c r="D7" s="65">
         <v>1</v>
       </c>
-      <c r="E7" s="64">
+      <c r="E7" s="60">
         <f t="shared" ref="E7:E12" si="0">(B7-C7)*-24-D7</f>
         <v>8</v>
       </c>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67" t="s">
+      <c r="F7" s="63"/>
+      <c r="G7" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="67"/>
+      <c r="H7" s="63"/>
       <c r="I7" s="28"/>
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
@@ -1566,27 +1560,27 @@
       <c r="P7" s="28"/>
     </row>
     <row r="8" spans="1:16" s="29" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="68">
+      <c r="B8" s="64">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C8" s="68">
+      <c r="C8" s="64">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D8" s="69">
+      <c r="D8" s="65">
         <v>2</v>
       </c>
-      <c r="E8" s="64">
+      <c r="E8" s="60">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67" t="s">
+      <c r="F8" s="63"/>
+      <c r="G8" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="67"/>
+      <c r="H8" s="63"/>
       <c r="I8" s="28"/>
       <c r="J8" s="28"/>
       <c r="K8" s="28"/>
@@ -1597,27 +1591,27 @@
       <c r="P8" s="28"/>
     </row>
     <row r="9" spans="1:16" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="68">
+      <c r="B9" s="64">
         <v>0.38194444444444442</v>
       </c>
-      <c r="C9" s="68">
+      <c r="C9" s="64">
         <v>0.78125</v>
       </c>
-      <c r="D9" s="69">
+      <c r="D9" s="65">
         <v>1.5</v>
       </c>
-      <c r="E9" s="64">
+      <c r="E9" s="60">
         <f t="shared" si="0"/>
         <v>8.0833333333333339</v>
       </c>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67" t="s">
+      <c r="F9" s="63"/>
+      <c r="G9" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="67"/>
+      <c r="H9" s="63"/>
       <c r="I9" s="28"/>
       <c r="J9" s="28"/>
       <c r="K9" s="28"/>
@@ -1628,25 +1622,25 @@
       <c r="P9" s="28"/>
     </row>
     <row r="10" spans="1:16" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="68">
+      <c r="B10" s="64">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C10" s="68">
+      <c r="C10" s="64">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D10" s="69"/>
-      <c r="E10" s="64">
+      <c r="D10" s="65"/>
+      <c r="E10" s="60">
         <f>(B10-C10)*-24-D10</f>
         <v>7.5000000000000018</v>
       </c>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67" t="s">
+      <c r="F10" s="63"/>
+      <c r="G10" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="67"/>
+      <c r="H10" s="63"/>
       <c r="I10" s="28"/>
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
@@ -1657,19 +1651,19 @@
       <c r="P10" s="28"/>
     </row>
     <row r="11" spans="1:16" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="70">
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
       <c r="I11" s="28"/>
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
@@ -1680,19 +1674,19 @@
       <c r="P11" s="28"/>
     </row>
     <row r="12" spans="1:16" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="73">
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="74"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
       <c r="I12" s="28"/>
       <c r="J12" s="28"/>
       <c r="K12" s="28"/>
@@ -1783,19 +1777,19 @@
       <c r="P15" s="28"/>
     </row>
     <row r="16" spans="1:16" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="64">
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="60">
         <f>(B16-C16)*-24-D16</f>
         <v>0</v>
       </c>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
       <c r="I16" s="28"/>
       <c r="J16" s="28"/>
       <c r="K16" s="28"/>
@@ -1806,19 +1800,19 @@
       <c r="P16" s="28"/>
     </row>
     <row r="17" spans="1:16" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="64">
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="60">
         <f t="shared" ref="E17:E22" si="1">(B17-C17)*-24-D17</f>
         <v>0</v>
       </c>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
       <c r="I17" s="28"/>
       <c r="J17" s="28"/>
       <c r="K17" s="28"/>
@@ -1829,25 +1823,25 @@
       <c r="P17" s="28"/>
     </row>
     <row r="18" spans="1:16" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="68">
+      <c r="B18" s="64">
         <v>0.69791666666666663</v>
       </c>
-      <c r="C18" s="68">
+      <c r="C18" s="64">
         <v>0.75</v>
       </c>
-      <c r="D18" s="69"/>
-      <c r="E18" s="64">
+      <c r="D18" s="65"/>
+      <c r="E18" s="60">
         <f t="shared" si="1"/>
         <v>1.2500000000000009</v>
       </c>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67" t="s">
+      <c r="F18" s="63"/>
+      <c r="G18" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="67"/>
+      <c r="H18" s="63"/>
       <c r="I18" s="28"/>
       <c r="J18" s="28"/>
       <c r="K18" s="28"/>
@@ -1858,19 +1852,19 @@
       <c r="P18" s="28"/>
     </row>
     <row r="19" spans="1:16" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="64">
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="60">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
       <c r="I19" s="28"/>
       <c r="J19" s="28"/>
       <c r="K19" s="28"/>
@@ -1881,27 +1875,27 @@
       <c r="P19" s="28"/>
     </row>
     <row r="20" spans="1:16" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="62" t="s">
+      <c r="A20" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="68">
+      <c r="B20" s="64">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C20" s="68">
+      <c r="C20" s="64">
         <v>0.71875</v>
       </c>
-      <c r="D20" s="69">
+      <c r="D20" s="65">
         <v>1</v>
       </c>
-      <c r="E20" s="64">
+      <c r="E20" s="60">
         <f t="shared" si="1"/>
         <v>4.75</v>
       </c>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67" t="s">
+      <c r="F20" s="63"/>
+      <c r="G20" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="67"/>
+      <c r="H20" s="63"/>
       <c r="I20" s="28"/>
       <c r="J20" s="28"/>
       <c r="K20" s="28"/>
@@ -1912,19 +1906,19 @@
       <c r="P20" s="28"/>
     </row>
     <row r="21" spans="1:16" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="62" t="s">
+      <c r="A21" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="70">
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
       <c r="I21" s="28"/>
       <c r="J21" s="28"/>
       <c r="K21" s="28"/>
@@ -1935,19 +1929,19 @@
       <c r="P21" s="28"/>
     </row>
     <row r="22" spans="1:16" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="73">
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F22" s="74"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
       <c r="I22" s="28"/>
       <c r="J22" s="28"/>
       <c r="K22" s="28"/>
@@ -2038,27 +2032,27 @@
       <c r="P25" s="28"/>
     </row>
     <row r="26" spans="1:16" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="68">
+      <c r="B26" s="64">
         <v>0.375</v>
       </c>
-      <c r="C26" s="68">
+      <c r="C26" s="64">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D26" s="69">
+      <c r="D26" s="65">
         <v>1.5</v>
       </c>
-      <c r="E26" s="64">
+      <c r="E26" s="60">
         <f>(B26-C26)*-24-D26</f>
         <v>7</v>
       </c>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67" t="s">
+      <c r="F26" s="63"/>
+      <c r="G26" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="H26" s="67"/>
+      <c r="H26" s="63"/>
       <c r="I26" s="28"/>
       <c r="J26" s="28"/>
       <c r="K26" s="28"/>
@@ -2069,27 +2063,27 @@
       <c r="P26" s="28"/>
     </row>
     <row r="27" spans="1:16" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="68">
+      <c r="B27" s="64">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C27" s="68">
+      <c r="C27" s="64">
         <v>0.69444444444444453</v>
       </c>
-      <c r="D27" s="69">
+      <c r="D27" s="65">
         <v>1.25</v>
       </c>
-      <c r="E27" s="64">
+      <c r="E27" s="60">
         <f t="shared" ref="E27:E32" si="2">(B27-C27)*-24-D27</f>
         <v>5.4166666666666679</v>
       </c>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67" t="s">
+      <c r="F27" s="63"/>
+      <c r="G27" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="67"/>
+      <c r="H27" s="63"/>
       <c r="I27" s="28"/>
       <c r="J27" s="28"/>
       <c r="K27" s="28"/>
@@ -2100,95 +2094,95 @@
       <c r="P27" s="28"/>
     </row>
     <row r="28" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="62" t="s">
+      <c r="A28" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="68">
+      <c r="B28" s="64">
         <v>0.375</v>
       </c>
-      <c r="C28" s="68">
+      <c r="C28" s="64">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D28" s="69">
+      <c r="D28" s="65">
         <v>1.5</v>
       </c>
-      <c r="E28" s="64">
+      <c r="E28" s="60">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67" t="s">
+      <c r="F28" s="63"/>
+      <c r="G28" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="H28" s="67"/>
+      <c r="H28" s="63"/>
     </row>
     <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="62" t="s">
+      <c r="A29" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="68">
+      <c r="B29" s="64">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C29" s="68">
+      <c r="C29" s="64">
         <v>0.75</v>
       </c>
-      <c r="D29" s="69">
+      <c r="D29" s="65">
         <v>1.25</v>
       </c>
-      <c r="E29" s="64">
+      <c r="E29" s="60">
         <f t="shared" si="2"/>
         <v>6.75</v>
       </c>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67" t="s">
+      <c r="F29" s="63"/>
+      <c r="G29" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="H29" s="67"/>
+      <c r="H29" s="63"/>
     </row>
     <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="68"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="64">
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
     </row>
     <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="62" t="s">
+      <c r="A31" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="70">
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
     </row>
     <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="62" t="s">
+      <c r="A32" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="71"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="73">
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="69">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F32" s="74"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="71"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
@@ -2233,7 +2227,7 @@
       <c r="D35" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="47" t="s">
+      <c r="E35" s="43" t="s">
         <v>7</v>
       </c>
       <c r="F35" s="25" t="s">
@@ -2247,141 +2241,141 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="62" t="s">
+      <c r="A36" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B36" s="68">
+      <c r="B36" s="64">
         <v>0.375</v>
       </c>
-      <c r="C36" s="68">
+      <c r="C36" s="64">
         <v>0.75</v>
       </c>
-      <c r="D36" s="69">
+      <c r="D36" s="65">
         <v>1.25</v>
       </c>
-      <c r="E36" s="64">
+      <c r="E36" s="60">
         <f>(B36-C36)*-24-D36</f>
         <v>7.75</v>
       </c>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67" t="s">
+      <c r="F36" s="63"/>
+      <c r="G36" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="H36" s="67"/>
+      <c r="H36" s="63"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="62" t="s">
+      <c r="A37" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="68"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="64">
+      <c r="B37" s="64"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="60">
         <f>(B37-C37)*-24-D37</f>
         <v>0</v>
       </c>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="62" t="s">
+      <c r="A38" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="68">
+      <c r="B38" s="64">
         <v>0.40277777777777773</v>
       </c>
-      <c r="C38" s="68">
+      <c r="C38" s="64">
         <v>0.77083333333333337</v>
       </c>
-      <c r="D38" s="69">
+      <c r="D38" s="65">
         <v>0.45</v>
       </c>
-      <c r="E38" s="64">
+      <c r="E38" s="60">
         <f>(B38-C38)*-24-D38</f>
         <v>8.3833333333333364</v>
       </c>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67" t="s">
+      <c r="F38" s="63"/>
+      <c r="G38" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="H38" s="67"/>
+      <c r="H38" s="63"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="62" t="s">
+      <c r="A39" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="68">
+      <c r="B39" s="64">
         <v>0.375</v>
       </c>
-      <c r="C39" s="68">
+      <c r="C39" s="64">
         <v>0.6875</v>
       </c>
-      <c r="D39" s="69">
+      <c r="D39" s="65">
         <v>1</v>
       </c>
-      <c r="E39" s="64">
+      <c r="E39" s="60">
         <f>(B39-C39)*-24-D39</f>
         <v>6.5</v>
       </c>
-      <c r="F39" s="67"/>
-      <c r="G39" s="67" t="s">
+      <c r="F39" s="63"/>
+      <c r="G39" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="H39" s="67"/>
+      <c r="H39" s="63"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="62" t="s">
+      <c r="A40" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="68">
+      <c r="B40" s="64">
         <v>0.375</v>
       </c>
-      <c r="C40" s="68">
+      <c r="C40" s="64">
         <v>0.69791666666666663</v>
       </c>
-      <c r="D40" s="69">
+      <c r="D40" s="65">
         <v>1</v>
       </c>
-      <c r="E40" s="64">
+      <c r="E40" s="60">
         <f t="shared" ref="E40:E42" si="3">(B40-C40)*-24-D40</f>
         <v>6.7499999999999991</v>
       </c>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67" t="s">
+      <c r="F40" s="63"/>
+      <c r="G40" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="H40" s="67"/>
+      <c r="H40" s="63"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="62" t="s">
+      <c r="A41" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="68"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="70">
+      <c r="B41" s="64"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="66">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F41" s="67"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="67"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="62" t="s">
+      <c r="A42" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="71"/>
-      <c r="C42" s="71"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="73">
+      <c r="B42" s="67"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="69">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F42" s="74"/>
-      <c r="G42" s="75"/>
-      <c r="H42" s="75"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="71"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
@@ -2414,184 +2408,184 @@
       <c r="H44" s="19"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="79" t="s">
+      <c r="A45" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="80" t="s">
+      <c r="B45" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="81" t="s">
+      <c r="C45" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="82" t="s">
+      <c r="D45" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="83" t="s">
+      <c r="E45" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="F45" s="84" t="s">
+      <c r="F45" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="85" t="s">
+      <c r="G45" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="H45" s="86" t="s">
+      <c r="H45" s="82" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="91" t="s">
+      <c r="A46" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="92">
+      <c r="B46" s="88">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C46" s="92">
+      <c r="C46" s="88">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D46" s="93">
+      <c r="D46" s="89">
         <v>1</v>
       </c>
-      <c r="E46" s="94">
+      <c r="E46" s="90">
         <f>(B46-C46)*-24-D46</f>
         <v>6</v>
       </c>
-      <c r="F46" s="95"/>
-      <c r="G46" s="95" t="s">
+      <c r="F46" s="91"/>
+      <c r="G46" s="91" t="s">
         <v>154</v>
       </c>
-      <c r="H46" s="96"/>
+      <c r="H46" s="92"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="91" t="s">
+      <c r="A47" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="92">
+      <c r="B47" s="88">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C47" s="92">
+      <c r="C47" s="88">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D47" s="93">
+      <c r="D47" s="89">
         <v>1</v>
       </c>
-      <c r="E47" s="94">
+      <c r="E47" s="90">
         <f t="shared" ref="E47:E52" si="4">(B47-C47)*-24-D47</f>
         <v>7</v>
       </c>
-      <c r="F47" s="95"/>
-      <c r="G47" s="95" t="s">
+      <c r="F47" s="91"/>
+      <c r="G47" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="H47" s="96"/>
+      <c r="H47" s="92"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="91" t="s">
+      <c r="A48" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="92">
+      <c r="B48" s="88">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C48" s="92">
+      <c r="C48" s="88">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D48" s="93">
+      <c r="D48" s="89">
         <v>1</v>
       </c>
-      <c r="E48" s="94">
+      <c r="E48" s="90">
         <f t="shared" si="4"/>
         <v>6.4999999999999982</v>
       </c>
-      <c r="F48" s="95"/>
-      <c r="G48" s="95" t="s">
+      <c r="F48" s="91"/>
+      <c r="G48" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="H48" s="96"/>
+      <c r="H48" s="92"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="91" t="s">
+      <c r="A49" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="B49" s="92"/>
-      <c r="C49" s="92"/>
-      <c r="D49" s="93"/>
-      <c r="E49" s="94">
+      <c r="B49" s="88"/>
+      <c r="C49" s="88"/>
+      <c r="D49" s="89"/>
+      <c r="E49" s="90">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F49" s="95" t="s">
+      <c r="F49" s="91" t="s">
         <v>155</v>
       </c>
-      <c r="G49" s="97"/>
-      <c r="H49" s="96"/>
+      <c r="G49" s="93"/>
+      <c r="H49" s="92"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="91" t="s">
+      <c r="A50" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="92">
+      <c r="B50" s="88">
         <v>0.38541666666666669</v>
       </c>
-      <c r="C50" s="92">
+      <c r="C50" s="88">
         <v>0.75</v>
       </c>
-      <c r="D50" s="93">
+      <c r="D50" s="89">
         <v>2</v>
       </c>
-      <c r="E50" s="94">
+      <c r="E50" s="90">
         <f t="shared" si="4"/>
         <v>6.75</v>
       </c>
-      <c r="F50" s="95"/>
-      <c r="G50" s="95" t="s">
+      <c r="F50" s="91"/>
+      <c r="G50" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="H50" s="96"/>
+      <c r="H50" s="92"/>
     </row>
     <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="91" t="s">
+      <c r="A51" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="92"/>
-      <c r="C51" s="92"/>
-      <c r="D51" s="93"/>
-      <c r="E51" s="94">
+      <c r="B51" s="88"/>
+      <c r="C51" s="88"/>
+      <c r="D51" s="89"/>
+      <c r="E51" s="90">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F51" s="95"/>
-      <c r="G51" s="95"/>
-      <c r="H51" s="96"/>
+      <c r="F51" s="91"/>
+      <c r="G51" s="91"/>
+      <c r="H51" s="92"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="91" t="s">
+      <c r="A52" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="B52" s="98"/>
-      <c r="C52" s="98"/>
-      <c r="D52" s="99"/>
-      <c r="E52" s="100">
+      <c r="B52" s="94"/>
+      <c r="C52" s="94"/>
+      <c r="D52" s="95"/>
+      <c r="E52" s="96">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F52" s="101"/>
-      <c r="G52" s="101"/>
-      <c r="H52" s="102"/>
+      <c r="F52" s="97"/>
+      <c r="G52" s="97"/>
+      <c r="H52" s="98"/>
     </row>
     <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="87"/>
-      <c r="B53" s="88"/>
-      <c r="C53" s="89"/>
-      <c r="D53" s="90" t="s">
+      <c r="A53" s="83"/>
+      <c r="B53" s="84"/>
+      <c r="C53" s="85"/>
+      <c r="D53" s="86" t="s">
         <v>23</v>
       </c>
       <c r="E53" s="30">
         <f>SUM(E46:E52)</f>
         <v>26.25</v>
       </c>
-      <c r="F53" s="76"/>
-      <c r="G53" s="77"/>
-      <c r="H53" s="78"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="73"/>
+      <c r="H53" s="74"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12"/>
@@ -2635,109 +2629,109 @@
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="33" t="s">
+      <c r="A56" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="35">
+      <c r="B56" s="64"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="60">
         <f>(B56-C56)*-24-D56</f>
         <v>0</v>
       </c>
-      <c r="F56" s="36"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="38"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="63"/>
+      <c r="H56" s="63"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="33" t="s">
+      <c r="A57" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="10"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="35">
+      <c r="B57" s="64"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="60">
         <f t="shared" ref="E57:E62" si="5">(B57-C57)*-24-D57</f>
         <v>0</v>
       </c>
-      <c r="F57" s="36"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="38"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="63"/>
+      <c r="H57" s="63"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="33" t="s">
+      <c r="A58" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="35">
+      <c r="B58" s="64"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="60">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F58" s="36"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="38"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="63"/>
     </row>
     <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="33" t="s">
+      <c r="A59" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="35">
+      <c r="B59" s="64"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="65"/>
+      <c r="E59" s="60">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F59" s="36"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="38"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="63"/>
     </row>
     <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="33" t="s">
+      <c r="A60" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="10"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="35">
+      <c r="B60" s="64"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="60">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F60" s="36"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="38"/>
+      <c r="F60" s="63"/>
+      <c r="G60" s="63"/>
+      <c r="H60" s="63"/>
     </row>
     <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="33" t="s">
+      <c r="A61" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="B61" s="10"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="39">
+      <c r="B61" s="64"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="65"/>
+      <c r="E61" s="66">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F61" s="36"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="38"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="63"/>
+      <c r="H61" s="63"/>
     </row>
     <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="33" t="s">
+      <c r="A62" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="B62" s="40"/>
-      <c r="C62" s="41"/>
-      <c r="D62" s="42"/>
-      <c r="E62" s="43">
+      <c r="B62" s="67"/>
+      <c r="C62" s="67"/>
+      <c r="D62" s="68"/>
+      <c r="E62" s="69">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F62" s="44"/>
-      <c r="G62" s="45"/>
-      <c r="H62" s="46"/>
+      <c r="F62" s="70"/>
+      <c r="G62" s="71"/>
+      <c r="H62" s="71"/>
     </row>
     <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="9"/>
@@ -2796,60 +2790,72 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="33" t="s">
+      <c r="A66" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="10"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="35">
+      <c r="B66" s="64"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="60">
         <f>(B66-C66)*-24-D66</f>
         <v>0</v>
       </c>
-      <c r="F66" s="36"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="38"/>
-    </row>
-    <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="33" t="s">
+      <c r="F66" s="63"/>
+      <c r="G66" s="63"/>
+      <c r="H66" s="63"/>
+    </row>
+    <row r="67" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="10"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="35">
+      <c r="B67" s="64">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C67" s="64">
+        <v>0.6875</v>
+      </c>
+      <c r="D67" s="65">
+        <v>1</v>
+      </c>
+      <c r="E67" s="60">
         <f t="shared" ref="E67:E72" si="6">(B67-C67)*-24-D67</f>
-        <v>0</v>
-      </c>
-      <c r="F67" s="36"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="38"/>
+        <v>5.5</v>
+      </c>
+      <c r="F67" s="63"/>
+      <c r="G67" s="63"/>
+      <c r="H67" s="63" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="33" t="s">
+      <c r="A68" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="10"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="35">
+      <c r="B68" s="64"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="60">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F68" s="36"/>
-      <c r="G68" s="37"/>
-      <c r="H68" s="38"/>
+      <c r="F68" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="G68" s="63"/>
+      <c r="H68" s="63"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="10"/>
+      <c r="B69" s="10">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="C69" s="11"/>
       <c r="D69" s="34"/>
       <c r="E69" s="35">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F69" s="36"/>
       <c r="G69" s="37"/>
@@ -2889,16 +2895,16 @@
       <c r="A72" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="40"/>
-      <c r="C72" s="41"/>
-      <c r="D72" s="48"/>
-      <c r="E72" s="49">
+      <c r="B72" s="39"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="44"/>
+      <c r="E72" s="45">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F72" s="50"/>
-      <c r="G72" s="45"/>
-      <c r="H72" s="46"/>
+      <c r="F72" s="46"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="42"/>
     </row>
     <row r="73" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9"/>
@@ -2907,9 +2913,9 @@
       <c r="D73" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E73" s="51">
+      <c r="E73" s="47">
         <f>SUM(E66:E72)</f>
-        <v>0</v>
+        <v>-4.5</v>
       </c>
       <c r="F73" s="6"/>
       <c r="G73" s="7"/>
@@ -2924,7 +2930,7 @@
       </c>
       <c r="E74" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>124.38333333333334</v>
+        <v>119.88333333333334</v>
       </c>
       <c r="F74" s="32"/>
       <c r="G74" s="18"/>
@@ -3050,16 +3056,16 @@
       <c r="A82" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="B82" s="40"/>
-      <c r="C82" s="41"/>
-      <c r="D82" s="48"/>
-      <c r="E82" s="49">
+      <c r="B82" s="39"/>
+      <c r="C82" s="40"/>
+      <c r="D82" s="44"/>
+      <c r="E82" s="45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F82" s="50"/>
-      <c r="G82" s="45"/>
-      <c r="H82" s="46"/>
+      <c r="F82" s="46"/>
+      <c r="G82" s="41"/>
+      <c r="H82" s="42"/>
     </row>
     <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="9"/>
@@ -3068,7 +3074,7 @@
       <c r="D83" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E83" s="51">
+      <c r="E83" s="47">
         <f>SUM(E76:E82)</f>
         <v>0</v>
       </c>
@@ -3085,7 +3091,7 @@
       </c>
       <c r="E84" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>124.38333333333334</v>
+        <v>119.88333333333334</v>
       </c>
       <c r="F84" s="32"/>
       <c r="G84" s="18"/>
@@ -3211,16 +3217,16 @@
       <c r="A92" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B92" s="40"/>
-      <c r="C92" s="41"/>
-      <c r="D92" s="48"/>
-      <c r="E92" s="49">
+      <c r="B92" s="39"/>
+      <c r="C92" s="40"/>
+      <c r="D92" s="44"/>
+      <c r="E92" s="45">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F92" s="50"/>
-      <c r="G92" s="45"/>
-      <c r="H92" s="46"/>
+      <c r="F92" s="46"/>
+      <c r="G92" s="41"/>
+      <c r="H92" s="42"/>
     </row>
     <row r="93" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9"/>
@@ -3229,7 +3235,7 @@
       <c r="D93" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E93" s="51">
+      <c r="E93" s="47">
         <f>SUM(E86:E92)</f>
         <v>0</v>
       </c>
@@ -3246,7 +3252,7 @@
       </c>
       <c r="E94" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>124.38333333333334</v>
+        <v>119.88333333333334</v>
       </c>
       <c r="F94" s="32"/>
       <c r="G94" s="18"/>
@@ -3372,16 +3378,16 @@
       <c r="A102" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="B102" s="40"/>
-      <c r="C102" s="41"/>
-      <c r="D102" s="48"/>
-      <c r="E102" s="49">
+      <c r="B102" s="39"/>
+      <c r="C102" s="40"/>
+      <c r="D102" s="44"/>
+      <c r="E102" s="45">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F102" s="50"/>
-      <c r="G102" s="45"/>
-      <c r="H102" s="46"/>
+      <c r="F102" s="46"/>
+      <c r="G102" s="41"/>
+      <c r="H102" s="42"/>
     </row>
     <row r="103" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="9"/>
@@ -3390,7 +3396,7 @@
       <c r="D103" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E103" s="51">
+      <c r="E103" s="47">
         <f>SUM(E96:E102)</f>
         <v>0</v>
       </c>
@@ -3407,7 +3413,7 @@
       </c>
       <c r="E104" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>124.38333333333334</v>
+        <v>119.88333333333334</v>
       </c>
       <c r="F104" s="32"/>
       <c r="G104" s="18"/>
@@ -3533,16 +3539,16 @@
       <c r="A112" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="B112" s="40"/>
-      <c r="C112" s="41"/>
-      <c r="D112" s="48"/>
-      <c r="E112" s="49">
+      <c r="B112" s="39"/>
+      <c r="C112" s="40"/>
+      <c r="D112" s="44"/>
+      <c r="E112" s="45">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F112" s="50"/>
-      <c r="G112" s="45"/>
-      <c r="H112" s="46"/>
+      <c r="F112" s="46"/>
+      <c r="G112" s="41"/>
+      <c r="H112" s="42"/>
     </row>
     <row r="113" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="9"/>
@@ -3551,7 +3557,7 @@
       <c r="D113" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E113" s="51">
+      <c r="E113" s="47">
         <f>SUM(E106:E112)</f>
         <v>0</v>
       </c>
@@ -3568,7 +3574,7 @@
       </c>
       <c r="E114" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>124.38333333333334</v>
+        <v>119.88333333333334</v>
       </c>
       <c r="F114" s="32"/>
       <c r="G114" s="18"/>
@@ -3694,16 +3700,16 @@
       <c r="A122" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="B122" s="40"/>
-      <c r="C122" s="41"/>
-      <c r="D122" s="48"/>
-      <c r="E122" s="49">
+      <c r="B122" s="39"/>
+      <c r="C122" s="40"/>
+      <c r="D122" s="44"/>
+      <c r="E122" s="45">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F122" s="50"/>
-      <c r="G122" s="45"/>
-      <c r="H122" s="46"/>
+      <c r="F122" s="46"/>
+      <c r="G122" s="41"/>
+      <c r="H122" s="42"/>
     </row>
     <row r="123" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="9"/>
@@ -3712,7 +3718,7 @@
       <c r="D123" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E123" s="51">
+      <c r="E123" s="47">
         <f>SUM(E116:E122)</f>
         <v>0</v>
       </c>
@@ -3729,7 +3735,7 @@
       </c>
       <c r="E124" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>124.38333333333334</v>
+        <v>119.88333333333334</v>
       </c>
       <c r="F124" s="32"/>
       <c r="G124" s="18"/>
@@ -3762,7 +3768,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="52" t="s">
+      <c r="A126" s="48" t="s">
         <v>107</v>
       </c>
       <c r="B126" s="10"/>
@@ -3777,7 +3783,7 @@
       <c r="H126" s="38"/>
     </row>
     <row r="127" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="52" t="s">
+      <c r="A127" s="48" t="s">
         <v>108</v>
       </c>
       <c r="B127" s="10"/>
@@ -3792,7 +3798,7 @@
       <c r="H127" s="38"/>
     </row>
     <row r="128" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="52" t="s">
+      <c r="A128" s="48" t="s">
         <v>109</v>
       </c>
       <c r="B128" s="10"/>
@@ -3807,7 +3813,7 @@
       <c r="H128" s="38"/>
     </row>
     <row r="129" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="52" t="s">
+      <c r="A129" s="48" t="s">
         <v>110</v>
       </c>
       <c r="B129" s="10"/>
@@ -3822,7 +3828,7 @@
       <c r="H129" s="38"/>
     </row>
     <row r="130" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="52" t="s">
+      <c r="A130" s="48" t="s">
         <v>111</v>
       </c>
       <c r="B130" s="10"/>
@@ -3837,7 +3843,7 @@
       <c r="H130" s="38"/>
     </row>
     <row r="131" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="52" t="s">
+      <c r="A131" s="48" t="s">
         <v>112</v>
       </c>
       <c r="B131" s="10"/>
@@ -3852,19 +3858,19 @@
       <c r="H131" s="38"/>
     </row>
     <row r="132" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="52" t="s">
+      <c r="A132" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="B132" s="40"/>
-      <c r="C132" s="41"/>
-      <c r="D132" s="48"/>
-      <c r="E132" s="49">
+      <c r="B132" s="39"/>
+      <c r="C132" s="40"/>
+      <c r="D132" s="44"/>
+      <c r="E132" s="45">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F132" s="50"/>
-      <c r="G132" s="45"/>
-      <c r="H132" s="46"/>
+      <c r="F132" s="46"/>
+      <c r="G132" s="41"/>
+      <c r="H132" s="42"/>
     </row>
     <row r="133" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="9"/>
@@ -3873,7 +3879,7 @@
       <c r="D133" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E133" s="51">
+      <c r="E133" s="47">
         <f>SUM(E126:E132)</f>
         <v>0</v>
       </c>
@@ -3890,7 +3896,7 @@
       </c>
       <c r="E134" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>124.38333333333334</v>
+        <v>119.88333333333334</v>
       </c>
       <c r="F134" s="32"/>
       <c r="G134" s="18"/>
@@ -3923,7 +3929,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="52" t="s">
+      <c r="A136" s="48" t="s">
         <v>114</v>
       </c>
       <c r="B136" s="10"/>
@@ -3938,7 +3944,7 @@
       <c r="H136" s="38"/>
     </row>
     <row r="137" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="52" t="s">
+      <c r="A137" s="48" t="s">
         <v>115</v>
       </c>
       <c r="B137" s="10"/>
@@ -3953,7 +3959,7 @@
       <c r="H137" s="38"/>
     </row>
     <row r="138" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="52" t="s">
+      <c r="A138" s="48" t="s">
         <v>116</v>
       </c>
       <c r="B138" s="10"/>
@@ -3968,7 +3974,7 @@
       <c r="H138" s="38"/>
     </row>
     <row r="139" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="52" t="s">
+      <c r="A139" s="48" t="s">
         <v>117</v>
       </c>
       <c r="B139" s="10"/>
@@ -3983,7 +3989,7 @@
       <c r="H139" s="38"/>
     </row>
     <row r="140" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="52" t="s">
+      <c r="A140" s="48" t="s">
         <v>118</v>
       </c>
       <c r="B140" s="10"/>
@@ -3998,7 +4004,7 @@
       <c r="H140" s="38"/>
     </row>
     <row r="141" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="52" t="s">
+      <c r="A141" s="48" t="s">
         <v>119</v>
       </c>
       <c r="B141" s="10"/>
@@ -4013,19 +4019,19 @@
       <c r="H141" s="38"/>
     </row>
     <row r="142" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="52" t="s">
+      <c r="A142" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="B142" s="40"/>
-      <c r="C142" s="41"/>
-      <c r="D142" s="48"/>
-      <c r="E142" s="49">
+      <c r="B142" s="39"/>
+      <c r="C142" s="40"/>
+      <c r="D142" s="44"/>
+      <c r="E142" s="45">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F142" s="50"/>
-      <c r="G142" s="45"/>
-      <c r="H142" s="46"/>
+      <c r="F142" s="46"/>
+      <c r="G142" s="41"/>
+      <c r="H142" s="42"/>
     </row>
     <row r="143" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="9"/>
@@ -4034,7 +4040,7 @@
       <c r="D143" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E143" s="51">
+      <c r="E143" s="47">
         <f>SUM(E136:E142)</f>
         <v>0</v>
       </c>
@@ -4051,7 +4057,7 @@
       </c>
       <c r="E144" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>124.38333333333334</v>
+        <v>119.88333333333334</v>
       </c>
       <c r="F144" s="32"/>
       <c r="G144" s="18"/>
@@ -4084,7 +4090,7 @@
       </c>
     </row>
     <row r="146" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="52" t="s">
+      <c r="A146" s="48" t="s">
         <v>121</v>
       </c>
       <c r="B146" s="10"/>
@@ -4099,7 +4105,7 @@
       <c r="H146" s="38"/>
     </row>
     <row r="147" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="52" t="s">
+      <c r="A147" s="48" t="s">
         <v>122</v>
       </c>
       <c r="B147" s="10"/>
@@ -4114,7 +4120,7 @@
       <c r="H147" s="38"/>
     </row>
     <row r="148" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="52" t="s">
+      <c r="A148" s="48" t="s">
         <v>123</v>
       </c>
       <c r="B148" s="10"/>
@@ -4129,7 +4135,7 @@
       <c r="H148" s="38"/>
     </row>
     <row r="149" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="52" t="s">
+      <c r="A149" s="48" t="s">
         <v>124</v>
       </c>
       <c r="B149" s="10"/>
@@ -4144,7 +4150,7 @@
       <c r="H149" s="38"/>
     </row>
     <row r="150" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="52" t="s">
+      <c r="A150" s="48" t="s">
         <v>125</v>
       </c>
       <c r="B150" s="10"/>
@@ -4159,7 +4165,7 @@
       <c r="H150" s="38"/>
     </row>
     <row r="151" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="52" t="s">
+      <c r="A151" s="48" t="s">
         <v>126</v>
       </c>
       <c r="B151" s="10"/>
@@ -4174,19 +4180,19 @@
       <c r="H151" s="38"/>
     </row>
     <row r="152" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="52" t="s">
+      <c r="A152" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="B152" s="40"/>
-      <c r="C152" s="41"/>
-      <c r="D152" s="48"/>
-      <c r="E152" s="49">
+      <c r="B152" s="39"/>
+      <c r="C152" s="40"/>
+      <c r="D152" s="44"/>
+      <c r="E152" s="45">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F152" s="50"/>
-      <c r="G152" s="45"/>
-      <c r="H152" s="46"/>
+      <c r="F152" s="46"/>
+      <c r="G152" s="41"/>
+      <c r="H152" s="42"/>
     </row>
     <row r="153" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="9"/>
@@ -4195,7 +4201,7 @@
       <c r="D153" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E153" s="51">
+      <c r="E153" s="47">
         <f>SUM(E146:E152)</f>
         <v>0</v>
       </c>
@@ -4212,7 +4218,7 @@
       </c>
       <c r="E154" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>124.38333333333334</v>
+        <v>119.88333333333334</v>
       </c>
       <c r="F154" s="32"/>
       <c r="G154" s="18"/>
@@ -4245,7 +4251,7 @@
       </c>
     </row>
     <row r="156" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="52" t="s">
+      <c r="A156" s="48" t="s">
         <v>128</v>
       </c>
       <c r="B156" s="10"/>
@@ -4260,7 +4266,7 @@
       <c r="H156" s="38"/>
     </row>
     <row r="157" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="52" t="s">
+      <c r="A157" s="48" t="s">
         <v>129</v>
       </c>
       <c r="B157" s="10"/>
@@ -4275,7 +4281,7 @@
       <c r="H157" s="38"/>
     </row>
     <row r="158" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="52" t="s">
+      <c r="A158" s="48" t="s">
         <v>130</v>
       </c>
       <c r="B158" s="10"/>
@@ -4290,7 +4296,7 @@
       <c r="H158" s="38"/>
     </row>
     <row r="159" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="52" t="s">
+      <c r="A159" s="48" t="s">
         <v>131</v>
       </c>
       <c r="B159" s="10"/>
@@ -4305,7 +4311,7 @@
       <c r="H159" s="38"/>
     </row>
     <row r="160" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="52" t="s">
+      <c r="A160" s="48" t="s">
         <v>132</v>
       </c>
       <c r="B160" s="10"/>
@@ -4320,7 +4326,7 @@
       <c r="H160" s="38"/>
     </row>
     <row r="161" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="52" t="s">
+      <c r="A161" s="48" t="s">
         <v>133</v>
       </c>
       <c r="B161" s="10"/>
@@ -4335,18 +4341,18 @@
       <c r="H161" s="38"/>
     </row>
     <row r="162" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="52" t="s">
+      <c r="A162" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="B162" s="40"/>
-      <c r="C162" s="41"/>
-      <c r="D162" s="48"/>
-      <c r="E162" s="53">
-        <v>0</v>
-      </c>
-      <c r="F162" s="50"/>
-      <c r="G162" s="45"/>
-      <c r="H162" s="46"/>
+      <c r="B162" s="39"/>
+      <c r="C162" s="40"/>
+      <c r="D162" s="44"/>
+      <c r="E162" s="49">
+        <v>0</v>
+      </c>
+      <c r="F162" s="46"/>
+      <c r="G162" s="41"/>
+      <c r="H162" s="42"/>
     </row>
     <row r="163" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="9"/>
@@ -4355,7 +4361,7 @@
       <c r="D163" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E163" s="51">
+      <c r="E163" s="47">
         <f>SUM(E156:E162)</f>
         <v>0</v>
       </c>
@@ -4372,7 +4378,7 @@
       </c>
       <c r="E164" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>124.38333333333334</v>
+        <v>119.88333333333334</v>
       </c>
       <c r="F164" s="32"/>
       <c r="G164" s="18"/>
@@ -4405,7 +4411,7 @@
       </c>
     </row>
     <row r="166" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="52" t="s">
+      <c r="A166" s="48" t="s">
         <v>135</v>
       </c>
       <c r="B166" s="10"/>
@@ -4420,7 +4426,7 @@
       <c r="H166" s="38"/>
     </row>
     <row r="167" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="52" t="s">
+      <c r="A167" s="48" t="s">
         <v>136</v>
       </c>
       <c r="B167" s="10"/>
@@ -4435,7 +4441,7 @@
       <c r="H167" s="38"/>
     </row>
     <row r="168" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="52" t="s">
+      <c r="A168" s="48" t="s">
         <v>137</v>
       </c>
       <c r="B168" s="10"/>
@@ -4450,7 +4456,7 @@
       <c r="H168" s="38"/>
     </row>
     <row r="169" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="52" t="s">
+      <c r="A169" s="48" t="s">
         <v>138</v>
       </c>
       <c r="B169" s="10"/>
@@ -4465,7 +4471,7 @@
       <c r="H169" s="38"/>
     </row>
     <row r="170" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="52" t="s">
+      <c r="A170" s="48" t="s">
         <v>139</v>
       </c>
       <c r="B170" s="10"/>
@@ -4480,7 +4486,7 @@
       <c r="H170" s="38"/>
     </row>
     <row r="171" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="52" t="s">
+      <c r="A171" s="48" t="s">
         <v>140</v>
       </c>
       <c r="B171" s="10"/>
@@ -4495,19 +4501,19 @@
       <c r="H171" s="38"/>
     </row>
     <row r="172" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="52" t="s">
+      <c r="A172" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="B172" s="40"/>
-      <c r="C172" s="41"/>
-      <c r="D172" s="48"/>
-      <c r="E172" s="49">
+      <c r="B172" s="39"/>
+      <c r="C172" s="40"/>
+      <c r="D172" s="44"/>
+      <c r="E172" s="45">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F172" s="50"/>
-      <c r="G172" s="45"/>
-      <c r="H172" s="46"/>
+      <c r="F172" s="46"/>
+      <c r="G172" s="41"/>
+      <c r="H172" s="42"/>
     </row>
     <row r="173" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="9"/>
@@ -4516,7 +4522,7 @@
       <c r="D173" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E173" s="51">
+      <c r="E173" s="47">
         <f>SUM(E166:E172)</f>
         <v>0</v>
       </c>
@@ -4533,7 +4539,7 @@
       </c>
       <c r="E174" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>124.38333333333334</v>
+        <v>119.88333333333334</v>
       </c>
       <c r="F174" s="32"/>
       <c r="G174" s="18"/>
@@ -4566,7 +4572,7 @@
       </c>
     </row>
     <row r="176" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="52" t="s">
+      <c r="A176" s="48" t="s">
         <v>142</v>
       </c>
       <c r="B176" s="10"/>
@@ -4581,7 +4587,7 @@
       <c r="H176" s="38"/>
     </row>
     <row r="177" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="52" t="s">
+      <c r="A177" s="48" t="s">
         <v>143</v>
       </c>
       <c r="B177" s="10"/>
@@ -4596,7 +4602,7 @@
       <c r="H177" s="38"/>
     </row>
     <row r="178" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="52" t="s">
+      <c r="A178" s="48" t="s">
         <v>144</v>
       </c>
       <c r="B178" s="10"/>
@@ -4611,7 +4617,7 @@
       <c r="H178" s="38"/>
     </row>
     <row r="179" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="52" t="s">
+      <c r="A179" s="48" t="s">
         <v>145</v>
       </c>
       <c r="B179" s="10"/>
@@ -4626,7 +4632,7 @@
       <c r="H179" s="38"/>
     </row>
     <row r="180" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="52" t="s">
+      <c r="A180" s="48" t="s">
         <v>146</v>
       </c>
       <c r="B180" s="10"/>
@@ -4641,7 +4647,7 @@
       <c r="H180" s="38"/>
     </row>
     <row r="181" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="52" t="s">
+      <c r="A181" s="48" t="s">
         <v>147</v>
       </c>
       <c r="B181" s="10"/>
@@ -4656,19 +4662,19 @@
       <c r="H181" s="38"/>
     </row>
     <row r="182" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="52" t="s">
+      <c r="A182" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="B182" s="40"/>
-      <c r="C182" s="41"/>
-      <c r="D182" s="48"/>
-      <c r="E182" s="49">
+      <c r="B182" s="39"/>
+      <c r="C182" s="40"/>
+      <c r="D182" s="44"/>
+      <c r="E182" s="45">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F182" s="50"/>
-      <c r="G182" s="45"/>
-      <c r="H182" s="46"/>
+      <c r="F182" s="46"/>
+      <c r="G182" s="41"/>
+      <c r="H182" s="42"/>
     </row>
     <row r="183" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="9"/>
@@ -4677,7 +4683,7 @@
       <c r="D183" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E183" s="51">
+      <c r="E183" s="47">
         <f>SUM(E176:E182)</f>
         <v>0</v>
       </c>
@@ -4692,9 +4698,9 @@
       <c r="D184" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E184" s="51">
+      <c r="E184" s="47">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>124.38333333333334</v>
+        <v>119.88333333333334</v>
       </c>
       <c r="F184" s="6"/>
       <c r="G184" s="7"/>

--- a/_WIP/Lou/Lou-Zeiterfassung.xlsx
+++ b/_WIP/Lou/Lou-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="159">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -831,7 +831,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1115,6 +1115,39 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1395,7 +1428,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1405,8 +1438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="L55" sqref="L55"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2782,10 +2815,10 @@
       <c r="F65" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="G65" s="26" t="s">
+      <c r="G65" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="H65" s="27" t="s">
+      <c r="H65" s="82" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2804,7 +2837,7 @@
       <c r="G66" s="63"/>
       <c r="H66" s="63"/>
     </row>
-    <row r="67" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="58" t="s">
         <v>66</v>
       </c>
@@ -2822,10 +2855,10 @@
         <v>5.5</v>
       </c>
       <c r="F67" s="63"/>
-      <c r="G67" s="63"/>
-      <c r="H67" s="63" t="s">
+      <c r="G67" s="63" t="s">
         <v>158</v>
       </c>
+      <c r="H67" s="63"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="58" t="s">
@@ -2845,66 +2878,72 @@
       <c r="H68" s="63"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="33" t="s">
+      <c r="A69" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="10">
+      <c r="B69" s="64">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C69" s="11"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="35">
+      <c r="C69" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D69" s="65">
+        <v>1.25</v>
+      </c>
+      <c r="E69" s="60">
         <f t="shared" si="6"/>
-        <v>-10</v>
-      </c>
-      <c r="F69" s="36"/>
-      <c r="G69" s="37"/>
-      <c r="H69" s="38"/>
+        <v>6.75</v>
+      </c>
+      <c r="F69" s="63"/>
+      <c r="G69" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="H69" s="63"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="33" t="s">
+      <c r="A70" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="10"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="35">
+      <c r="B70" s="100"/>
+      <c r="C70" s="100"/>
+      <c r="D70" s="101"/>
+      <c r="E70" s="102">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F70" s="36"/>
-      <c r="G70" s="37"/>
-      <c r="H70" s="38"/>
+      <c r="F70" s="103"/>
+      <c r="G70" s="103"/>
+      <c r="H70" s="103"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="33" t="s">
+      <c r="A71" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="10"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="34"/>
-      <c r="E71" s="35">
+      <c r="B71" s="100"/>
+      <c r="C71" s="100"/>
+      <c r="D71" s="101"/>
+      <c r="E71" s="104">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F71" s="36"/>
-      <c r="G71" s="37"/>
-      <c r="H71" s="38"/>
+      <c r="F71" s="103"/>
+      <c r="G71" s="103"/>
+      <c r="H71" s="103"/>
     </row>
     <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="33" t="s">
+      <c r="A72" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="39"/>
-      <c r="C72" s="40"/>
-      <c r="D72" s="44"/>
-      <c r="E72" s="45">
+      <c r="B72" s="105"/>
+      <c r="C72" s="105"/>
+      <c r="D72" s="106"/>
+      <c r="E72" s="107">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F72" s="46"/>
-      <c r="G72" s="41"/>
-      <c r="H72" s="42"/>
+      <c r="F72" s="108"/>
+      <c r="G72" s="109"/>
+      <c r="H72" s="109"/>
     </row>
     <row r="73" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9"/>
@@ -2915,11 +2954,11 @@
       </c>
       <c r="E73" s="47">
         <f>SUM(E66:E72)</f>
-        <v>-4.5</v>
+        <v>12.25</v>
       </c>
       <c r="F73" s="6"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="8"/>
+      <c r="G73" s="73"/>
+      <c r="H73" s="74"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="12"/>
@@ -2930,7 +2969,7 @@
       </c>
       <c r="E74" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>119.88333333333334</v>
+        <v>136.63333333333333</v>
       </c>
       <c r="F74" s="32"/>
       <c r="G74" s="18"/>
@@ -3091,7 +3130,7 @@
       </c>
       <c r="E84" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>119.88333333333334</v>
+        <v>136.63333333333333</v>
       </c>
       <c r="F84" s="32"/>
       <c r="G84" s="18"/>
@@ -3252,7 +3291,7 @@
       </c>
       <c r="E94" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>119.88333333333334</v>
+        <v>136.63333333333333</v>
       </c>
       <c r="F94" s="32"/>
       <c r="G94" s="18"/>
@@ -3413,7 +3452,7 @@
       </c>
       <c r="E104" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>119.88333333333334</v>
+        <v>136.63333333333333</v>
       </c>
       <c r="F104" s="32"/>
       <c r="G104" s="18"/>
@@ -3574,7 +3613,7 @@
       </c>
       <c r="E114" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>119.88333333333334</v>
+        <v>136.63333333333333</v>
       </c>
       <c r="F114" s="32"/>
       <c r="G114" s="18"/>
@@ -3735,7 +3774,7 @@
       </c>
       <c r="E124" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>119.88333333333334</v>
+        <v>136.63333333333333</v>
       </c>
       <c r="F124" s="32"/>
       <c r="G124" s="18"/>
@@ -3896,7 +3935,7 @@
       </c>
       <c r="E134" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>119.88333333333334</v>
+        <v>136.63333333333333</v>
       </c>
       <c r="F134" s="32"/>
       <c r="G134" s="18"/>
@@ -4057,7 +4096,7 @@
       </c>
       <c r="E144" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>119.88333333333334</v>
+        <v>136.63333333333333</v>
       </c>
       <c r="F144" s="32"/>
       <c r="G144" s="18"/>
@@ -4218,7 +4257,7 @@
       </c>
       <c r="E154" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>119.88333333333334</v>
+        <v>136.63333333333333</v>
       </c>
       <c r="F154" s="32"/>
       <c r="G154" s="18"/>
@@ -4378,7 +4417,7 @@
       </c>
       <c r="E164" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>119.88333333333334</v>
+        <v>136.63333333333333</v>
       </c>
       <c r="F164" s="32"/>
       <c r="G164" s="18"/>
@@ -4539,7 +4578,7 @@
       </c>
       <c r="E174" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>119.88333333333334</v>
+        <v>136.63333333333333</v>
       </c>
       <c r="F174" s="32"/>
       <c r="G174" s="18"/>
@@ -4700,7 +4739,7 @@
       </c>
       <c r="E184" s="47">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>119.88333333333334</v>
+        <v>136.63333333333333</v>
       </c>
       <c r="F184" s="6"/>
       <c r="G184" s="7"/>

--- a/_WIP/Lou/Lou-Zeiterfassung.xlsx
+++ b/_WIP/Lou/Lou-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="160">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -496,6 +496,9 @@
   </si>
   <si>
     <t>Moodboard, stuhl textur</t>
+  </si>
+  <si>
+    <t>Mathearbeit</t>
   </si>
 </sst>
 </file>
@@ -831,7 +834,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1117,38 +1120,11 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="13" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="13" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1428,7 +1404,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1438,8 +1414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J85" sqref="J85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2901,49 +2877,53 @@
       <c r="H69" s="63"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="99" t="s">
+      <c r="A70" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="100"/>
-      <c r="C70" s="100"/>
-      <c r="D70" s="101"/>
-      <c r="E70" s="102">
+      <c r="B70" s="64">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C70" s="64">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D70" s="65"/>
+      <c r="E70" s="60">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F70" s="103"/>
-      <c r="G70" s="103"/>
-      <c r="H70" s="103"/>
+        <v>5.9999999999999982</v>
+      </c>
+      <c r="F70" s="63"/>
+      <c r="G70" s="63"/>
+      <c r="H70" s="63"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="99" t="s">
+      <c r="A71" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="100"/>
-      <c r="C71" s="100"/>
-      <c r="D71" s="101"/>
-      <c r="E71" s="104">
+      <c r="B71" s="64"/>
+      <c r="C71" s="64"/>
+      <c r="D71" s="65"/>
+      <c r="E71" s="66">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F71" s="103"/>
-      <c r="G71" s="103"/>
-      <c r="H71" s="103"/>
+      <c r="F71" s="63"/>
+      <c r="G71" s="63"/>
+      <c r="H71" s="63"/>
     </row>
     <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="99" t="s">
+      <c r="A72" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="105"/>
-      <c r="C72" s="105"/>
-      <c r="D72" s="106"/>
-      <c r="E72" s="107">
+      <c r="B72" s="67"/>
+      <c r="C72" s="67"/>
+      <c r="D72" s="68"/>
+      <c r="E72" s="69">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F72" s="108"/>
-      <c r="G72" s="109"/>
-      <c r="H72" s="109"/>
+      <c r="F72" s="70"/>
+      <c r="G72" s="71"/>
+      <c r="H72" s="71"/>
     </row>
     <row r="73" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9"/>
@@ -2954,7 +2934,7 @@
       </c>
       <c r="E73" s="47">
         <f>SUM(E66:E72)</f>
-        <v>12.25</v>
+        <v>18.25</v>
       </c>
       <c r="F73" s="6"/>
       <c r="G73" s="73"/>
@@ -2969,7 +2949,7 @@
       </c>
       <c r="E74" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>136.63333333333333</v>
+        <v>142.63333333333333</v>
       </c>
       <c r="F74" s="32"/>
       <c r="G74" s="18"/>
@@ -3002,109 +2982,109 @@
       </c>
     </row>
     <row r="76" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="33" t="s">
+      <c r="A76" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="B76" s="10"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="34"/>
-      <c r="E76" s="35">
+      <c r="B76" s="64"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="65"/>
+      <c r="E76" s="60">
         <f>(B76-C76)*-24-D76</f>
         <v>0</v>
       </c>
-      <c r="F76" s="36"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="38"/>
+      <c r="F76" s="63"/>
+      <c r="G76" s="63"/>
+      <c r="H76" s="63"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="33" t="s">
+      <c r="A77" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="B77" s="10"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="35">
+      <c r="B77" s="64"/>
+      <c r="C77" s="64"/>
+      <c r="D77" s="65"/>
+      <c r="E77" s="60">
         <f t="shared" ref="E77:E82" si="7">(B77-C77)*-24-D77</f>
         <v>0</v>
       </c>
-      <c r="F77" s="36"/>
-      <c r="G77" s="37"/>
-      <c r="H77" s="38"/>
+      <c r="F77" s="63"/>
+      <c r="G77" s="63"/>
+      <c r="H77" s="63"/>
     </row>
     <row r="78" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="33" t="s">
+      <c r="A78" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="B78" s="10"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="35">
+      <c r="B78" s="64"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="65"/>
+      <c r="E78" s="60">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F78" s="36"/>
-      <c r="G78" s="37"/>
-      <c r="H78" s="38"/>
+      <c r="F78" s="63"/>
+      <c r="G78" s="63"/>
+      <c r="H78" s="63"/>
     </row>
     <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="33" t="s">
+      <c r="A79" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="B79" s="10"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="34"/>
-      <c r="E79" s="35">
+      <c r="B79" s="64"/>
+      <c r="C79" s="64"/>
+      <c r="D79" s="65"/>
+      <c r="E79" s="60">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F79" s="36"/>
-      <c r="G79" s="37"/>
-      <c r="H79" s="38"/>
+      <c r="F79" s="63"/>
+      <c r="G79" s="63"/>
+      <c r="H79" s="63"/>
     </row>
     <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="33" t="s">
+      <c r="A80" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="B80" s="10"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="34"/>
-      <c r="E80" s="35">
+      <c r="B80" s="64"/>
+      <c r="C80" s="64"/>
+      <c r="D80" s="65"/>
+      <c r="E80" s="60">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F80" s="36"/>
-      <c r="G80" s="37"/>
-      <c r="H80" s="38"/>
+      <c r="F80" s="63"/>
+      <c r="G80" s="63"/>
+      <c r="H80" s="63"/>
     </row>
     <row r="81" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="33" t="s">
+      <c r="A81" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="B81" s="10"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="35">
+      <c r="B81" s="64"/>
+      <c r="C81" s="64"/>
+      <c r="D81" s="65"/>
+      <c r="E81" s="60">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F81" s="36"/>
-      <c r="G81" s="37"/>
-      <c r="H81" s="38"/>
+      <c r="F81" s="63"/>
+      <c r="G81" s="63"/>
+      <c r="H81" s="63"/>
     </row>
     <row r="82" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="33" t="s">
+      <c r="A82" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="B82" s="39"/>
-      <c r="C82" s="40"/>
-      <c r="D82" s="44"/>
-      <c r="E82" s="45">
+      <c r="B82" s="67"/>
+      <c r="C82" s="67"/>
+      <c r="D82" s="99"/>
+      <c r="E82" s="100">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F82" s="46"/>
-      <c r="G82" s="41"/>
-      <c r="H82" s="42"/>
+      <c r="F82" s="71"/>
+      <c r="G82" s="71"/>
+      <c r="H82" s="71"/>
     </row>
     <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="9"/>
@@ -3130,7 +3110,7 @@
       </c>
       <c r="E84" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>136.63333333333333</v>
+        <v>142.63333333333333</v>
       </c>
       <c r="F84" s="32"/>
       <c r="G84" s="18"/>
@@ -3163,30 +3143,34 @@
       </c>
     </row>
     <row r="86" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="33" t="s">
+      <c r="A86" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="B86" s="10"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="34"/>
-      <c r="E86" s="35">
+      <c r="B86" s="64"/>
+      <c r="C86" s="64"/>
+      <c r="D86" s="65"/>
+      <c r="E86" s="60">
         <f>(B86-C86)*-24-D86</f>
         <v>0</v>
       </c>
-      <c r="F86" s="36"/>
-      <c r="G86" s="37"/>
-      <c r="H86" s="38"/>
+      <c r="F86" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="G86" s="63"/>
+      <c r="H86" s="63"/>
     </row>
     <row r="87" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="B87" s="10"/>
+      <c r="B87" s="10">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="C87" s="11"/>
       <c r="D87" s="34"/>
       <c r="E87" s="35">
         <f t="shared" ref="E87:E92" si="8">(B87-C87)*-24-D87</f>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F87" s="36"/>
       <c r="G87" s="37"/>
@@ -3276,7 +3260,7 @@
       </c>
       <c r="E93" s="47">
         <f>SUM(E86:E92)</f>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F93" s="6"/>
       <c r="G93" s="7"/>
@@ -3291,7 +3275,7 @@
       </c>
       <c r="E94" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>136.63333333333333</v>
+        <v>132.63333333333333</v>
       </c>
       <c r="F94" s="32"/>
       <c r="G94" s="18"/>
@@ -3452,7 +3436,7 @@
       </c>
       <c r="E104" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>136.63333333333333</v>
+        <v>132.63333333333333</v>
       </c>
       <c r="F104" s="32"/>
       <c r="G104" s="18"/>
@@ -3613,7 +3597,7 @@
       </c>
       <c r="E114" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>136.63333333333333</v>
+        <v>132.63333333333333</v>
       </c>
       <c r="F114" s="32"/>
       <c r="G114" s="18"/>
@@ -3774,7 +3758,7 @@
       </c>
       <c r="E124" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>136.63333333333333</v>
+        <v>132.63333333333333</v>
       </c>
       <c r="F124" s="32"/>
       <c r="G124" s="18"/>
@@ -3935,7 +3919,7 @@
       </c>
       <c r="E134" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>136.63333333333333</v>
+        <v>132.63333333333333</v>
       </c>
       <c r="F134" s="32"/>
       <c r="G134" s="18"/>
@@ -4096,7 +4080,7 @@
       </c>
       <c r="E144" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>136.63333333333333</v>
+        <v>132.63333333333333</v>
       </c>
       <c r="F144" s="32"/>
       <c r="G144" s="18"/>
@@ -4257,7 +4241,7 @@
       </c>
       <c r="E154" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>136.63333333333333</v>
+        <v>132.63333333333333</v>
       </c>
       <c r="F154" s="32"/>
       <c r="G154" s="18"/>
@@ -4417,7 +4401,7 @@
       </c>
       <c r="E164" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>136.63333333333333</v>
+        <v>132.63333333333333</v>
       </c>
       <c r="F164" s="32"/>
       <c r="G164" s="18"/>
@@ -4578,7 +4562,7 @@
       </c>
       <c r="E174" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>136.63333333333333</v>
+        <v>132.63333333333333</v>
       </c>
       <c r="F174" s="32"/>
       <c r="G174" s="18"/>
@@ -4739,7 +4723,7 @@
       </c>
       <c r="E184" s="47">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>136.63333333333333</v>
+        <v>132.63333333333333</v>
       </c>
       <c r="F184" s="6"/>
       <c r="G184" s="7"/>

--- a/_WIP/Lou/Lou-Zeiterfassung.xlsx
+++ b/_WIP/Lou/Lou-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="161">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -499,6 +499,9 @@
   </si>
   <si>
     <t>Mathearbeit</t>
+  </si>
+  <si>
+    <t>unity assets, meting, concept</t>
   </si>
 </sst>
 </file>
@@ -1404,7 +1407,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1414,8 +1417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J85" sqref="J85"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="K94" sqref="K94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3160,21 +3163,27 @@
       <c r="H86" s="63"/>
     </row>
     <row r="87" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="33" t="s">
+      <c r="A87" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="B87" s="10">
+      <c r="B87" s="64">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C87" s="11"/>
-      <c r="D87" s="34"/>
-      <c r="E87" s="35">
+      <c r="C87" s="64">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D87" s="65">
+        <v>1.25</v>
+      </c>
+      <c r="E87" s="60">
         <f t="shared" ref="E87:E92" si="8">(B87-C87)*-24-D87</f>
-        <v>-10</v>
-      </c>
-      <c r="F87" s="36"/>
-      <c r="G87" s="37"/>
-      <c r="H87" s="38"/>
+        <v>5.75</v>
+      </c>
+      <c r="F87" s="63"/>
+      <c r="G87" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="H87" s="63"/>
     </row>
     <row r="88" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="33" t="s">
@@ -3260,7 +3269,7 @@
       </c>
       <c r="E93" s="47">
         <f>SUM(E86:E92)</f>
-        <v>-10</v>
+        <v>5.75</v>
       </c>
       <c r="F93" s="6"/>
       <c r="G93" s="7"/>
@@ -3275,7 +3284,7 @@
       </c>
       <c r="E94" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>132.63333333333333</v>
+        <v>148.38333333333333</v>
       </c>
       <c r="F94" s="32"/>
       <c r="G94" s="18"/>
@@ -3436,7 +3445,7 @@
       </c>
       <c r="E104" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>132.63333333333333</v>
+        <v>148.38333333333333</v>
       </c>
       <c r="F104" s="32"/>
       <c r="G104" s="18"/>
@@ -3597,7 +3606,7 @@
       </c>
       <c r="E114" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>132.63333333333333</v>
+        <v>148.38333333333333</v>
       </c>
       <c r="F114" s="32"/>
       <c r="G114" s="18"/>
@@ -3758,7 +3767,7 @@
       </c>
       <c r="E124" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>132.63333333333333</v>
+        <v>148.38333333333333</v>
       </c>
       <c r="F124" s="32"/>
       <c r="G124" s="18"/>
@@ -3919,7 +3928,7 @@
       </c>
       <c r="E134" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>132.63333333333333</v>
+        <v>148.38333333333333</v>
       </c>
       <c r="F134" s="32"/>
       <c r="G134" s="18"/>
@@ -4080,7 +4089,7 @@
       </c>
       <c r="E144" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>132.63333333333333</v>
+        <v>148.38333333333333</v>
       </c>
       <c r="F144" s="32"/>
       <c r="G144" s="18"/>
@@ -4241,7 +4250,7 @@
       </c>
       <c r="E154" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>132.63333333333333</v>
+        <v>148.38333333333333</v>
       </c>
       <c r="F154" s="32"/>
       <c r="G154" s="18"/>
@@ -4401,7 +4410,7 @@
       </c>
       <c r="E164" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>132.63333333333333</v>
+        <v>148.38333333333333</v>
       </c>
       <c r="F164" s="32"/>
       <c r="G164" s="18"/>
@@ -4562,7 +4571,7 @@
       </c>
       <c r="E174" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>132.63333333333333</v>
+        <v>148.38333333333333</v>
       </c>
       <c r="F174" s="32"/>
       <c r="G174" s="18"/>
@@ -4723,7 +4732,7 @@
       </c>
       <c r="E184" s="47">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>132.63333333333333</v>
+        <v>148.38333333333333</v>
       </c>
       <c r="F184" s="6"/>
       <c r="G184" s="7"/>

--- a/_WIP/Lou/Lou-Zeiterfassung.xlsx
+++ b/_WIP/Lou/Lou-Zeiterfassung.xlsx
@@ -1417,8 +1417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="K94" sqref="K94"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3189,12 +3189,14 @@
       <c r="A88" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B88" s="10"/>
+      <c r="B88" s="10">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="C88" s="11"/>
       <c r="D88" s="34"/>
       <c r="E88" s="35">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F88" s="36"/>
       <c r="G88" s="37"/>
@@ -3269,7 +3271,7 @@
       </c>
       <c r="E93" s="47">
         <f>SUM(E86:E92)</f>
-        <v>5.75</v>
+        <v>-4.25</v>
       </c>
       <c r="F93" s="6"/>
       <c r="G93" s="7"/>
@@ -3284,7 +3286,7 @@
       </c>
       <c r="E94" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>148.38333333333333</v>
+        <v>138.38333333333333</v>
       </c>
       <c r="F94" s="32"/>
       <c r="G94" s="18"/>
@@ -3445,7 +3447,7 @@
       </c>
       <c r="E104" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>148.38333333333333</v>
+        <v>138.38333333333333</v>
       </c>
       <c r="F104" s="32"/>
       <c r="G104" s="18"/>
@@ -3606,7 +3608,7 @@
       </c>
       <c r="E114" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>148.38333333333333</v>
+        <v>138.38333333333333</v>
       </c>
       <c r="F114" s="32"/>
       <c r="G114" s="18"/>
@@ -3767,7 +3769,7 @@
       </c>
       <c r="E124" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>148.38333333333333</v>
+        <v>138.38333333333333</v>
       </c>
       <c r="F124" s="32"/>
       <c r="G124" s="18"/>
@@ -3928,7 +3930,7 @@
       </c>
       <c r="E134" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>148.38333333333333</v>
+        <v>138.38333333333333</v>
       </c>
       <c r="F134" s="32"/>
       <c r="G134" s="18"/>
@@ -4089,7 +4091,7 @@
       </c>
       <c r="E144" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>148.38333333333333</v>
+        <v>138.38333333333333</v>
       </c>
       <c r="F144" s="32"/>
       <c r="G144" s="18"/>
@@ -4250,7 +4252,7 @@
       </c>
       <c r="E154" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>148.38333333333333</v>
+        <v>138.38333333333333</v>
       </c>
       <c r="F154" s="32"/>
       <c r="G154" s="18"/>
@@ -4410,7 +4412,7 @@
       </c>
       <c r="E164" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>148.38333333333333</v>
+        <v>138.38333333333333</v>
       </c>
       <c r="F164" s="32"/>
       <c r="G164" s="18"/>
@@ -4571,7 +4573,7 @@
       </c>
       <c r="E174" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>148.38333333333333</v>
+        <v>138.38333333333333</v>
       </c>
       <c r="F174" s="32"/>
       <c r="G174" s="18"/>
@@ -4732,7 +4734,7 @@
       </c>
       <c r="E184" s="47">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>148.38333333333333</v>
+        <v>138.38333333333333</v>
       </c>
       <c r="F184" s="6"/>
       <c r="G184" s="7"/>

--- a/_WIP/Lou/Lou-Zeiterfassung.xlsx
+++ b/_WIP/Lou/Lou-Zeiterfassung.xlsx
@@ -1407,7 +1407,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1417,8 +1417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="L70" sqref="L70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3186,21 +3186,25 @@
       <c r="H87" s="63"/>
     </row>
     <row r="88" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="33" t="s">
+      <c r="A88" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="B88" s="10">
+      <c r="B88" s="64">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C88" s="11"/>
-      <c r="D88" s="34"/>
-      <c r="E88" s="35">
+      <c r="C88" s="64">
+        <v>0.75</v>
+      </c>
+      <c r="D88" s="65">
+        <v>1.45</v>
+      </c>
+      <c r="E88" s="60">
         <f t="shared" si="8"/>
-        <v>-10</v>
-      </c>
-      <c r="F88" s="36"/>
-      <c r="G88" s="37"/>
-      <c r="H88" s="38"/>
+        <v>6.55</v>
+      </c>
+      <c r="F88" s="63"/>
+      <c r="G88" s="63"/>
+      <c r="H88" s="63"/>
     </row>
     <row r="89" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="33" t="s">
@@ -3271,7 +3275,7 @@
       </c>
       <c r="E93" s="47">
         <f>SUM(E86:E92)</f>
-        <v>-4.25</v>
+        <v>12.3</v>
       </c>
       <c r="F93" s="6"/>
       <c r="G93" s="7"/>
@@ -3286,7 +3290,7 @@
       </c>
       <c r="E94" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>138.38333333333333</v>
+        <v>154.93333333333334</v>
       </c>
       <c r="F94" s="32"/>
       <c r="G94" s="18"/>
@@ -3447,7 +3451,7 @@
       </c>
       <c r="E104" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>138.38333333333333</v>
+        <v>154.93333333333334</v>
       </c>
       <c r="F104" s="32"/>
       <c r="G104" s="18"/>
@@ -3608,7 +3612,7 @@
       </c>
       <c r="E114" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>138.38333333333333</v>
+        <v>154.93333333333334</v>
       </c>
       <c r="F114" s="32"/>
       <c r="G114" s="18"/>
@@ -3769,7 +3773,7 @@
       </c>
       <c r="E124" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>138.38333333333333</v>
+        <v>154.93333333333334</v>
       </c>
       <c r="F124" s="32"/>
       <c r="G124" s="18"/>
@@ -3930,7 +3934,7 @@
       </c>
       <c r="E134" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>138.38333333333333</v>
+        <v>154.93333333333334</v>
       </c>
       <c r="F134" s="32"/>
       <c r="G134" s="18"/>
@@ -4091,7 +4095,7 @@
       </c>
       <c r="E144" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>138.38333333333333</v>
+        <v>154.93333333333334</v>
       </c>
       <c r="F144" s="32"/>
       <c r="G144" s="18"/>
@@ -4252,7 +4256,7 @@
       </c>
       <c r="E154" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>138.38333333333333</v>
+        <v>154.93333333333334</v>
       </c>
       <c r="F154" s="32"/>
       <c r="G154" s="18"/>
@@ -4412,7 +4416,7 @@
       </c>
       <c r="E164" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>138.38333333333333</v>
+        <v>154.93333333333334</v>
       </c>
       <c r="F164" s="32"/>
       <c r="G164" s="18"/>
@@ -4573,7 +4577,7 @@
       </c>
       <c r="E174" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>138.38333333333333</v>
+        <v>154.93333333333334</v>
       </c>
       <c r="F174" s="32"/>
       <c r="G174" s="18"/>
@@ -4734,7 +4738,7 @@
       </c>
       <c r="E184" s="47">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>138.38333333333333</v>
+        <v>154.93333333333334</v>
       </c>
       <c r="F184" s="6"/>
       <c r="G184" s="7"/>

--- a/_WIP/Lou/Lou-Zeiterfassung.xlsx
+++ b/_WIP/Lou/Lou-Zeiterfassung.xlsx
@@ -1407,7 +1407,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1418,7 +1418,7 @@
   <dimension ref="A1:P184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="L70" sqref="L70"/>
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3210,12 +3210,14 @@
       <c r="A89" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="B89" s="10"/>
+      <c r="B89" s="10">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="C89" s="11"/>
       <c r="D89" s="34"/>
       <c r="E89" s="35">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F89" s="36"/>
       <c r="G89" s="37"/>
@@ -3275,7 +3277,7 @@
       </c>
       <c r="E93" s="47">
         <f>SUM(E86:E92)</f>
-        <v>12.3</v>
+        <v>2.3000000000000007</v>
       </c>
       <c r="F93" s="6"/>
       <c r="G93" s="7"/>
@@ -3290,7 +3292,7 @@
       </c>
       <c r="E94" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>154.93333333333334</v>
+        <v>144.93333333333334</v>
       </c>
       <c r="F94" s="32"/>
       <c r="G94" s="18"/>
@@ -3451,7 +3453,7 @@
       </c>
       <c r="E104" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>154.93333333333334</v>
+        <v>144.93333333333334</v>
       </c>
       <c r="F104" s="32"/>
       <c r="G104" s="18"/>
@@ -3612,7 +3614,7 @@
       </c>
       <c r="E114" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>154.93333333333334</v>
+        <v>144.93333333333334</v>
       </c>
       <c r="F114" s="32"/>
       <c r="G114" s="18"/>
@@ -3773,7 +3775,7 @@
       </c>
       <c r="E124" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>154.93333333333334</v>
+        <v>144.93333333333334</v>
       </c>
       <c r="F124" s="32"/>
       <c r="G124" s="18"/>
@@ -3934,7 +3936,7 @@
       </c>
       <c r="E134" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>154.93333333333334</v>
+        <v>144.93333333333334</v>
       </c>
       <c r="F134" s="32"/>
       <c r="G134" s="18"/>
@@ -4095,7 +4097,7 @@
       </c>
       <c r="E144" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>154.93333333333334</v>
+        <v>144.93333333333334</v>
       </c>
       <c r="F144" s="32"/>
       <c r="G144" s="18"/>
@@ -4256,7 +4258,7 @@
       </c>
       <c r="E154" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>154.93333333333334</v>
+        <v>144.93333333333334</v>
       </c>
       <c r="F154" s="32"/>
       <c r="G154" s="18"/>
@@ -4416,7 +4418,7 @@
       </c>
       <c r="E164" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>154.93333333333334</v>
+        <v>144.93333333333334</v>
       </c>
       <c r="F164" s="32"/>
       <c r="G164" s="18"/>
@@ -4577,7 +4579,7 @@
       </c>
       <c r="E174" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>154.93333333333334</v>
+        <v>144.93333333333334</v>
       </c>
       <c r="F174" s="32"/>
       <c r="G174" s="18"/>
@@ -4738,7 +4740,7 @@
       </c>
       <c r="E184" s="47">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>154.93333333333334</v>
+        <v>144.93333333333334</v>
       </c>
       <c r="F184" s="6"/>
       <c r="G184" s="7"/>

--- a/_WIP/Lou/Lou-Zeiterfassung.xlsx
+++ b/_WIP/Lou/Lou-Zeiterfassung.xlsx
@@ -1407,7 +1407,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1418,7 +1418,7 @@
   <dimension ref="A1:P184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3207,36 +3207,46 @@
       <c r="H88" s="63"/>
     </row>
     <row r="89" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="33" t="s">
+      <c r="A89" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="B89" s="10">
+      <c r="B89" s="64">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C89" s="11"/>
-      <c r="D89" s="34"/>
-      <c r="E89" s="35">
+      <c r="C89" s="64">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D89" s="65">
+        <v>1</v>
+      </c>
+      <c r="E89" s="60">
         <f t="shared" si="8"/>
-        <v>-10</v>
-      </c>
-      <c r="F89" s="36"/>
-      <c r="G89" s="37"/>
-      <c r="H89" s="38"/>
+        <v>6</v>
+      </c>
+      <c r="F89" s="63"/>
+      <c r="G89" s="63"/>
+      <c r="H89" s="63"/>
     </row>
     <row r="90" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="33" t="s">
+      <c r="A90" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="B90" s="10"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="34"/>
-      <c r="E90" s="35">
+      <c r="B90" s="64">
+        <v>0.4375</v>
+      </c>
+      <c r="C90" s="64">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="D90" s="65">
+        <v>1.5</v>
+      </c>
+      <c r="E90" s="60">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F90" s="36"/>
-      <c r="G90" s="37"/>
-      <c r="H90" s="38"/>
+        <v>4.2500000000000009</v>
+      </c>
+      <c r="F90" s="63"/>
+      <c r="G90" s="63"/>
+      <c r="H90" s="63"/>
     </row>
     <row r="91" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="33" t="s">
@@ -3277,7 +3287,7 @@
       </c>
       <c r="E93" s="47">
         <f>SUM(E86:E92)</f>
-        <v>2.3000000000000007</v>
+        <v>22.55</v>
       </c>
       <c r="F93" s="6"/>
       <c r="G93" s="7"/>
@@ -3292,7 +3302,7 @@
       </c>
       <c r="E94" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>144.93333333333334</v>
+        <v>165.18333333333334</v>
       </c>
       <c r="F94" s="32"/>
       <c r="G94" s="18"/>
@@ -3453,7 +3463,7 @@
       </c>
       <c r="E104" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>144.93333333333334</v>
+        <v>165.18333333333334</v>
       </c>
       <c r="F104" s="32"/>
       <c r="G104" s="18"/>
@@ -3614,7 +3624,7 @@
       </c>
       <c r="E114" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>144.93333333333334</v>
+        <v>165.18333333333334</v>
       </c>
       <c r="F114" s="32"/>
       <c r="G114" s="18"/>
@@ -3775,7 +3785,7 @@
       </c>
       <c r="E124" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>144.93333333333334</v>
+        <v>165.18333333333334</v>
       </c>
       <c r="F124" s="32"/>
       <c r="G124" s="18"/>
@@ -3936,7 +3946,7 @@
       </c>
       <c r="E134" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>144.93333333333334</v>
+        <v>165.18333333333334</v>
       </c>
       <c r="F134" s="32"/>
       <c r="G134" s="18"/>
@@ -4097,7 +4107,7 @@
       </c>
       <c r="E144" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>144.93333333333334</v>
+        <v>165.18333333333334</v>
       </c>
       <c r="F144" s="32"/>
       <c r="G144" s="18"/>
@@ -4258,7 +4268,7 @@
       </c>
       <c r="E154" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>144.93333333333334</v>
+        <v>165.18333333333334</v>
       </c>
       <c r="F154" s="32"/>
       <c r="G154" s="18"/>
@@ -4418,7 +4428,7 @@
       </c>
       <c r="E164" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>144.93333333333334</v>
+        <v>165.18333333333334</v>
       </c>
       <c r="F164" s="32"/>
       <c r="G164" s="18"/>
@@ -4579,7 +4589,7 @@
       </c>
       <c r="E174" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>144.93333333333334</v>
+        <v>165.18333333333334</v>
       </c>
       <c r="F174" s="32"/>
       <c r="G174" s="18"/>
@@ -4740,7 +4750,7 @@
       </c>
       <c r="E184" s="47">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>144.93333333333334</v>
+        <v>165.18333333333334</v>
       </c>
       <c r="F184" s="6"/>
       <c r="G184" s="7"/>

--- a/_WIP/Lou/Lou-Zeiterfassung.xlsx
+++ b/_WIP/Lou/Lou-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="162">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -502,6 +502,9 @@
   </si>
   <si>
     <t>unity assets, meting, concept</t>
+  </si>
+  <si>
+    <t>texturen, unity</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1410,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1417,8 +1420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="I76" sqref="I76"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3249,34 +3252,34 @@
       <c r="H90" s="63"/>
     </row>
     <row r="91" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="33" t="s">
+      <c r="A91" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="B91" s="10"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="34"/>
-      <c r="E91" s="35">
+      <c r="B91" s="64"/>
+      <c r="C91" s="64"/>
+      <c r="D91" s="65"/>
+      <c r="E91" s="60">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F91" s="36"/>
-      <c r="G91" s="37"/>
-      <c r="H91" s="38"/>
+      <c r="F91" s="63"/>
+      <c r="G91" s="63"/>
+      <c r="H91" s="63"/>
     </row>
     <row r="92" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="33" t="s">
+      <c r="A92" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="B92" s="39"/>
-      <c r="C92" s="40"/>
-      <c r="D92" s="44"/>
-      <c r="E92" s="45">
+      <c r="B92" s="67"/>
+      <c r="C92" s="67"/>
+      <c r="D92" s="99"/>
+      <c r="E92" s="100">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="F92" s="46"/>
-      <c r="G92" s="41"/>
-      <c r="H92" s="42"/>
+      <c r="F92" s="71"/>
+      <c r="G92" s="71"/>
+      <c r="H92" s="71"/>
     </row>
     <row r="93" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9"/>
@@ -3335,30 +3338,40 @@
       </c>
     </row>
     <row r="96" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="33" t="s">
+      <c r="A96" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="B96" s="10"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="34"/>
-      <c r="E96" s="35">
+      <c r="B96" s="64">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C96" s="64">
+        <v>0.83680555555555547</v>
+      </c>
+      <c r="D96" s="65">
+        <v>2.5</v>
+      </c>
+      <c r="E96" s="60">
         <f>(B96-C96)*-24-D96</f>
-        <v>0</v>
-      </c>
-      <c r="F96" s="36"/>
-      <c r="G96" s="37"/>
-      <c r="H96" s="38"/>
+        <v>7.5833333333333304</v>
+      </c>
+      <c r="F96" s="63"/>
+      <c r="G96" s="63" t="s">
+        <v>161</v>
+      </c>
+      <c r="H96" s="63"/>
     </row>
     <row r="97" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B97" s="10"/>
+      <c r="B97" s="10">
+        <v>0.375</v>
+      </c>
       <c r="C97" s="11"/>
       <c r="D97" s="34"/>
       <c r="E97" s="35">
         <f t="shared" ref="E97:E102" si="9">(B97-C97)*-24-D97</f>
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="F97" s="36"/>
       <c r="G97" s="37"/>
@@ -3448,7 +3461,7 @@
       </c>
       <c r="E103" s="47">
         <f>SUM(E96:E102)</f>
-        <v>0</v>
+        <v>-1.4166666666666696</v>
       </c>
       <c r="F103" s="6"/>
       <c r="G103" s="7"/>
@@ -3463,7 +3476,7 @@
       </c>
       <c r="E104" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>165.18333333333334</v>
+        <v>163.76666666666668</v>
       </c>
       <c r="F104" s="32"/>
       <c r="G104" s="18"/>
@@ -3624,7 +3637,7 @@
       </c>
       <c r="E114" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>165.18333333333334</v>
+        <v>163.76666666666668</v>
       </c>
       <c r="F114" s="32"/>
       <c r="G114" s="18"/>
@@ -3785,7 +3798,7 @@
       </c>
       <c r="E124" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>165.18333333333334</v>
+        <v>163.76666666666668</v>
       </c>
       <c r="F124" s="32"/>
       <c r="G124" s="18"/>
@@ -3946,7 +3959,7 @@
       </c>
       <c r="E134" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>165.18333333333334</v>
+        <v>163.76666666666668</v>
       </c>
       <c r="F134" s="32"/>
       <c r="G134" s="18"/>
@@ -4107,7 +4120,7 @@
       </c>
       <c r="E144" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>165.18333333333334</v>
+        <v>163.76666666666668</v>
       </c>
       <c r="F144" s="32"/>
       <c r="G144" s="18"/>
@@ -4268,7 +4281,7 @@
       </c>
       <c r="E154" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>165.18333333333334</v>
+        <v>163.76666666666668</v>
       </c>
       <c r="F154" s="32"/>
       <c r="G154" s="18"/>
@@ -4428,7 +4441,7 @@
       </c>
       <c r="E164" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>165.18333333333334</v>
+        <v>163.76666666666668</v>
       </c>
       <c r="F164" s="32"/>
       <c r="G164" s="18"/>
@@ -4589,7 +4602,7 @@
       </c>
       <c r="E174" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>165.18333333333334</v>
+        <v>163.76666666666668</v>
       </c>
       <c r="F174" s="32"/>
       <c r="G174" s="18"/>
@@ -4750,7 +4763,7 @@
       </c>
       <c r="E184" s="47">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>165.18333333333334</v>
+        <v>163.76666666666668</v>
       </c>
       <c r="F184" s="6"/>
       <c r="G184" s="7"/>

--- a/_WIP/Lou/Lou-Zeiterfassung.xlsx
+++ b/_WIP/Lou/Lou-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="165">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -505,6 +505,15 @@
   </si>
   <si>
     <t>texturen, unity</t>
+  </si>
+  <si>
+    <t>Texturen, Unity</t>
+  </si>
+  <si>
+    <t>texturen</t>
+  </si>
+  <si>
+    <t>Unterricht</t>
   </si>
 </sst>
 </file>
@@ -1410,7 +1419,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1421,7 +1430,7 @@
   <dimension ref="A1:P184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+      <selection activeCell="I97" sqref="I97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3206,7 +3215,9 @@
         <v>6.55</v>
       </c>
       <c r="F88" s="63"/>
-      <c r="G88" s="63"/>
+      <c r="G88" s="63" t="s">
+        <v>162</v>
+      </c>
       <c r="H88" s="63"/>
     </row>
     <row r="89" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3227,7 +3238,9 @@
         <v>6</v>
       </c>
       <c r="F89" s="63"/>
-      <c r="G89" s="63"/>
+      <c r="G89" s="63" t="s">
+        <v>162</v>
+      </c>
       <c r="H89" s="63"/>
     </row>
     <row r="90" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3248,7 +3261,9 @@
         <v>4.2500000000000009</v>
       </c>
       <c r="F90" s="63"/>
-      <c r="G90" s="63"/>
+      <c r="G90" s="63" t="s">
+        <v>162</v>
+      </c>
       <c r="H90" s="63"/>
     </row>
     <row r="91" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3354,73 +3369,105 @@
         <f>(B96-C96)*-24-D96</f>
         <v>7.5833333333333304</v>
       </c>
-      <c r="F96" s="63"/>
+      <c r="F96" s="63" t="s">
+        <v>164</v>
+      </c>
       <c r="G96" s="63" t="s">
         <v>161</v>
       </c>
       <c r="H96" s="63"/>
     </row>
     <row r="97" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="33" t="s">
+      <c r="A97" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B97" s="10">
+      <c r="B97" s="64">
         <v>0.375</v>
       </c>
-      <c r="C97" s="11"/>
-      <c r="D97" s="34"/>
-      <c r="E97" s="35">
+      <c r="C97" s="64">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D97" s="65"/>
+      <c r="E97" s="60">
         <f t="shared" ref="E97:E102" si="9">(B97-C97)*-24-D97</f>
-        <v>-9</v>
-      </c>
-      <c r="F97" s="36"/>
-      <c r="G97" s="37"/>
-      <c r="H97" s="38"/>
+        <v>3.9999999999999991</v>
+      </c>
+      <c r="F97" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="G97" s="63" t="s">
+        <v>162</v>
+      </c>
+      <c r="H97" s="63"/>
     </row>
     <row r="98" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="33" t="s">
+      <c r="A98" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="B98" s="10"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="34"/>
-      <c r="E98" s="35">
+      <c r="B98" s="64">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C98" s="64">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D98" s="65">
+        <v>1</v>
+      </c>
+      <c r="E98" s="60">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F98" s="36"/>
-      <c r="G98" s="37"/>
-      <c r="H98" s="38"/>
+        <v>6</v>
+      </c>
+      <c r="F98" s="63"/>
+      <c r="G98" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="H98" s="63"/>
     </row>
     <row r="99" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="33" t="s">
+      <c r="A99" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="B99" s="10"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="34"/>
-      <c r="E99" s="35">
+      <c r="B99" s="64">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C99" s="64">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D99" s="65">
+        <v>1.25</v>
+      </c>
+      <c r="E99" s="60">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F99" s="36"/>
-      <c r="G99" s="37"/>
-      <c r="H99" s="38"/>
+        <v>5.75</v>
+      </c>
+      <c r="F99" s="63"/>
+      <c r="G99" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="H99" s="63"/>
     </row>
     <row r="100" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="33" t="s">
+      <c r="A100" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="B100" s="10"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="34"/>
-      <c r="E100" s="35">
+      <c r="B100" s="64">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C100" s="64">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="D100" s="65">
+        <v>1.25</v>
+      </c>
+      <c r="E100" s="60">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F100" s="36"/>
-      <c r="G100" s="37"/>
-      <c r="H100" s="38"/>
+        <v>5.4166666666666679</v>
+      </c>
+      <c r="F100" s="63"/>
+      <c r="G100" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="H100" s="63"/>
     </row>
     <row r="101" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="33" t="s">
@@ -3461,7 +3508,7 @@
       </c>
       <c r="E103" s="47">
         <f>SUM(E96:E102)</f>
-        <v>-1.4166666666666696</v>
+        <v>28.749999999999996</v>
       </c>
       <c r="F103" s="6"/>
       <c r="G103" s="7"/>
@@ -3476,7 +3523,7 @@
       </c>
       <c r="E104" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>163.76666666666668</v>
+        <v>193.93333333333334</v>
       </c>
       <c r="F104" s="32"/>
       <c r="G104" s="18"/>
@@ -3637,7 +3684,7 @@
       </c>
       <c r="E114" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>163.76666666666668</v>
+        <v>193.93333333333334</v>
       </c>
       <c r="F114" s="32"/>
       <c r="G114" s="18"/>
@@ -3798,7 +3845,7 @@
       </c>
       <c r="E124" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>163.76666666666668</v>
+        <v>193.93333333333334</v>
       </c>
       <c r="F124" s="32"/>
       <c r="G124" s="18"/>
@@ -3959,7 +4006,7 @@
       </c>
       <c r="E134" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>163.76666666666668</v>
+        <v>193.93333333333334</v>
       </c>
       <c r="F134" s="32"/>
       <c r="G134" s="18"/>
@@ -4120,7 +4167,7 @@
       </c>
       <c r="E144" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>163.76666666666668</v>
+        <v>193.93333333333334</v>
       </c>
       <c r="F144" s="32"/>
       <c r="G144" s="18"/>
@@ -4281,7 +4328,7 @@
       </c>
       <c r="E154" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>163.76666666666668</v>
+        <v>193.93333333333334</v>
       </c>
       <c r="F154" s="32"/>
       <c r="G154" s="18"/>
@@ -4441,7 +4488,7 @@
       </c>
       <c r="E164" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>163.76666666666668</v>
+        <v>193.93333333333334</v>
       </c>
       <c r="F164" s="32"/>
       <c r="G164" s="18"/>
@@ -4602,7 +4649,7 @@
       </c>
       <c r="E174" s="31">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>163.76666666666668</v>
+        <v>193.93333333333334</v>
       </c>
       <c r="F174" s="32"/>
       <c r="G174" s="18"/>
@@ -4763,7 +4810,7 @@
       </c>
       <c r="E184" s="47">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>163.76666666666668</v>
+        <v>193.93333333333334</v>
       </c>
       <c r="F184" s="6"/>
       <c r="G184" s="7"/>

--- a/_WIP/Lou/Lou-Zeiterfassung.xlsx
+++ b/_WIP/Lou/Lou-Zeiterfassung.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,514 +21,512 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="166">
   <si>
-    <t xml:space="preserve">Zeiterfassung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(zB krank, Arzt, Arbeit, etc)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beginn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ende</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pause</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stunden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abwesenheit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stuff done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bemerkungen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo., 09.04.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meeting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Di., 10.04.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Art Bibel, Voodoo Puppe, Blockout Puppe, Puppenansichten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi., 11.04.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mood Conzept, Farbpaltette, Art Meeting, Größenvergleiche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do., 12.04.2018</t>
+    <t>Zeiterfassung</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>(zB krank, Arzt, Arbeit, etc)</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Beginn</t>
+  </si>
+  <si>
+    <t>Ende</t>
+  </si>
+  <si>
+    <t>Pause</t>
+  </si>
+  <si>
+    <t>Stunden</t>
+  </si>
+  <si>
+    <t>Abwesenheit</t>
+  </si>
+  <si>
+    <t>Stuff done</t>
+  </si>
+  <si>
+    <t>Bemerkungen</t>
+  </si>
+  <si>
+    <t>Mo., 09.04.2018</t>
+  </si>
+  <si>
+    <t>Meeting</t>
+  </si>
+  <si>
+    <t>Di., 10.04.2018</t>
+  </si>
+  <si>
+    <t>Art Bibel, Voodoo Puppe, Blockout Puppe, Puppenansichten</t>
+  </si>
+  <si>
+    <t>Mi., 11.04.2018</t>
+  </si>
+  <si>
+    <t>Mood Conzept, Farbpaltette, Art Meeting, Größenvergleiche</t>
+  </si>
+  <si>
+    <t>Do., 12.04.2018</t>
   </si>
   <si>
     <t xml:space="preserve">Farb Conzepte </t>
   </si>
   <si>
-    <t xml:space="preserve">Fr., 13.04.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pitch-Präsentation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sa., 14.04.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So., 15.04.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gesamt (Woche)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gesamt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo., 16.04.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Di., 17.04.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi., 18.04.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vision Meeting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do., 19.04.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr., 20.04.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assetliste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sa., 21.04.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So., 22.04.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo., 23.04.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assetliste, Voodoo Puppe Mesh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Di., 24.04.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Art Bibel, Voodoo Puppe Mesh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi., 25.04.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voodoo Puppe Mesh- lowpoly+ highpoly, Baking, knopf mesh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do., 26.04.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Knopf mesh, Knopf baking, Handsoft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr., 27.04.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sa., 28.04.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So., 29.04.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo., 30.04.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voodoo Puppe Textur, Substance painter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Di., 01.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi., 02.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voodoo Puppe, Textur tests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do., 03.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Textur tests, Farbpaletten; unity tests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr., 04.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texturen, hibiskus Mesh, Unity test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sa., 05.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So., 06.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo., 07.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hibiskus mesh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Di., 08.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texturen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi., 09.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do., 10.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feiertag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr., 11.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sa., 12.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So., 13.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo., 14.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Di., 15.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi., 16.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do., 17.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr., 18.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sa., 19.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So., 20.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo., 21.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Di., 22.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moodboard, stuhl textur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi., 23.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Krank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do., 24.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr., 25.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sa., 26.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So., 27.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo., 28.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Di., 29.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi., 30.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do., 31.05.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr., 01.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sa., 02.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So., 03.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo., 04.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mathearbeit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Di., 05.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unity assets, meting, concept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi., 06.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Texturen, Unity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do., 07.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr., 08.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sa., 09.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So., 10.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo., 11.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Di., 12.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi., 13.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do., 14.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr., 15.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sa., 16.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So., 17.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo., 18.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unterricht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">texturen, unity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Di., 19.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi., 20.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do., 21.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr., 22.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">texturen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sa., 23.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So., 24.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo., 25.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Di., 26.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi., 27.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do., 28.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr., 29.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sa., 30.06.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So., 01.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo., 02.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Di., 03.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi., 04.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do., 05.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr., 06.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sa., 07.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So., 08.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo., 09.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Di., 10.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi., 11.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do., 12.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr., 13.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sa., 14.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So., 15.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo., 16.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Di., 17.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi., 18.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do., 19.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr., 20.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sa., 21.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So., 22.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo., 23.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Di., 24.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi., 25.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do., 26.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr., 27.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sa., 28.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So., 29.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo., 30.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Di., 31.07.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi., 01.08.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do., 02.08.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr., 03.08.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sa., 04.08.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So., 05.08.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo., 06.08.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Di., 07.08.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mi., 08.08.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do., 09.08.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fr., 10.08.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sa., 11.08.2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So., 12.08.2018</t>
+    <t>Fr., 13.04.2018</t>
+  </si>
+  <si>
+    <t>Pitch-Präsentation</t>
+  </si>
+  <si>
+    <t>Sa., 14.04.2018</t>
+  </si>
+  <si>
+    <t>So., 15.04.2018</t>
+  </si>
+  <si>
+    <t>gesamt (Woche)</t>
+  </si>
+  <si>
+    <t>gesamt</t>
+  </si>
+  <si>
+    <t>Mo., 16.04.2018</t>
+  </si>
+  <si>
+    <t>Di., 17.04.2018</t>
+  </si>
+  <si>
+    <t>Mi., 18.04.2018</t>
+  </si>
+  <si>
+    <t>Vision Meeting</t>
+  </si>
+  <si>
+    <t>Do., 19.04.2018</t>
+  </si>
+  <si>
+    <t>Fr., 20.04.2018</t>
+  </si>
+  <si>
+    <t>Assetliste</t>
+  </si>
+  <si>
+    <t>Sa., 21.04.2018</t>
+  </si>
+  <si>
+    <t>So., 22.04.2018</t>
+  </si>
+  <si>
+    <t>Mo., 23.04.2018</t>
+  </si>
+  <si>
+    <t>Assetliste, Voodoo Puppe Mesh</t>
+  </si>
+  <si>
+    <t>Di., 24.04.2018</t>
+  </si>
+  <si>
+    <t>Art Bibel, Voodoo Puppe Mesh</t>
+  </si>
+  <si>
+    <t>Mi., 25.04.2018</t>
+  </si>
+  <si>
+    <t>Voodoo Puppe Mesh- lowpoly+ highpoly, Baking, knopf mesh</t>
+  </si>
+  <si>
+    <t>Do., 26.04.2018</t>
+  </si>
+  <si>
+    <t>Knopf mesh, Knopf baking, Handsoft</t>
+  </si>
+  <si>
+    <t>Fr., 27.04.2018</t>
+  </si>
+  <si>
+    <t>Sa., 28.04.2018</t>
+  </si>
+  <si>
+    <t>So., 29.04.2018</t>
+  </si>
+  <si>
+    <t>Mo., 30.04.2018</t>
+  </si>
+  <si>
+    <t>Voodoo Puppe Textur, Substance painter</t>
+  </si>
+  <si>
+    <t>Di., 01.05.2018</t>
+  </si>
+  <si>
+    <t>Mi., 02.05.2018</t>
+  </si>
+  <si>
+    <t>Voodoo Puppe, Textur tests</t>
+  </si>
+  <si>
+    <t>Do., 03.05.2018</t>
+  </si>
+  <si>
+    <t>Textur tests, Farbpaletten; unity tests</t>
+  </si>
+  <si>
+    <t>Fr., 04.05.2018</t>
+  </si>
+  <si>
+    <t>Texturen, hibiskus Mesh, Unity test</t>
+  </si>
+  <si>
+    <t>Sa., 05.05.2018</t>
+  </si>
+  <si>
+    <t>So., 06.05.2018</t>
+  </si>
+  <si>
+    <t>Mo., 07.05.2018</t>
+  </si>
+  <si>
+    <t>Hibiskus mesh</t>
+  </si>
+  <si>
+    <t>Di., 08.05.2018</t>
+  </si>
+  <si>
+    <t>Texturen</t>
+  </si>
+  <si>
+    <t>Mi., 09.05.2018</t>
+  </si>
+  <si>
+    <t>Do., 10.05.2018</t>
+  </si>
+  <si>
+    <t>Feiertag</t>
+  </si>
+  <si>
+    <t>Fr., 11.05.2018</t>
+  </si>
+  <si>
+    <t>Sa., 12.05.2018</t>
+  </si>
+  <si>
+    <t>So., 13.05.2018</t>
+  </si>
+  <si>
+    <t>Mo., 14.05.2018</t>
+  </si>
+  <si>
+    <t>Di., 15.05.2018</t>
+  </si>
+  <si>
+    <t>Mi., 16.05.2018</t>
+  </si>
+  <si>
+    <t>Do., 17.05.2018</t>
+  </si>
+  <si>
+    <t>Fr., 18.05.2018</t>
+  </si>
+  <si>
+    <t>Sa., 19.05.2018</t>
+  </si>
+  <si>
+    <t>So., 20.05.2018</t>
+  </si>
+  <si>
+    <t>Mo., 21.05.2018</t>
+  </si>
+  <si>
+    <t>Di., 22.05.2018</t>
+  </si>
+  <si>
+    <t>Moodboard, stuhl textur</t>
+  </si>
+  <si>
+    <t>Mi., 23.05.2018</t>
+  </si>
+  <si>
+    <t>Krank</t>
+  </si>
+  <si>
+    <t>Do., 24.05.2018</t>
+  </si>
+  <si>
+    <t>Fr., 25.05.2018</t>
+  </si>
+  <si>
+    <t>Sa., 26.05.2018</t>
+  </si>
+  <si>
+    <t>So., 27.05.2018</t>
+  </si>
+  <si>
+    <t>Mo., 28.05.2018</t>
+  </si>
+  <si>
+    <t>Di., 29.05.2018</t>
+  </si>
+  <si>
+    <t>Mi., 30.05.2018</t>
+  </si>
+  <si>
+    <t>Do., 31.05.2018</t>
+  </si>
+  <si>
+    <t>Fr., 01.06.2018</t>
+  </si>
+  <si>
+    <t>Sa., 02.06.2018</t>
+  </si>
+  <si>
+    <t>So., 03.06.2018</t>
+  </si>
+  <si>
+    <t>Mo., 04.06.2018</t>
+  </si>
+  <si>
+    <t>Mathearbeit</t>
+  </si>
+  <si>
+    <t>Di., 05.06.2018</t>
+  </si>
+  <si>
+    <t>unity assets, meting, concept</t>
+  </si>
+  <si>
+    <t>Mi., 06.06.2018</t>
+  </si>
+  <si>
+    <t>Texturen, Unity</t>
+  </si>
+  <si>
+    <t>Do., 07.06.2018</t>
+  </si>
+  <si>
+    <t>Fr., 08.06.2018</t>
+  </si>
+  <si>
+    <t>Sa., 09.06.2018</t>
+  </si>
+  <si>
+    <t>So., 10.06.2018</t>
+  </si>
+  <si>
+    <t>Mo., 11.06.2018</t>
+  </si>
+  <si>
+    <t>Di., 12.06.2018</t>
+  </si>
+  <si>
+    <t>Mi., 13.06.2018</t>
+  </si>
+  <si>
+    <t>Do., 14.06.2018</t>
+  </si>
+  <si>
+    <t>Fr., 15.06.2018</t>
+  </si>
+  <si>
+    <t>Sa., 16.06.2018</t>
+  </si>
+  <si>
+    <t>So., 17.06.2018</t>
+  </si>
+  <si>
+    <t>Mo., 18.06.2018</t>
+  </si>
+  <si>
+    <t>Unterricht</t>
+  </si>
+  <si>
+    <t>texturen, unity</t>
+  </si>
+  <si>
+    <t>Di., 19.06.2018</t>
+  </si>
+  <si>
+    <t>Mi., 20.06.2018</t>
+  </si>
+  <si>
+    <t>Do., 21.06.2018</t>
+  </si>
+  <si>
+    <t>Fr., 22.06.2018</t>
+  </si>
+  <si>
+    <t>texturen</t>
+  </si>
+  <si>
+    <t>Sa., 23.06.2018</t>
+  </si>
+  <si>
+    <t>So., 24.06.2018</t>
+  </si>
+  <si>
+    <t>Unity</t>
+  </si>
+  <si>
+    <t>Mo., 25.06.2018</t>
+  </si>
+  <si>
+    <t>Di., 26.06.2018</t>
+  </si>
+  <si>
+    <t>Mi., 27.06.2018</t>
+  </si>
+  <si>
+    <t>Do., 28.06.2018</t>
+  </si>
+  <si>
+    <t>Fr., 29.06.2018</t>
+  </si>
+  <si>
+    <t>Sa., 30.06.2018</t>
+  </si>
+  <si>
+    <t>So., 01.07.2018</t>
+  </si>
+  <si>
+    <t>Mo., 02.07.2018</t>
+  </si>
+  <si>
+    <t>Di., 03.07.2018</t>
+  </si>
+  <si>
+    <t>Mi., 04.07.2018</t>
+  </si>
+  <si>
+    <t>Do., 05.07.2018</t>
+  </si>
+  <si>
+    <t>Fr., 06.07.2018</t>
+  </si>
+  <si>
+    <t>Sa., 07.07.2018</t>
+  </si>
+  <si>
+    <t>So., 08.07.2018</t>
+  </si>
+  <si>
+    <t>Mo., 09.07.2018</t>
+  </si>
+  <si>
+    <t>Di., 10.07.2018</t>
+  </si>
+  <si>
+    <t>Mi., 11.07.2018</t>
+  </si>
+  <si>
+    <t>Do., 12.07.2018</t>
+  </si>
+  <si>
+    <t>Fr., 13.07.2018</t>
+  </si>
+  <si>
+    <t>Sa., 14.07.2018</t>
+  </si>
+  <si>
+    <t>So., 15.07.2018</t>
+  </si>
+  <si>
+    <t>Mo., 16.07.2018</t>
+  </si>
+  <si>
+    <t>Di., 17.07.2018</t>
+  </si>
+  <si>
+    <t>Mi., 18.07.2018</t>
+  </si>
+  <si>
+    <t>Do., 19.07.2018</t>
+  </si>
+  <si>
+    <t>Fr., 20.07.2018</t>
+  </si>
+  <si>
+    <t>Sa., 21.07.2018</t>
+  </si>
+  <si>
+    <t>So., 22.07.2018</t>
+  </si>
+  <si>
+    <t>Mo., 23.07.2018</t>
+  </si>
+  <si>
+    <t>Di., 24.07.2018</t>
+  </si>
+  <si>
+    <t>Mi., 25.07.2018</t>
+  </si>
+  <si>
+    <t>Do., 26.07.2018</t>
+  </si>
+  <si>
+    <t>Fr., 27.07.2018</t>
+  </si>
+  <si>
+    <t>Sa., 28.07.2018</t>
+  </si>
+  <si>
+    <t>So., 29.07.2018</t>
+  </si>
+  <si>
+    <t>Mo., 30.07.2018</t>
+  </si>
+  <si>
+    <t>Di., 31.07.2018</t>
+  </si>
+  <si>
+    <t>Mi., 01.08.2018</t>
+  </si>
+  <si>
+    <t>Do., 02.08.2018</t>
+  </si>
+  <si>
+    <t>Fr., 03.08.2018</t>
+  </si>
+  <si>
+    <t>Sa., 04.08.2018</t>
+  </si>
+  <si>
+    <t>So., 05.08.2018</t>
+  </si>
+  <si>
+    <t>Mo., 06.08.2018</t>
+  </si>
+  <si>
+    <t>Di., 07.08.2018</t>
+  </si>
+  <si>
+    <t>Mi., 08.08.2018</t>
+  </si>
+  <si>
+    <t>Do., 09.08.2018</t>
+  </si>
+  <si>
+    <t>Fr., 10.08.2018</t>
+  </si>
+  <si>
+    <t>Sa., 11.08.2018</t>
+  </si>
+  <si>
+    <t>So., 12.08.2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="H:MM;@"/>
-    <numFmt numFmtId="166" formatCode="0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -538,22 +535,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -567,8 +549,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -641,16 +630,52 @@
         <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800000"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800000"/>
+        <bgColor rgb="FFDEEBF7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800000"/>
+        <bgColor rgb="FFDAE3F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800000"/>
+        <bgColor rgb="FFDBDBDB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800000"/>
+        <bgColor rgb="FFD6DCE5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800000"/>
+        <bgColor rgb="FF9999FF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
@@ -665,18 +690,22 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
-      <right style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
@@ -686,30 +715,40 @@
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
-      <right style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
@@ -717,26 +756,40 @@
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
@@ -749,480 +802,413 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="10" borderId="2" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="10" borderId="6" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="10" borderId="7" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="8" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="10" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="10" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="10" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="10" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="10" borderId="12" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="10" borderId="12" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="10" borderId="12" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="12" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="13" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="10" borderId="2" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="10" borderId="2" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="2" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="2" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="2" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="12" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="2" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="116">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="10" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="10" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="10" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="10" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="10" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="10" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="14" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="15" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="16" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="17" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in 20% - Accent1" xfId="20" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="Erklärender Text" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1281,36 +1267,335 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FF800000"/>
+      <color rgb="FF730B0B"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+  <a:themeElements>
+    <a:clrScheme name="Larissa">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Larissa">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Larissa">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P184"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B113" activeCellId="0" sqref="B113"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O100" sqref="O100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="22.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="26.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="25.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="24.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="7" width="40.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="8" width="13.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="10.67"/>
+    <col min="1" max="1" width="14.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26" style="4" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="40.85546875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="8" customWidth="1"/>
+    <col min="9" max="1025" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1322,7 +1607,7 @@
       <c r="G1" s="15"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="10"/>
       <c r="C2" s="11"/>
@@ -1332,14 +1617,14 @@
       <c r="G2" s="15"/>
       <c r="H2" s="16"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="n">
-        <v>0.697916666666667</v>
-      </c>
-      <c r="C3" s="19" t="n">
+      <c r="B3" s="18">
+        <v>0.69791666666666696</v>
+      </c>
+      <c r="C3" s="19">
         <v>0.75</v>
       </c>
       <c r="D3" s="12"/>
@@ -1348,7 +1633,7 @@
       <c r="G3" s="15"/>
       <c r="H3" s="16"/>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="20"/>
       <c r="B4" s="21"/>
       <c r="C4" s="22"/>
@@ -1360,7 +1645,7 @@
       <c r="G4" s="26"/>
       <c r="H4" s="27"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>3</v>
       </c>
@@ -1386,22 +1671,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" s="43" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="37" t="n">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C6" s="37" t="n">
+      <c r="B6" s="37">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C6" s="37">
         <v>0.75</v>
       </c>
-      <c r="D6" s="38" t="n">
+      <c r="D6" s="38">
         <v>1</v>
       </c>
-      <c r="E6" s="38" t="n">
-        <f aca="false">(B6-C6)*-24-D6</f>
-        <v>7</v>
+      <c r="E6" s="38">
+        <f t="shared" ref="E6:E12" si="0">(B6-C6)*-24-D6</f>
+        <v>6.9999999999999911</v>
       </c>
       <c r="F6" s="39"/>
       <c r="G6" s="40" t="s">
@@ -1417,21 +1702,21 @@
       <c r="O6" s="42"/>
       <c r="P6" s="42"/>
     </row>
-    <row r="7" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="44" t="n">
+      <c r="B7" s="44">
         <v>0.375</v>
       </c>
-      <c r="C7" s="44" t="n">
+      <c r="C7" s="44">
         <v>0.75</v>
       </c>
-      <c r="D7" s="45" t="n">
+      <c r="D7" s="45">
         <v>1</v>
       </c>
-      <c r="E7" s="38" t="n">
-        <f aca="false">(B7-C7)*-24-D7</f>
+      <c r="E7" s="38">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F7" s="41"/>
@@ -1448,22 +1733,22 @@
       <c r="O7" s="42"/>
       <c r="P7" s="42"/>
     </row>
-    <row r="8" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="44" t="n">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="C8" s="44" t="n">
-        <v>0.729166666666667</v>
-      </c>
-      <c r="D8" s="45" t="n">
+      <c r="B8" s="44">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="C8" s="44">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="D8" s="45">
         <v>2</v>
       </c>
-      <c r="E8" s="38" t="n">
-        <f aca="false">(B8-C8)*-24-D8</f>
-        <v>6</v>
+      <c r="E8" s="38">
+        <f t="shared" si="0"/>
+        <v>6.000000000000016</v>
       </c>
       <c r="F8" s="41"/>
       <c r="G8" s="41" t="s">
@@ -1479,22 +1764,22 @@
       <c r="O8" s="42"/>
       <c r="P8" s="42"/>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="44" t="n">
-        <v>0.381944444444444</v>
-      </c>
-      <c r="C9" s="44" t="n">
+      <c r="B9" s="44">
+        <v>0.38194444444444398</v>
+      </c>
+      <c r="C9" s="44">
         <v>0.78125</v>
       </c>
-      <c r="D9" s="45" t="n">
+      <c r="D9" s="45">
         <v>1.5</v>
       </c>
-      <c r="E9" s="38" t="n">
-        <f aca="false">(B9-C9)*-24-D9</f>
-        <v>8.08333333333334</v>
+      <c r="E9" s="38">
+        <f t="shared" si="0"/>
+        <v>8.0833333333333446</v>
       </c>
       <c r="F9" s="41"/>
       <c r="G9" s="41" t="s">
@@ -1510,20 +1795,20 @@
       <c r="O9" s="42"/>
       <c r="P9" s="42"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="44" t="n">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="C10" s="44" t="n">
-        <v>0.708333333333333</v>
+      <c r="B10" s="44">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="C10" s="44">
+        <v>0.70833333333333304</v>
       </c>
       <c r="D10" s="45"/>
-      <c r="E10" s="38" t="n">
-        <f aca="false">(B10-C10)*-24-D10</f>
-        <v>7.5</v>
+      <c r="E10" s="38">
+        <f t="shared" si="0"/>
+        <v>7.5000000000000018</v>
       </c>
       <c r="F10" s="41"/>
       <c r="G10" s="41" t="s">
@@ -1539,16 +1824,16 @@
       <c r="O10" s="42"/>
       <c r="P10" s="42"/>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="44"/>
       <c r="C11" s="44"/>
       <c r="D11" s="45"/>
-      <c r="E11" s="46" t="n">
-        <f aca="false">(B11-C11)*-24-D11</f>
-        <v>-0</v>
+      <c r="E11" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="F11" s="41"/>
       <c r="G11" s="41"/>
@@ -1562,16 +1847,16 @@
       <c r="O11" s="42"/>
       <c r="P11" s="42"/>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="47"/>
       <c r="C12" s="47"/>
       <c r="D12" s="48"/>
-      <c r="E12" s="49" t="n">
-        <f aca="false">(B12-C12)*-24-D12</f>
-        <v>-0</v>
+      <c r="E12" s="49">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="F12" s="50"/>
       <c r="G12" s="51"/>
@@ -1585,16 +1870,16 @@
       <c r="O12" s="42"/>
       <c r="P12" s="42"/>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
       <c r="D13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="52" t="n">
-        <f aca="false">SUM(E6:E12)</f>
-        <v>36.5833333333333</v>
+      <c r="E13" s="52">
+        <f>SUM(E6:E12)</f>
+        <v>36.58333333333335</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="15"/>
@@ -1608,16 +1893,16 @@
       <c r="O13" s="42"/>
       <c r="P13" s="42"/>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
       <c r="D14" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="53" t="n">
-        <f aca="false">SUM(E13)</f>
-        <v>36.5833333333333</v>
+      <c r="E14" s="53">
+        <f>SUM(E13)</f>
+        <v>36.58333333333335</v>
       </c>
       <c r="F14" s="54"/>
       <c r="G14" s="26"/>
@@ -1631,7 +1916,7 @@
       <c r="O14" s="42"/>
       <c r="P14" s="42"/>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>3</v>
       </c>
@@ -1665,15 +1950,15 @@
       <c r="O15" s="42"/>
       <c r="P15" s="42"/>
     </row>
-    <row r="16" s="43" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
       <c r="D16" s="45"/>
-      <c r="E16" s="38" t="n">
-        <f aca="false">(B16-C16)*-24-D16</f>
+      <c r="E16" s="38">
+        <f t="shared" ref="E16:E22" si="1">(B16-C16)*-24-D16</f>
         <v>0</v>
       </c>
       <c r="F16" s="41"/>
@@ -1688,16 +1973,16 @@
       <c r="O16" s="42"/>
       <c r="P16" s="42"/>
     </row>
-    <row r="17" s="43" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
         <v>26</v>
       </c>
       <c r="B17" s="44"/>
       <c r="C17" s="44"/>
       <c r="D17" s="45"/>
-      <c r="E17" s="38" t="n">
-        <f aca="false">(B17-C17)*-24-D17</f>
-        <v>-0</v>
+      <c r="E17" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="F17" s="41"/>
       <c r="G17" s="41"/>
@@ -1711,20 +1996,20 @@
       <c r="O17" s="42"/>
       <c r="P17" s="42"/>
     </row>
-    <row r="18" s="43" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="44" t="n">
-        <v>0.697916666666667</v>
-      </c>
-      <c r="C18" s="44" t="n">
+      <c r="B18" s="44">
+        <v>0.69791666666666696</v>
+      </c>
+      <c r="C18" s="44">
         <v>0.75</v>
       </c>
       <c r="D18" s="45"/>
-      <c r="E18" s="38" t="n">
-        <f aca="false">(B18-C18)*-24-D18</f>
-        <v>1.25</v>
+      <c r="E18" s="38">
+        <f t="shared" si="1"/>
+        <v>1.2499999999999929</v>
       </c>
       <c r="F18" s="41"/>
       <c r="G18" s="41" t="s">
@@ -1740,16 +2025,16 @@
       <c r="O18" s="42"/>
       <c r="P18" s="42"/>
     </row>
-    <row r="19" s="43" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="36" t="s">
         <v>29</v>
       </c>
       <c r="B19" s="44"/>
       <c r="C19" s="44"/>
       <c r="D19" s="45"/>
-      <c r="E19" s="38" t="n">
-        <f aca="false">(B19-C19)*-24-D19</f>
-        <v>-0</v>
+      <c r="E19" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="F19" s="41"/>
       <c r="G19" s="41"/>
@@ -1763,22 +2048,22 @@
       <c r="O19" s="42"/>
       <c r="P19" s="42"/>
     </row>
-    <row r="20" s="43" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="44" t="n">
-        <v>0.479166666666667</v>
-      </c>
-      <c r="C20" s="44" t="n">
+      <c r="B20" s="44">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="C20" s="44">
         <v>0.71875</v>
       </c>
-      <c r="D20" s="45" t="n">
+      <c r="D20" s="45">
         <v>1</v>
       </c>
-      <c r="E20" s="38" t="n">
-        <f aca="false">(B20-C20)*-24-D20</f>
-        <v>4.75</v>
+      <c r="E20" s="38">
+        <f t="shared" si="1"/>
+        <v>4.7499999999999911</v>
       </c>
       <c r="F20" s="41"/>
       <c r="G20" s="41" t="s">
@@ -1794,16 +2079,16 @@
       <c r="O20" s="42"/>
       <c r="P20" s="42"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="36" t="s">
         <v>32</v>
       </c>
       <c r="B21" s="44"/>
       <c r="C21" s="44"/>
       <c r="D21" s="45"/>
-      <c r="E21" s="46" t="n">
-        <f aca="false">(B21-C21)*-24-D21</f>
-        <v>-0</v>
+      <c r="E21" s="46">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="F21" s="41"/>
       <c r="G21" s="41"/>
@@ -1817,16 +2102,16 @@
       <c r="O21" s="42"/>
       <c r="P21" s="42"/>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
         <v>33</v>
       </c>
       <c r="B22" s="47"/>
       <c r="C22" s="47"/>
       <c r="D22" s="48"/>
-      <c r="E22" s="49" t="n">
-        <f aca="false">(B22-C22)*-24-D22</f>
-        <v>-0</v>
+      <c r="E22" s="49">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="F22" s="50"/>
       <c r="G22" s="51"/>
@@ -1840,16 +2125,16 @@
       <c r="O22" s="42"/>
       <c r="P22" s="42"/>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="10"/>
       <c r="C23" s="11"/>
       <c r="D23" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="52" t="n">
-        <f aca="false">SUM(E16:E22)</f>
-        <v>6</v>
+      <c r="E23" s="52">
+        <f>SUM(E16:E22)</f>
+        <v>5.999999999999984</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="15"/>
@@ -1863,16 +2148,16 @@
       <c r="O23" s="42"/>
       <c r="P23" s="42"/>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
       <c r="B24" s="21"/>
       <c r="C24" s="22"/>
       <c r="D24" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="53" t="n">
-        <f aca="false">SUM(E13+E23)</f>
-        <v>42.5833333333333</v>
+      <c r="E24" s="53">
+        <f>SUM(E13+E23)</f>
+        <v>42.583333333333336</v>
       </c>
       <c r="F24" s="54"/>
       <c r="G24" s="26"/>
@@ -1886,7 +2171,7 @@
       <c r="O24" s="42"/>
       <c r="P24" s="42"/>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
         <v>3</v>
       </c>
@@ -1920,22 +2205,22 @@
       <c r="O25" s="42"/>
       <c r="P25" s="42"/>
     </row>
-    <row r="26" s="43" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="44" t="n">
+      <c r="B26" s="44">
         <v>0.375</v>
       </c>
-      <c r="C26" s="44" t="n">
-        <v>0.729166666666667</v>
-      </c>
-      <c r="D26" s="45" t="n">
+      <c r="C26" s="44">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="D26" s="45">
         <v>1.5</v>
       </c>
-      <c r="E26" s="38" t="n">
-        <f aca="false">(B26-C26)*-24-D26</f>
-        <v>7</v>
+      <c r="E26" s="38">
+        <f t="shared" ref="E26:E32" si="2">(B26-C26)*-24-D26</f>
+        <v>7.0000000000000071</v>
       </c>
       <c r="F26" s="41"/>
       <c r="G26" s="41" t="s">
@@ -1951,22 +2236,22 @@
       <c r="O26" s="42"/>
       <c r="P26" s="42"/>
     </row>
-    <row r="27" s="43" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:16" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="44" t="n">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C27" s="44" t="n">
-        <v>0.694444444444444</v>
-      </c>
-      <c r="D27" s="45" t="n">
+      <c r="B27" s="44">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C27" s="44">
+        <v>0.69444444444444398</v>
+      </c>
+      <c r="D27" s="45">
         <v>1.25</v>
       </c>
-      <c r="E27" s="38" t="n">
-        <f aca="false">(B27-C27)*-24-D27</f>
-        <v>5.41666666666667</v>
+      <c r="E27" s="38">
+        <f t="shared" si="2"/>
+        <v>5.4166666666666465</v>
       </c>
       <c r="F27" s="41"/>
       <c r="G27" s="41" t="s">
@@ -1982,22 +2267,22 @@
       <c r="O27" s="42"/>
       <c r="P27" s="42"/>
     </row>
-    <row r="28" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="44" t="n">
+      <c r="B28" s="44">
         <v>0.375</v>
       </c>
-      <c r="C28" s="44" t="n">
-        <v>0.729166666666667</v>
-      </c>
-      <c r="D28" s="45" t="n">
+      <c r="C28" s="44">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="D28" s="45">
         <v>1.5</v>
       </c>
-      <c r="E28" s="38" t="n">
-        <f aca="false">(B28-C28)*-24-D28</f>
-        <v>7</v>
+      <c r="E28" s="38">
+        <f t="shared" si="2"/>
+        <v>7.0000000000000071</v>
       </c>
       <c r="F28" s="41"/>
       <c r="G28" s="41" t="s">
@@ -2005,22 +2290,22 @@
       </c>
       <c r="H28" s="41"/>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="44" t="n">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C29" s="44" t="n">
+      <c r="B29" s="44">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C29" s="44">
         <v>0.75</v>
       </c>
-      <c r="D29" s="45" t="n">
+      <c r="D29" s="45">
         <v>1.25</v>
       </c>
-      <c r="E29" s="38" t="n">
-        <f aca="false">(B29-C29)*-24-D29</f>
-        <v>6.75</v>
+      <c r="E29" s="38">
+        <f t="shared" si="2"/>
+        <v>6.7499999999999911</v>
       </c>
       <c r="F29" s="41"/>
       <c r="G29" s="41" t="s">
@@ -2028,82 +2313,82 @@
       </c>
       <c r="H29" s="41"/>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="s">
         <v>42</v>
       </c>
       <c r="B30" s="44"/>
       <c r="C30" s="44"/>
       <c r="D30" s="45"/>
-      <c r="E30" s="38" t="n">
-        <f aca="false">(B30-C30)*-24-D30</f>
-        <v>-0</v>
+      <c r="E30" s="38">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="F30" s="41"/>
       <c r="G30" s="41"/>
       <c r="H30" s="41"/>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="36" t="s">
         <v>43</v>
       </c>
       <c r="B31" s="44"/>
       <c r="C31" s="44"/>
       <c r="D31" s="45"/>
-      <c r="E31" s="46" t="n">
-        <f aca="false">(B31-C31)*-24-D31</f>
-        <v>-0</v>
+      <c r="E31" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="F31" s="41"/>
       <c r="G31" s="41"/>
       <c r="H31" s="41"/>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="s">
         <v>44</v>
       </c>
       <c r="B32" s="47"/>
       <c r="C32" s="47"/>
       <c r="D32" s="48"/>
-      <c r="E32" s="49" t="n">
-        <f aca="false">(B32-C32)*-24-D32</f>
-        <v>-0</v>
+      <c r="E32" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="F32" s="50"/>
       <c r="G32" s="51"/>
       <c r="H32" s="51"/>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
       <c r="B33" s="10"/>
       <c r="C33" s="11"/>
       <c r="D33" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E33" s="52" t="n">
-        <f aca="false">SUM(E26:E32)</f>
-        <v>26.1666666666667</v>
+      <c r="E33" s="52">
+        <f>SUM(E26:E32)</f>
+        <v>26.16666666666665</v>
       </c>
       <c r="F33" s="14"/>
       <c r="G33" s="15"/>
       <c r="H33" s="16"/>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="20"/>
       <c r="B34" s="21"/>
       <c r="C34" s="22"/>
       <c r="D34" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="53" t="n">
-        <f aca="false">SUM(E13+E23+E33)</f>
-        <v>68.75</v>
+      <c r="E34" s="53">
+        <f>SUM(E13+E23+E33)</f>
+        <v>68.749999999999986</v>
       </c>
       <c r="F34" s="54"/>
       <c r="G34" s="26"/>
       <c r="H34" s="27"/>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="28" t="s">
         <v>3</v>
       </c>
@@ -2129,21 +2414,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="44" t="n">
+      <c r="B36" s="44">
         <v>0.375</v>
       </c>
-      <c r="C36" s="44" t="n">
+      <c r="C36" s="44">
         <v>0.75</v>
       </c>
-      <c r="D36" s="45" t="n">
+      <c r="D36" s="45">
         <v>1.25</v>
       </c>
-      <c r="E36" s="38" t="n">
-        <f aca="false">(B36-C36)*-24-D36</f>
+      <c r="E36" s="38">
+        <f t="shared" ref="E36:E42" si="3">(B36-C36)*-24-D36</f>
         <v>7.75</v>
       </c>
       <c r="F36" s="41"/>
@@ -2152,37 +2437,37 @@
       </c>
       <c r="H36" s="41"/>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="36" t="s">
         <v>47</v>
       </c>
       <c r="B37" s="44"/>
       <c r="C37" s="44"/>
       <c r="D37" s="45"/>
-      <c r="E37" s="38" t="n">
-        <f aca="false">(B37-C37)*-24-D37</f>
+      <c r="E37" s="38">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F37" s="41"/>
       <c r="G37" s="41"/>
       <c r="H37" s="41"/>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="44" t="n">
-        <v>0.402777777777778</v>
-      </c>
-      <c r="C38" s="44" t="n">
-        <v>0.770833333333333</v>
-      </c>
-      <c r="D38" s="45" t="n">
+      <c r="B38" s="44">
+        <v>0.40277777777777801</v>
+      </c>
+      <c r="C38" s="44">
+        <v>0.77083333333333304</v>
+      </c>
+      <c r="D38" s="45">
         <v>0.45</v>
       </c>
-      <c r="E38" s="38" t="n">
-        <f aca="false">(B38-C38)*-24-D38</f>
-        <v>8.38333333333334</v>
+      <c r="E38" s="38">
+        <f t="shared" si="3"/>
+        <v>8.3833333333333222</v>
       </c>
       <c r="F38" s="41"/>
       <c r="G38" s="41" t="s">
@@ -2190,21 +2475,21 @@
       </c>
       <c r="H38" s="41"/>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="44" t="n">
+      <c r="B39" s="44">
         <v>0.375</v>
       </c>
-      <c r="C39" s="44" t="n">
+      <c r="C39" s="44">
         <v>0.6875</v>
       </c>
-      <c r="D39" s="45" t="n">
+      <c r="D39" s="45">
         <v>1</v>
       </c>
-      <c r="E39" s="38" t="n">
-        <f aca="false">(B39-C39)*-24-D39</f>
+      <c r="E39" s="38">
+        <f t="shared" si="3"/>
         <v>6.5</v>
       </c>
       <c r="F39" s="41"/>
@@ -2213,22 +2498,22 @@
       </c>
       <c r="H39" s="41"/>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="44" t="n">
+      <c r="B40" s="44">
         <v>0.375</v>
       </c>
-      <c r="C40" s="44" t="n">
-        <v>0.697916666666667</v>
-      </c>
-      <c r="D40" s="45" t="n">
+      <c r="C40" s="44">
+        <v>0.69791666666666696</v>
+      </c>
+      <c r="D40" s="45">
         <v>1</v>
       </c>
-      <c r="E40" s="38" t="n">
-        <f aca="false">(B40-C40)*-24-D40</f>
-        <v>6.75</v>
+      <c r="E40" s="38">
+        <f t="shared" si="3"/>
+        <v>6.7500000000000071</v>
       </c>
       <c r="F40" s="41"/>
       <c r="G40" s="41" t="s">
@@ -2236,67 +2521,67 @@
       </c>
       <c r="H40" s="41"/>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="36" t="s">
         <v>54</v>
       </c>
       <c r="B41" s="44"/>
       <c r="C41" s="44"/>
       <c r="D41" s="45"/>
-      <c r="E41" s="46" t="n">
-        <f aca="false">(B41-C41)*-24-D41</f>
-        <v>-0</v>
+      <c r="E41" s="46">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="F41" s="41"/>
       <c r="G41" s="41"/>
       <c r="H41" s="41"/>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="36" t="s">
         <v>55</v>
       </c>
       <c r="B42" s="47"/>
       <c r="C42" s="47"/>
       <c r="D42" s="48"/>
-      <c r="E42" s="49" t="n">
-        <f aca="false">(B42-C42)*-24-D42</f>
-        <v>-0</v>
+      <c r="E42" s="49">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="F42" s="50"/>
       <c r="G42" s="51"/>
       <c r="H42" s="51"/>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
       <c r="B43" s="10"/>
       <c r="C43" s="11"/>
       <c r="D43" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E43" s="52" t="n">
-        <f aca="false">SUM(E36:E42)</f>
-        <v>29.3833333333333</v>
+      <c r="E43" s="52">
+        <f>SUM(E36:E42)</f>
+        <v>29.383333333333329</v>
       </c>
       <c r="F43" s="14"/>
       <c r="G43" s="15"/>
       <c r="H43" s="16"/>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="20"/>
       <c r="B44" s="21"/>
       <c r="C44" s="22"/>
       <c r="D44" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E44" s="53" t="n">
-        <f aca="false">SUM(E13+E23+E33+E43)</f>
-        <v>98.1333333333333</v>
+      <c r="E44" s="53">
+        <f>SUM(E13+E23+E33+E43)</f>
+        <v>98.133333333333312</v>
       </c>
       <c r="F44" s="54"/>
       <c r="G44" s="26"/>
       <c r="H44" s="27"/>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="56" t="s">
         <v>3</v>
       </c>
@@ -2322,22 +2607,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="65" t="n">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C46" s="65" t="n">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D46" s="66" t="n">
+      <c r="B46" s="65">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C46" s="65">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D46" s="66">
         <v>1</v>
       </c>
-      <c r="E46" s="67" t="n">
-        <f aca="false">(B46-C46)*-24-D46</f>
-        <v>6</v>
+      <c r="E46" s="67">
+        <f t="shared" ref="E46:E52" si="4">(B46-C46)*-24-D46</f>
+        <v>5.999999999999984</v>
       </c>
       <c r="F46" s="68"/>
       <c r="G46" s="68" t="s">
@@ -2345,22 +2630,22 @@
       </c>
       <c r="H46" s="69"/>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="B47" s="65" t="n">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="C47" s="65" t="n">
-        <v>0.729166666666667</v>
-      </c>
-      <c r="D47" s="66" t="n">
+      <c r="B47" s="65">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="C47" s="65">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="D47" s="66">
         <v>1</v>
       </c>
-      <c r="E47" s="67" t="n">
-        <f aca="false">(B47-C47)*-24-D47</f>
-        <v>7</v>
+      <c r="E47" s="67">
+        <f t="shared" si="4"/>
+        <v>7.000000000000016</v>
       </c>
       <c r="F47" s="68"/>
       <c r="G47" s="68" t="s">
@@ -2368,22 +2653,22 @@
       </c>
       <c r="H47" s="69"/>
     </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="B48" s="65" t="n">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C48" s="65" t="n">
-        <v>0.729166666666667</v>
-      </c>
-      <c r="D48" s="66" t="n">
+      <c r="B48" s="65">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C48" s="65">
+        <v>0.72916666666666696</v>
+      </c>
+      <c r="D48" s="66">
         <v>1</v>
       </c>
-      <c r="E48" s="67" t="n">
-        <f aca="false">(B48-C48)*-24-D48</f>
-        <v>6.5</v>
+      <c r="E48" s="67">
+        <f t="shared" si="4"/>
+        <v>6.4999999999999982</v>
       </c>
       <c r="F48" s="68"/>
       <c r="G48" s="68" t="s">
@@ -2391,16 +2676,16 @@
       </c>
       <c r="H48" s="69"/>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="64" t="s">
         <v>61</v>
       </c>
       <c r="B49" s="65"/>
       <c r="C49" s="65"/>
       <c r="D49" s="66"/>
-      <c r="E49" s="67" t="n">
-        <f aca="false">(B49-C49)*-24-D49</f>
-        <v>-0</v>
+      <c r="E49" s="67">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F49" s="68" t="s">
         <v>62</v>
@@ -2408,22 +2693,22 @@
       <c r="G49" s="70"/>
       <c r="H49" s="69"/>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="B50" s="65" t="n">
-        <v>0.385416666666667</v>
-      </c>
-      <c r="C50" s="65" t="n">
+      <c r="B50" s="65">
+        <v>0.38541666666666702</v>
+      </c>
+      <c r="C50" s="65">
         <v>0.75</v>
       </c>
-      <c r="D50" s="66" t="n">
+      <c r="D50" s="66">
         <v>2</v>
       </c>
-      <c r="E50" s="67" t="n">
-        <f aca="false">(B50-C50)*-24-D50</f>
-        <v>6.75</v>
+      <c r="E50" s="67">
+        <f t="shared" si="4"/>
+        <v>6.7499999999999911</v>
       </c>
       <c r="F50" s="68"/>
       <c r="G50" s="68" t="s">
@@ -2431,67 +2716,67 @@
       </c>
       <c r="H50" s="69"/>
     </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="64" t="s">
         <v>64</v>
       </c>
       <c r="B51" s="65"/>
       <c r="C51" s="65"/>
       <c r="D51" s="66"/>
-      <c r="E51" s="67" t="n">
-        <f aca="false">(B51-C51)*-24-D51</f>
-        <v>-0</v>
+      <c r="E51" s="67">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F51" s="68"/>
       <c r="G51" s="68"/>
       <c r="H51" s="69"/>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="64" t="s">
         <v>65</v>
       </c>
       <c r="B52" s="71"/>
       <c r="C52" s="71"/>
       <c r="D52" s="72"/>
-      <c r="E52" s="73" t="n">
-        <f aca="false">(B52-C52)*-24-D52</f>
-        <v>-0</v>
+      <c r="E52" s="73">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F52" s="74"/>
       <c r="G52" s="74"/>
       <c r="H52" s="75"/>
     </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="76"/>
       <c r="B53" s="77"/>
       <c r="C53" s="78"/>
       <c r="D53" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="E53" s="52" t="n">
-        <f aca="false">SUM(E46:E52)</f>
-        <v>26.25</v>
+      <c r="E53" s="52">
+        <f>SUM(E46:E52)</f>
+        <v>26.249999999999993</v>
       </c>
       <c r="F53" s="80"/>
       <c r="G53" s="81"/>
       <c r="H53" s="82"/>
     </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="20"/>
       <c r="B54" s="21"/>
       <c r="C54" s="22"/>
       <c r="D54" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E54" s="53" t="n">
-        <f aca="false">SUM(E13+E23+E33+E43+E53)</f>
-        <v>124.383333333333</v>
+      <c r="E54" s="53">
+        <f>SUM(E13+E23+E33+E43+E53)</f>
+        <v>124.3833333333333</v>
       </c>
       <c r="F54" s="54"/>
       <c r="G54" s="26"/>
       <c r="H54" s="27"/>
     </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="28" t="s">
         <v>3</v>
       </c>
@@ -2517,142 +2802,142 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="36" t="s">
         <v>66</v>
       </c>
       <c r="B56" s="44"/>
       <c r="C56" s="44"/>
       <c r="D56" s="45"/>
-      <c r="E56" s="38" t="n">
-        <f aca="false">(B56-C56)*-24-D56</f>
+      <c r="E56" s="38">
+        <f t="shared" ref="E56:E62" si="5">(B56-C56)*-24-D56</f>
         <v>0</v>
       </c>
       <c r="F56" s="41"/>
       <c r="G56" s="41"/>
       <c r="H56" s="41"/>
     </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="36" t="s">
         <v>67</v>
       </c>
       <c r="B57" s="44"/>
       <c r="C57" s="44"/>
       <c r="D57" s="45"/>
-      <c r="E57" s="38" t="n">
-        <f aca="false">(B57-C57)*-24-D57</f>
-        <v>-0</v>
+      <c r="E57" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="F57" s="41"/>
       <c r="G57" s="41"/>
       <c r="H57" s="41"/>
     </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="36" t="s">
         <v>68</v>
       </c>
       <c r="B58" s="44"/>
       <c r="C58" s="44"/>
       <c r="D58" s="45"/>
-      <c r="E58" s="38" t="n">
-        <f aca="false">(B58-C58)*-24-D58</f>
-        <v>-0</v>
+      <c r="E58" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="F58" s="41"/>
       <c r="G58" s="41"/>
       <c r="H58" s="41"/>
     </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="36" t="s">
         <v>69</v>
       </c>
       <c r="B59" s="44"/>
       <c r="C59" s="44"/>
       <c r="D59" s="45"/>
-      <c r="E59" s="38" t="n">
-        <f aca="false">(B59-C59)*-24-D59</f>
-        <v>-0</v>
+      <c r="E59" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="F59" s="41"/>
       <c r="G59" s="41"/>
       <c r="H59" s="41"/>
     </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="36" t="s">
         <v>70</v>
       </c>
       <c r="B60" s="44"/>
       <c r="C60" s="44"/>
       <c r="D60" s="45"/>
-      <c r="E60" s="38" t="n">
-        <f aca="false">(B60-C60)*-24-D60</f>
-        <v>-0</v>
+      <c r="E60" s="38">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="F60" s="41"/>
       <c r="G60" s="41"/>
       <c r="H60" s="41"/>
     </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="36" t="s">
         <v>71</v>
       </c>
       <c r="B61" s="44"/>
       <c r="C61" s="44"/>
       <c r="D61" s="45"/>
-      <c r="E61" s="46" t="n">
-        <f aca="false">(B61-C61)*-24-D61</f>
-        <v>-0</v>
+      <c r="E61" s="46">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="F61" s="41"/>
       <c r="G61" s="41"/>
       <c r="H61" s="41"/>
     </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="36" t="s">
         <v>72</v>
       </c>
       <c r="B62" s="47"/>
       <c r="C62" s="47"/>
       <c r="D62" s="48"/>
-      <c r="E62" s="49" t="n">
-        <f aca="false">(B62-C62)*-24-D62</f>
-        <v>-0</v>
+      <c r="E62" s="49">
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="F62" s="50"/>
       <c r="G62" s="51"/>
       <c r="H62" s="51"/>
     </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="17"/>
       <c r="B63" s="10"/>
       <c r="C63" s="11"/>
       <c r="D63" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E63" s="52" t="n">
-        <f aca="false">SUM(E56:E62)</f>
+      <c r="E63" s="52">
+        <f>SUM(E56:E62)</f>
         <v>0</v>
       </c>
       <c r="F63" s="14"/>
       <c r="G63" s="15"/>
       <c r="H63" s="16"/>
     </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="20"/>
       <c r="B64" s="21"/>
       <c r="C64" s="22"/>
       <c r="D64" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E64" s="53" t="n">
-        <f aca="false">SUM(E13+E23+E33+E43+E53+E63)</f>
-        <v>124.383333333333</v>
+      <c r="E64" s="53">
+        <f>SUM(E13+E23+E33+E43+E53+E63)</f>
+        <v>124.3833333333333</v>
       </c>
       <c r="F64" s="54"/>
       <c r="G64" s="26"/>
       <c r="H64" s="27"/>
     </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="28" t="s">
         <v>3</v>
       </c>
@@ -2678,37 +2963,37 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="36" t="s">
         <v>73</v>
       </c>
       <c r="B66" s="44"/>
       <c r="C66" s="44"/>
       <c r="D66" s="45"/>
-      <c r="E66" s="38" t="n">
-        <f aca="false">(B66-C66)*-24-D66</f>
+      <c r="E66" s="38">
+        <f t="shared" ref="E66:E72" si="6">(B66-C66)*-24-D66</f>
         <v>0</v>
       </c>
       <c r="F66" s="41"/>
       <c r="G66" s="41"/>
       <c r="H66" s="41"/>
     </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="B67" s="44" t="n">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C67" s="44" t="n">
+      <c r="B67" s="44">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C67" s="44">
         <v>0.6875</v>
       </c>
-      <c r="D67" s="45" t="n">
+      <c r="D67" s="45">
         <v>1</v>
       </c>
-      <c r="E67" s="38" t="n">
-        <f aca="false">(B67-C67)*-24-D67</f>
-        <v>5.5</v>
+      <c r="E67" s="38">
+        <f t="shared" si="6"/>
+        <v>5.4999999999999911</v>
       </c>
       <c r="F67" s="41"/>
       <c r="G67" s="41" t="s">
@@ -2716,16 +3001,16 @@
       </c>
       <c r="H67" s="41"/>
     </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="36" t="s">
         <v>76</v>
       </c>
       <c r="B68" s="44"/>
       <c r="C68" s="44"/>
       <c r="D68" s="45"/>
-      <c r="E68" s="38" t="n">
-        <f aca="false">(B68-C68)*-24-D68</f>
-        <v>-0</v>
+      <c r="E68" s="38">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="F68" s="41" t="s">
         <v>77</v>
@@ -2733,22 +3018,22 @@
       <c r="G68" s="41"/>
       <c r="H68" s="41"/>
     </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="B69" s="44" t="n">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C69" s="44" t="n">
+      <c r="B69" s="44">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C69" s="44">
         <v>0.75</v>
       </c>
-      <c r="D69" s="45" t="n">
+      <c r="D69" s="45">
         <v>1.25</v>
       </c>
-      <c r="E69" s="38" t="n">
-        <f aca="false">(B69-C69)*-24-D69</f>
-        <v>6.75</v>
+      <c r="E69" s="38">
+        <f t="shared" si="6"/>
+        <v>6.7499999999999911</v>
       </c>
       <c r="F69" s="41"/>
       <c r="G69" s="41" t="s">
@@ -2756,86 +3041,86 @@
       </c>
       <c r="H69" s="41"/>
     </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="B70" s="44" t="n">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C70" s="44" t="n">
-        <v>0.666666666666667</v>
+      <c r="B70" s="44">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C70" s="44">
+        <v>0.66666666666666696</v>
       </c>
       <c r="D70" s="45"/>
-      <c r="E70" s="38" t="n">
-        <f aca="false">(B70-C70)*-24-D70</f>
-        <v>6</v>
+      <c r="E70" s="38">
+        <f t="shared" si="6"/>
+        <v>5.9999999999999982</v>
       </c>
       <c r="F70" s="41"/>
       <c r="G70" s="41"/>
       <c r="H70" s="41"/>
     </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="36" t="s">
         <v>80</v>
       </c>
       <c r="B71" s="44"/>
       <c r="C71" s="44"/>
       <c r="D71" s="45"/>
-      <c r="E71" s="46" t="n">
-        <f aca="false">(B71-C71)*-24-D71</f>
-        <v>-0</v>
+      <c r="E71" s="46">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="F71" s="41"/>
       <c r="G71" s="41"/>
       <c r="H71" s="41"/>
     </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="36" t="s">
         <v>81</v>
       </c>
       <c r="B72" s="47"/>
       <c r="C72" s="47"/>
       <c r="D72" s="48"/>
-      <c r="E72" s="49" t="n">
-        <f aca="false">(B72-C72)*-24-D72</f>
-        <v>-0</v>
+      <c r="E72" s="49">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="F72" s="50"/>
       <c r="G72" s="51"/>
       <c r="H72" s="51"/>
     </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="17"/>
       <c r="B73" s="10"/>
       <c r="C73" s="11"/>
       <c r="D73" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E73" s="83" t="n">
-        <f aca="false">SUM(E66:E72)</f>
-        <v>18.25</v>
+      <c r="E73" s="83">
+        <f>SUM(E66:E72)</f>
+        <v>18.249999999999979</v>
       </c>
       <c r="F73" s="14"/>
       <c r="G73" s="81"/>
       <c r="H73" s="82"/>
     </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="20"/>
       <c r="B74" s="21"/>
       <c r="C74" s="22"/>
       <c r="D74" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E74" s="53" t="n">
-        <f aca="false">SUM(E13+E23+E33+E43+E53+E63+E73)</f>
-        <v>142.633333333333</v>
+      <c r="E74" s="53">
+        <f>SUM(E13+E23+E33+E43+E53+E63+E73)</f>
+        <v>142.63333333333327</v>
       </c>
       <c r="F74" s="54"/>
       <c r="G74" s="26"/>
       <c r="H74" s="27"/>
     </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="28" t="s">
         <v>3</v>
       </c>
@@ -2861,142 +3146,142 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="36" t="s">
         <v>82</v>
       </c>
       <c r="B76" s="44"/>
       <c r="C76" s="44"/>
       <c r="D76" s="45"/>
-      <c r="E76" s="38" t="n">
-        <f aca="false">(B76-C76)*-24-D76</f>
+      <c r="E76" s="38">
+        <f t="shared" ref="E76:E82" si="7">(B76-C76)*-24-D76</f>
         <v>0</v>
       </c>
       <c r="F76" s="41"/>
       <c r="G76" s="41"/>
       <c r="H76" s="41"/>
     </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="36" t="s">
         <v>83</v>
       </c>
       <c r="B77" s="44"/>
       <c r="C77" s="44"/>
       <c r="D77" s="45"/>
-      <c r="E77" s="38" t="n">
-        <f aca="false">(B77-C77)*-24-D77</f>
-        <v>-0</v>
+      <c r="E77" s="38">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="F77" s="41"/>
       <c r="G77" s="41"/>
       <c r="H77" s="41"/>
     </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="36" t="s">
         <v>84</v>
       </c>
       <c r="B78" s="44"/>
       <c r="C78" s="44"/>
       <c r="D78" s="45"/>
-      <c r="E78" s="38" t="n">
-        <f aca="false">(B78-C78)*-24-D78</f>
-        <v>-0</v>
+      <c r="E78" s="38">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="F78" s="41"/>
       <c r="G78" s="41"/>
       <c r="H78" s="41"/>
     </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="36" t="s">
         <v>85</v>
       </c>
       <c r="B79" s="44"/>
       <c r="C79" s="44"/>
       <c r="D79" s="45"/>
-      <c r="E79" s="38" t="n">
-        <f aca="false">(B79-C79)*-24-D79</f>
-        <v>-0</v>
+      <c r="E79" s="38">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="F79" s="41"/>
       <c r="G79" s="41"/>
       <c r="H79" s="41"/>
     </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="36" t="s">
         <v>86</v>
       </c>
       <c r="B80" s="44"/>
       <c r="C80" s="44"/>
       <c r="D80" s="45"/>
-      <c r="E80" s="38" t="n">
-        <f aca="false">(B80-C80)*-24-D80</f>
-        <v>-0</v>
+      <c r="E80" s="38">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="F80" s="41"/>
       <c r="G80" s="41"/>
       <c r="H80" s="41"/>
     </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="36" t="s">
         <v>87</v>
       </c>
       <c r="B81" s="44"/>
       <c r="C81" s="44"/>
       <c r="D81" s="45"/>
-      <c r="E81" s="38" t="n">
-        <f aca="false">(B81-C81)*-24-D81</f>
-        <v>-0</v>
+      <c r="E81" s="38">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="F81" s="41"/>
       <c r="G81" s="41"/>
       <c r="H81" s="41"/>
     </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="36" t="s">
         <v>88</v>
       </c>
       <c r="B82" s="47"/>
       <c r="C82" s="47"/>
       <c r="D82" s="84"/>
-      <c r="E82" s="85" t="n">
-        <f aca="false">(B82-C82)*-24-D82</f>
-        <v>-0</v>
+      <c r="E82" s="85">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="F82" s="51"/>
       <c r="G82" s="51"/>
       <c r="H82" s="51"/>
     </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="17"/>
       <c r="B83" s="10"/>
       <c r="C83" s="11"/>
       <c r="D83" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E83" s="83" t="n">
-        <f aca="false">SUM(E76:E82)</f>
+      <c r="E83" s="83">
+        <f>SUM(E76:E82)</f>
         <v>0</v>
       </c>
       <c r="F83" s="14"/>
       <c r="G83" s="15"/>
       <c r="H83" s="16"/>
     </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="20"/>
       <c r="B84" s="21"/>
       <c r="C84" s="22"/>
       <c r="D84" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E84" s="53" t="n">
-        <f aca="false">SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
-        <v>142.633333333333</v>
+      <c r="E84" s="53">
+        <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83)</f>
+        <v>142.63333333333327</v>
       </c>
       <c r="F84" s="54"/>
       <c r="G84" s="26"/>
       <c r="H84" s="27"/>
     </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="28" t="s">
         <v>3</v>
       </c>
@@ -3022,15 +3307,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="36" t="s">
         <v>89</v>
       </c>
       <c r="B86" s="44"/>
       <c r="C86" s="44"/>
       <c r="D86" s="45"/>
-      <c r="E86" s="38" t="n">
-        <f aca="false">(B86-C86)*-24-D86</f>
+      <c r="E86" s="38">
+        <f t="shared" ref="E86:E92" si="8">(B86-C86)*-24-D86</f>
         <v>0</v>
       </c>
       <c r="F86" s="41" t="s">
@@ -3039,22 +3324,22 @@
       <c r="G86" s="41"/>
       <c r="H86" s="41"/>
     </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="B87" s="44" t="n">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C87" s="44" t="n">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D87" s="45" t="n">
+      <c r="B87" s="44">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C87" s="44">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D87" s="45">
         <v>1.25</v>
       </c>
-      <c r="E87" s="38" t="n">
-        <f aca="false">(B87-C87)*-24-D87</f>
-        <v>5.75</v>
+      <c r="E87" s="38">
+        <f t="shared" si="8"/>
+        <v>5.749999999999984</v>
       </c>
       <c r="F87" s="41"/>
       <c r="G87" s="41" t="s">
@@ -3062,22 +3347,22 @@
       </c>
       <c r="H87" s="41"/>
     </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="B88" s="44" t="n">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C88" s="44" t="n">
+      <c r="B88" s="44">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C88" s="44">
         <v>0.75</v>
       </c>
-      <c r="D88" s="45" t="n">
+      <c r="D88" s="45">
         <v>1.45</v>
       </c>
-      <c r="E88" s="38" t="n">
-        <f aca="false">(B88-C88)*-24-D88</f>
-        <v>6.55</v>
+      <c r="E88" s="38">
+        <f t="shared" si="8"/>
+        <v>6.5499999999999909</v>
       </c>
       <c r="F88" s="41"/>
       <c r="G88" s="41" t="s">
@@ -3085,22 +3370,22 @@
       </c>
       <c r="H88" s="41"/>
     </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="B89" s="44" t="n">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C89" s="44" t="n">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D89" s="45" t="n">
+      <c r="B89" s="44">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C89" s="44">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D89" s="45">
         <v>1</v>
       </c>
-      <c r="E89" s="38" t="n">
-        <f aca="false">(B89-C89)*-24-D89</f>
-        <v>6</v>
+      <c r="E89" s="38">
+        <f t="shared" si="8"/>
+        <v>5.999999999999984</v>
       </c>
       <c r="F89" s="41"/>
       <c r="G89" s="41" t="s">
@@ -3108,22 +3393,22 @@
       </c>
       <c r="H89" s="41"/>
     </row>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="B90" s="44" t="n">
+      <c r="B90" s="44">
         <v>0.4375</v>
       </c>
-      <c r="C90" s="44" t="n">
-        <v>0.677083333333333</v>
-      </c>
-      <c r="D90" s="45" t="n">
+      <c r="C90" s="44">
+        <v>0.67708333333333304</v>
+      </c>
+      <c r="D90" s="45">
         <v>1.5</v>
       </c>
-      <c r="E90" s="38" t="n">
-        <f aca="false">(B90-C90)*-24-D90</f>
-        <v>4.25</v>
+      <c r="E90" s="38">
+        <f t="shared" si="8"/>
+        <v>4.2499999999999929</v>
       </c>
       <c r="F90" s="41"/>
       <c r="G90" s="41" t="s">
@@ -3131,67 +3416,67 @@
       </c>
       <c r="H90" s="41"/>
     </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="36" t="s">
         <v>97</v>
       </c>
       <c r="B91" s="44"/>
       <c r="C91" s="44"/>
       <c r="D91" s="45"/>
-      <c r="E91" s="38" t="n">
-        <f aca="false">(B91-C91)*-24-D91</f>
-        <v>-0</v>
+      <c r="E91" s="38">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="F91" s="41"/>
       <c r="G91" s="41"/>
       <c r="H91" s="41"/>
     </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="36" t="s">
         <v>98</v>
       </c>
       <c r="B92" s="47"/>
       <c r="C92" s="47"/>
       <c r="D92" s="84"/>
-      <c r="E92" s="85" t="n">
-        <f aca="false">(B92-C92)*-24-D92</f>
-        <v>-0</v>
+      <c r="E92" s="85">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="F92" s="51"/>
       <c r="G92" s="51"/>
       <c r="H92" s="51"/>
     </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="17"/>
       <c r="B93" s="10"/>
       <c r="C93" s="11"/>
       <c r="D93" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E93" s="83" t="n">
-        <f aca="false">SUM(E86:E92)</f>
-        <v>22.55</v>
+      <c r="E93" s="83">
+        <f>SUM(E86:E92)</f>
+        <v>22.549999999999955</v>
       </c>
       <c r="F93" s="14"/>
       <c r="G93" s="15"/>
       <c r="H93" s="16"/>
     </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="20"/>
       <c r="B94" s="21"/>
       <c r="C94" s="22"/>
       <c r="D94" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E94" s="53" t="n">
-        <f aca="false">SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
-        <v>165.183333333333</v>
+      <c r="E94" s="53">
+        <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93)</f>
+        <v>165.18333333333322</v>
       </c>
       <c r="F94" s="54"/>
       <c r="G94" s="26"/>
       <c r="H94" s="27"/>
     </row>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="28" t="s">
         <v>3</v>
       </c>
@@ -3217,142 +3502,142 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="36" t="s">
         <v>99</v>
       </c>
       <c r="B96" s="44"/>
       <c r="C96" s="44"/>
       <c r="D96" s="45"/>
-      <c r="E96" s="45" t="n">
-        <f aca="false">(B96-C96)*-24-D96</f>
-        <v>-0</v>
+      <c r="E96" s="45">
+        <f t="shared" ref="E96:E102" si="9">(B96-C96)*-24-D96</f>
+        <v>0</v>
       </c>
       <c r="F96" s="41"/>
       <c r="G96" s="41"/>
       <c r="H96" s="41"/>
     </row>
-    <row r="97" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="36" t="s">
         <v>100</v>
       </c>
       <c r="B97" s="44"/>
       <c r="C97" s="44"/>
       <c r="D97" s="45"/>
-      <c r="E97" s="45" t="n">
-        <f aca="false">(B97-C97)*-24-D97</f>
-        <v>-0</v>
+      <c r="E97" s="45">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="F97" s="41"/>
       <c r="G97" s="41"/>
       <c r="H97" s="41"/>
     </row>
-    <row r="98" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="36" t="s">
         <v>101</v>
       </c>
       <c r="B98" s="44"/>
       <c r="C98" s="44"/>
       <c r="D98" s="45"/>
-      <c r="E98" s="45" t="n">
-        <f aca="false">(B98-C98)*-24-D98</f>
-        <v>-0</v>
+      <c r="E98" s="45">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="F98" s="41"/>
       <c r="G98" s="41"/>
       <c r="H98" s="41"/>
     </row>
-    <row r="99" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="36" t="s">
         <v>102</v>
       </c>
       <c r="B99" s="44"/>
       <c r="C99" s="44"/>
       <c r="D99" s="45"/>
-      <c r="E99" s="45" t="n">
-        <f aca="false">(B99-C99)*-24-D99</f>
-        <v>-0</v>
+      <c r="E99" s="45">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="F99" s="41"/>
       <c r="G99" s="41"/>
       <c r="H99" s="41"/>
     </row>
-    <row r="100" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="36" t="s">
         <v>103</v>
       </c>
       <c r="B100" s="44"/>
       <c r="C100" s="44"/>
       <c r="D100" s="45"/>
-      <c r="E100" s="45" t="n">
-        <f aca="false">(B100-C100)*-24-D100</f>
-        <v>-0</v>
+      <c r="E100" s="45">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="F100" s="44"/>
       <c r="G100" s="44"/>
       <c r="H100" s="45"/>
     </row>
-    <row r="101" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="86" t="s">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="101" t="s">
         <v>104</v>
       </c>
       <c r="B101" s="44"/>
       <c r="C101" s="44"/>
       <c r="D101" s="45"/>
-      <c r="E101" s="45" t="n">
-        <f aca="false">(B101-C101)*-24-D101</f>
-        <v>-0</v>
+      <c r="E101" s="45">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="F101" s="44"/>
       <c r="G101" s="44"/>
       <c r="H101" s="45"/>
     </row>
-    <row r="102" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="86" t="s">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="101" t="s">
         <v>105</v>
       </c>
       <c r="B102" s="44"/>
       <c r="C102" s="44"/>
       <c r="D102" s="45"/>
-      <c r="E102" s="45" t="n">
-        <f aca="false">(B102-C102)*-24-D102</f>
-        <v>-0</v>
+      <c r="E102" s="45">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="F102" s="44"/>
       <c r="G102" s="44"/>
       <c r="H102" s="45"/>
     </row>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="17"/>
       <c r="B103" s="10"/>
       <c r="C103" s="11"/>
       <c r="D103" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E103" s="83" t="n">
-        <f aca="false">SUM(E96:E102)</f>
+      <c r="E103" s="83">
+        <f>SUM(E96:E102)</f>
         <v>0</v>
       </c>
       <c r="F103" s="14"/>
       <c r="G103" s="15"/>
       <c r="H103" s="16"/>
     </row>
-    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="20"/>
       <c r="B104" s="21"/>
       <c r="C104" s="22"/>
       <c r="D104" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E104" s="53" t="n">
-        <f aca="false">SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
-        <v>165.183333333333</v>
+      <c r="E104" s="53">
+        <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103)</f>
+        <v>165.18333333333322</v>
       </c>
       <c r="F104" s="54"/>
       <c r="G104" s="26"/>
       <c r="H104" s="27"/>
     </row>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="28" t="s">
         <v>3</v>
       </c>
@@ -3378,22 +3663,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="86" t="s">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="B106" s="44" t="n">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C106" s="44" t="n">
-        <v>0.836805555555555</v>
-      </c>
-      <c r="D106" s="45" t="n">
+      <c r="B106" s="44">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C106" s="44">
+        <v>0.83680555555555503</v>
+      </c>
+      <c r="D106" s="45">
         <v>2.5</v>
       </c>
-      <c r="E106" s="38" t="n">
-        <f aca="false">(B106-C106)*-24-D106</f>
-        <v>7.58333333333333</v>
+      <c r="E106" s="38">
+        <f t="shared" ref="E106:E112" si="10">(B106-C106)*-24-D106</f>
+        <v>7.5833333333333126</v>
       </c>
       <c r="F106" s="41" t="s">
         <v>107</v>
@@ -3403,20 +3688,20 @@
       </c>
       <c r="H106" s="41"/>
     </row>
-    <row r="107" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="86" t="s">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="101" t="s">
         <v>109</v>
       </c>
-      <c r="B107" s="44" t="n">
+      <c r="B107" s="44">
         <v>0.375</v>
       </c>
-      <c r="C107" s="44" t="n">
-        <v>0.541666666666667</v>
+      <c r="C107" s="44">
+        <v>0.54166666666666696</v>
       </c>
       <c r="D107" s="45"/>
-      <c r="E107" s="38" t="n">
-        <f aca="false">(B107-C107)*-24-D107</f>
-        <v>4</v>
+      <c r="E107" s="38">
+        <f t="shared" si="10"/>
+        <v>4.0000000000000071</v>
       </c>
       <c r="F107" s="41" t="s">
         <v>107</v>
@@ -3426,22 +3711,22 @@
       </c>
       <c r="H107" s="41"/>
     </row>
-    <row r="108" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="86" t="s">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="B108" s="44" t="n">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C108" s="44" t="n">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D108" s="45" t="n">
+      <c r="B108" s="44">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C108" s="44">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D108" s="45">
         <v>1</v>
       </c>
-      <c r="E108" s="38" t="n">
-        <f aca="false">(B108-C108)*-24-D108</f>
-        <v>6</v>
+      <c r="E108" s="38">
+        <f t="shared" si="10"/>
+        <v>5.999999999999984</v>
       </c>
       <c r="F108" s="41"/>
       <c r="G108" s="41" t="s">
@@ -3449,22 +3734,22 @@
       </c>
       <c r="H108" s="41"/>
     </row>
-    <row r="109" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="86" t="s">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="B109" s="44" t="n">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C109" s="44" t="n">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="D109" s="45" t="n">
+      <c r="B109" s="44">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C109" s="44">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D109" s="45">
         <v>1.25</v>
       </c>
-      <c r="E109" s="38" t="n">
-        <f aca="false">(B109-C109)*-24-D109</f>
-        <v>5.75</v>
+      <c r="E109" s="38">
+        <f t="shared" si="10"/>
+        <v>5.749999999999984</v>
       </c>
       <c r="F109" s="41"/>
       <c r="G109" s="41" t="s">
@@ -3472,22 +3757,22 @@
       </c>
       <c r="H109" s="41"/>
     </row>
-    <row r="110" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="86" t="s">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="101" t="s">
         <v>112</v>
       </c>
-      <c r="B110" s="44" t="n">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="C110" s="44" t="n">
-        <v>0.694444444444444</v>
-      </c>
-      <c r="D110" s="45" t="n">
+      <c r="B110" s="44">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="C110" s="44">
+        <v>0.69444444444444398</v>
+      </c>
+      <c r="D110" s="45">
         <v>1.25</v>
       </c>
-      <c r="E110" s="38" t="n">
-        <f aca="false">(B110-C110)*-24-D110</f>
-        <v>5.41666666666667</v>
+      <c r="E110" s="38">
+        <f t="shared" si="10"/>
+        <v>5.4166666666666465</v>
       </c>
       <c r="F110" s="41"/>
       <c r="G110" s="41" t="s">
@@ -3495,73 +3780,73 @@
       </c>
       <c r="H110" s="41"/>
     </row>
-    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="86" t="s">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="B111" s="18"/>
-      <c r="C111" s="19"/>
-      <c r="D111" s="87"/>
-      <c r="E111" s="88" t="n">
-        <f aca="false">(B111-C111)*-24-D111</f>
-        <v>-0</v>
-      </c>
-      <c r="F111" s="89"/>
-      <c r="G111" s="90"/>
-      <c r="H111" s="91"/>
-    </row>
-    <row r="112" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="86" t="s">
+      <c r="B111" s="102"/>
+      <c r="C111" s="103"/>
+      <c r="D111" s="104"/>
+      <c r="E111" s="105">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F111" s="106"/>
+      <c r="G111" s="107"/>
+      <c r="H111" s="108"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="101" t="s">
         <v>115</v>
       </c>
-      <c r="B112" s="92" t="n">
+      <c r="B112" s="109">
         <v>0.75</v>
       </c>
-      <c r="C112" s="93" t="n">
-        <v>0.854166666666667</v>
-      </c>
-      <c r="D112" s="94"/>
-      <c r="E112" s="95" t="n">
-        <f aca="false">(B112-C112)*-24-D112</f>
-        <v>2.5</v>
-      </c>
-      <c r="F112" s="96"/>
-      <c r="G112" s="97" t="s">
+      <c r="C112" s="110">
+        <v>0.85416666666666696</v>
+      </c>
+      <c r="D112" s="111"/>
+      <c r="E112" s="112">
+        <f t="shared" si="10"/>
+        <v>2.5000000000000071</v>
+      </c>
+      <c r="F112" s="113"/>
+      <c r="G112" s="114" t="s">
         <v>116</v>
       </c>
-      <c r="H112" s="98"/>
-    </row>
-    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H112" s="115"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="17"/>
       <c r="B113" s="10"/>
       <c r="C113" s="11"/>
       <c r="D113" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E113" s="83" t="n">
-        <f aca="false">SUM(E106:E112)</f>
-        <v>31.25</v>
+      <c r="E113" s="83">
+        <f>SUM(E106:E112)</f>
+        <v>31.24999999999994</v>
       </c>
       <c r="F113" s="14"/>
       <c r="G113" s="15"/>
       <c r="H113" s="16"/>
     </row>
-    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="20"/>
       <c r="B114" s="21"/>
       <c r="C114" s="22"/>
       <c r="D114" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E114" s="53" t="n">
-        <f aca="false">SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
-        <v>196.433333333333</v>
+      <c r="E114" s="53">
+        <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113)</f>
+        <v>196.43333333333317</v>
       </c>
       <c r="F114" s="54"/>
       <c r="G114" s="26"/>
       <c r="H114" s="27"/>
     </row>
-    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="28" t="s">
         <v>3</v>
       </c>
@@ -3587,142 +3872,142 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="86" t="s">
         <v>117</v>
       </c>
       <c r="B116" s="18"/>
       <c r="C116" s="19"/>
       <c r="D116" s="87"/>
-      <c r="E116" s="88" t="n">
-        <f aca="false">(B116-C116)*-24-D116</f>
+      <c r="E116" s="88">
+        <f t="shared" ref="E116:E122" si="11">(B116-C116)*-24-D116</f>
         <v>0</v>
       </c>
       <c r="F116" s="89"/>
       <c r="G116" s="90"/>
       <c r="H116" s="91"/>
     </row>
-    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="86" t="s">
         <v>118</v>
       </c>
       <c r="B117" s="18"/>
       <c r="C117" s="19"/>
       <c r="D117" s="87"/>
-      <c r="E117" s="88" t="n">
-        <f aca="false">(B117-C117)*-24-D117</f>
-        <v>-0</v>
+      <c r="E117" s="88">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="F117" s="89"/>
       <c r="G117" s="90"/>
       <c r="H117" s="91"/>
     </row>
-    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="86" t="s">
         <v>119</v>
       </c>
       <c r="B118" s="18"/>
       <c r="C118" s="19"/>
       <c r="D118" s="87"/>
-      <c r="E118" s="88" t="n">
-        <f aca="false">(B118-C118)*-24-D118</f>
-        <v>-0</v>
+      <c r="E118" s="88">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="F118" s="89"/>
       <c r="G118" s="90"/>
       <c r="H118" s="91"/>
     </row>
-    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="86" t="s">
         <v>120</v>
       </c>
       <c r="B119" s="18"/>
       <c r="C119" s="19"/>
       <c r="D119" s="87"/>
-      <c r="E119" s="88" t="n">
-        <f aca="false">(B119-C119)*-24-D119</f>
-        <v>-0</v>
+      <c r="E119" s="88">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="F119" s="89"/>
       <c r="G119" s="90"/>
       <c r="H119" s="91"/>
     </row>
-    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="86" t="s">
         <v>121</v>
       </c>
       <c r="B120" s="18"/>
       <c r="C120" s="19"/>
       <c r="D120" s="87"/>
-      <c r="E120" s="88" t="n">
-        <f aca="false">(B120-C120)*-24-D120</f>
-        <v>-0</v>
+      <c r="E120" s="88">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="F120" s="89"/>
       <c r="G120" s="90"/>
       <c r="H120" s="91"/>
     </row>
-    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="86" t="s">
         <v>122</v>
       </c>
       <c r="B121" s="18"/>
       <c r="C121" s="19"/>
       <c r="D121" s="87"/>
-      <c r="E121" s="88" t="n">
-        <f aca="false">(B121-C121)*-24-D121</f>
-        <v>-0</v>
+      <c r="E121" s="88">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="F121" s="89"/>
       <c r="G121" s="90"/>
       <c r="H121" s="91"/>
     </row>
-    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="86" t="s">
         <v>123</v>
       </c>
       <c r="B122" s="92"/>
       <c r="C122" s="93"/>
       <c r="D122" s="94"/>
-      <c r="E122" s="95" t="n">
-        <f aca="false">(B122-C122)*-24-D122</f>
-        <v>-0</v>
+      <c r="E122" s="95">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="F122" s="96"/>
       <c r="G122" s="97"/>
       <c r="H122" s="98"/>
     </row>
-    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="17"/>
       <c r="B123" s="10"/>
       <c r="C123" s="11"/>
       <c r="D123" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E123" s="83" t="n">
-        <f aca="false">SUM(E116:E122)</f>
+      <c r="E123" s="83">
+        <f>SUM(E116:E122)</f>
         <v>0</v>
       </c>
       <c r="F123" s="14"/>
       <c r="G123" s="15"/>
       <c r="H123" s="16"/>
     </row>
-    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="20"/>
       <c r="B124" s="21"/>
       <c r="C124" s="22"/>
       <c r="D124" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E124" s="53" t="n">
-        <f aca="false">SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
-        <v>196.433333333333</v>
+      <c r="E124" s="53">
+        <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123)</f>
+        <v>196.43333333333317</v>
       </c>
       <c r="F124" s="54"/>
       <c r="G124" s="26"/>
       <c r="H124" s="27"/>
     </row>
-    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="28" t="s">
         <v>3</v>
       </c>
@@ -3748,142 +4033,142 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="99" t="s">
         <v>124</v>
       </c>
       <c r="B126" s="18"/>
       <c r="C126" s="19"/>
       <c r="D126" s="87"/>
-      <c r="E126" s="88" t="n">
-        <f aca="false">(B126-C126)*-24-D126</f>
+      <c r="E126" s="88">
+        <f t="shared" ref="E126:E132" si="12">(B126-C126)*-24-D126</f>
         <v>0</v>
       </c>
       <c r="F126" s="89"/>
       <c r="G126" s="90"/>
       <c r="H126" s="91"/>
     </row>
-    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="99" t="s">
         <v>125</v>
       </c>
       <c r="B127" s="18"/>
       <c r="C127" s="19"/>
       <c r="D127" s="87"/>
-      <c r="E127" s="88" t="n">
-        <f aca="false">(B127-C127)*-24-D127</f>
-        <v>-0</v>
+      <c r="E127" s="88">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="F127" s="89"/>
       <c r="G127" s="90"/>
       <c r="H127" s="91"/>
     </row>
-    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="99" t="s">
         <v>126</v>
       </c>
       <c r="B128" s="18"/>
       <c r="C128" s="19"/>
       <c r="D128" s="87"/>
-      <c r="E128" s="88" t="n">
-        <f aca="false">(B128-C128)*-24-D128</f>
-        <v>-0</v>
+      <c r="E128" s="88">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="F128" s="89"/>
       <c r="G128" s="90"/>
       <c r="H128" s="91"/>
     </row>
-    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="99" t="s">
         <v>127</v>
       </c>
       <c r="B129" s="18"/>
       <c r="C129" s="19"/>
       <c r="D129" s="87"/>
-      <c r="E129" s="88" t="n">
-        <f aca="false">(B129-C129)*-24-D129</f>
-        <v>-0</v>
+      <c r="E129" s="88">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="F129" s="89"/>
       <c r="G129" s="90"/>
       <c r="H129" s="91"/>
     </row>
-    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="99" t="s">
         <v>128</v>
       </c>
       <c r="B130" s="18"/>
       <c r="C130" s="19"/>
       <c r="D130" s="87"/>
-      <c r="E130" s="88" t="n">
-        <f aca="false">(B130-C130)*-24-D130</f>
-        <v>-0</v>
+      <c r="E130" s="88">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="F130" s="89"/>
       <c r="G130" s="90"/>
       <c r="H130" s="91"/>
     </row>
-    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="99" t="s">
         <v>129</v>
       </c>
       <c r="B131" s="18"/>
       <c r="C131" s="19"/>
       <c r="D131" s="87"/>
-      <c r="E131" s="88" t="n">
-        <f aca="false">(B131-C131)*-24-D131</f>
-        <v>-0</v>
+      <c r="E131" s="88">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="F131" s="89"/>
       <c r="G131" s="90"/>
       <c r="H131" s="91"/>
     </row>
-    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="99" t="s">
         <v>130</v>
       </c>
       <c r="B132" s="92"/>
       <c r="C132" s="93"/>
       <c r="D132" s="94"/>
-      <c r="E132" s="95" t="n">
-        <f aca="false">(B132-C132)*-24-D132</f>
-        <v>-0</v>
+      <c r="E132" s="95">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="F132" s="96"/>
       <c r="G132" s="97"/>
       <c r="H132" s="98"/>
     </row>
-    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="17"/>
       <c r="B133" s="10"/>
       <c r="C133" s="11"/>
       <c r="D133" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E133" s="83" t="n">
-        <f aca="false">SUM(E126:E132)</f>
+      <c r="E133" s="83">
+        <f>SUM(E126:E132)</f>
         <v>0</v>
       </c>
       <c r="F133" s="14"/>
       <c r="G133" s="15"/>
       <c r="H133" s="16"/>
     </row>
-    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="20"/>
       <c r="B134" s="21"/>
       <c r="C134" s="22"/>
       <c r="D134" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E134" s="53" t="n">
-        <f aca="false">SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>196.433333333333</v>
+      <c r="E134" s="53">
+        <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
+        <v>196.43333333333317</v>
       </c>
       <c r="F134" s="54"/>
       <c r="G134" s="26"/>
       <c r="H134" s="27"/>
     </row>
-    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="28" t="s">
         <v>3</v>
       </c>
@@ -3909,142 +4194,142 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="99" t="s">
         <v>131</v>
       </c>
       <c r="B136" s="18"/>
       <c r="C136" s="19"/>
       <c r="D136" s="87"/>
-      <c r="E136" s="88" t="n">
-        <f aca="false">(B136-C136)*-24-D136</f>
+      <c r="E136" s="88">
+        <f t="shared" ref="E136:E142" si="13">(B136-C136)*-24-D136</f>
         <v>0</v>
       </c>
       <c r="F136" s="89"/>
       <c r="G136" s="90"/>
       <c r="H136" s="91"/>
     </row>
-    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="99" t="s">
         <v>132</v>
       </c>
       <c r="B137" s="18"/>
       <c r="C137" s="19"/>
       <c r="D137" s="87"/>
-      <c r="E137" s="88" t="n">
-        <f aca="false">(B137-C137)*-24-D137</f>
-        <v>-0</v>
+      <c r="E137" s="88">
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="F137" s="89"/>
       <c r="G137" s="90"/>
       <c r="H137" s="91"/>
     </row>
-    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="99" t="s">
         <v>133</v>
       </c>
       <c r="B138" s="18"/>
       <c r="C138" s="19"/>
       <c r="D138" s="87"/>
-      <c r="E138" s="88" t="n">
-        <f aca="false">(B138-C138)*-24-D138</f>
-        <v>-0</v>
+      <c r="E138" s="88">
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="F138" s="89"/>
       <c r="G138" s="90"/>
       <c r="H138" s="91"/>
     </row>
-    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="99" t="s">
         <v>134</v>
       </c>
       <c r="B139" s="18"/>
       <c r="C139" s="19"/>
       <c r="D139" s="87"/>
-      <c r="E139" s="88" t="n">
-        <f aca="false">(B139-C139)*-24-D139</f>
-        <v>-0</v>
+      <c r="E139" s="88">
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="F139" s="89"/>
       <c r="G139" s="90"/>
       <c r="H139" s="91"/>
     </row>
-    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="99" t="s">
         <v>135</v>
       </c>
       <c r="B140" s="18"/>
       <c r="C140" s="19"/>
       <c r="D140" s="87"/>
-      <c r="E140" s="88" t="n">
-        <f aca="false">(B140-C140)*-24-D140</f>
-        <v>-0</v>
+      <c r="E140" s="88">
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="F140" s="89"/>
       <c r="G140" s="90"/>
       <c r="H140" s="91"/>
     </row>
-    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="99" t="s">
         <v>136</v>
       </c>
       <c r="B141" s="18"/>
       <c r="C141" s="19"/>
       <c r="D141" s="87"/>
-      <c r="E141" s="88" t="n">
-        <f aca="false">(B141-C141)*-24-D141</f>
-        <v>-0</v>
+      <c r="E141" s="88">
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="F141" s="89"/>
       <c r="G141" s="90"/>
       <c r="H141" s="91"/>
     </row>
-    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="99" t="s">
         <v>137</v>
       </c>
       <c r="B142" s="92"/>
       <c r="C142" s="93"/>
       <c r="D142" s="94"/>
-      <c r="E142" s="95" t="n">
-        <f aca="false">(B142-C142)*-24-D142</f>
-        <v>-0</v>
+      <c r="E142" s="95">
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="F142" s="96"/>
       <c r="G142" s="97"/>
       <c r="H142" s="98"/>
     </row>
-    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="17"/>
       <c r="B143" s="10"/>
       <c r="C143" s="11"/>
       <c r="D143" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E143" s="83" t="n">
-        <f aca="false">SUM(E136:E142)</f>
+      <c r="E143" s="83">
+        <f>SUM(E136:E142)</f>
         <v>0</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="15"/>
       <c r="H143" s="16"/>
     </row>
-    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="20"/>
       <c r="B144" s="21"/>
       <c r="C144" s="22"/>
       <c r="D144" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E144" s="53" t="n">
-        <f aca="false">SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>196.433333333333</v>
+      <c r="E144" s="53">
+        <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
+        <v>196.43333333333317</v>
       </c>
       <c r="F144" s="54"/>
       <c r="G144" s="26"/>
       <c r="H144" s="27"/>
     </row>
-    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="28" t="s">
         <v>3</v>
       </c>
@@ -4070,142 +4355,142 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="99" t="s">
         <v>138</v>
       </c>
       <c r="B146" s="18"/>
       <c r="C146" s="19"/>
       <c r="D146" s="87"/>
-      <c r="E146" s="88" t="n">
-        <f aca="false">(B146-C146)*-24-D146</f>
+      <c r="E146" s="88">
+        <f t="shared" ref="E146:E152" si="14">(B146-C146)*-24-D146</f>
         <v>0</v>
       </c>
       <c r="F146" s="89"/>
       <c r="G146" s="90"/>
       <c r="H146" s="91"/>
     </row>
-    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="99" t="s">
         <v>139</v>
       </c>
       <c r="B147" s="18"/>
       <c r="C147" s="19"/>
       <c r="D147" s="87"/>
-      <c r="E147" s="88" t="n">
-        <f aca="false">(B147-C147)*-24-D147</f>
-        <v>-0</v>
+      <c r="E147" s="88">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="F147" s="89"/>
       <c r="G147" s="90"/>
       <c r="H147" s="91"/>
     </row>
-    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="99" t="s">
         <v>140</v>
       </c>
       <c r="B148" s="18"/>
       <c r="C148" s="19"/>
       <c r="D148" s="87"/>
-      <c r="E148" s="88" t="n">
-        <f aca="false">(B148-C148)*-24-D148</f>
-        <v>-0</v>
+      <c r="E148" s="88">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="F148" s="89"/>
       <c r="G148" s="90"/>
       <c r="H148" s="91"/>
     </row>
-    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="99" t="s">
         <v>141</v>
       </c>
       <c r="B149" s="18"/>
       <c r="C149" s="19"/>
       <c r="D149" s="87"/>
-      <c r="E149" s="88" t="n">
-        <f aca="false">(B149-C149)*-24-D149</f>
-        <v>-0</v>
+      <c r="E149" s="88">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="F149" s="89"/>
       <c r="G149" s="90"/>
       <c r="H149" s="91"/>
     </row>
-    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="99" t="s">
         <v>142</v>
       </c>
       <c r="B150" s="18"/>
       <c r="C150" s="19"/>
       <c r="D150" s="87"/>
-      <c r="E150" s="88" t="n">
-        <f aca="false">(B150-C150)*-24-D150</f>
-        <v>-0</v>
+      <c r="E150" s="88">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="F150" s="89"/>
       <c r="G150" s="90"/>
       <c r="H150" s="91"/>
     </row>
-    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="99" t="s">
         <v>143</v>
       </c>
       <c r="B151" s="18"/>
       <c r="C151" s="19"/>
       <c r="D151" s="87"/>
-      <c r="E151" s="88" t="n">
-        <f aca="false">(B151-C151)*-24-D151</f>
-        <v>-0</v>
+      <c r="E151" s="88">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="F151" s="89"/>
       <c r="G151" s="90"/>
       <c r="H151" s="91"/>
     </row>
-    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="99" t="s">
         <v>144</v>
       </c>
       <c r="B152" s="92"/>
       <c r="C152" s="93"/>
       <c r="D152" s="94"/>
-      <c r="E152" s="95" t="n">
-        <f aca="false">(B152-C152)*-24-D152</f>
-        <v>-0</v>
+      <c r="E152" s="95">
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="F152" s="96"/>
       <c r="G152" s="97"/>
       <c r="H152" s="98"/>
     </row>
-    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="17"/>
       <c r="B153" s="10"/>
       <c r="C153" s="11"/>
       <c r="D153" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E153" s="83" t="n">
-        <f aca="false">SUM(E146:E152)</f>
+      <c r="E153" s="83">
+        <f>SUM(E146:E152)</f>
         <v>0</v>
       </c>
       <c r="F153" s="14"/>
       <c r="G153" s="15"/>
       <c r="H153" s="16"/>
     </row>
-    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="20"/>
       <c r="B154" s="21"/>
       <c r="C154" s="22"/>
       <c r="D154" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E154" s="53" t="n">
-        <f aca="false">SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>196.433333333333</v>
+      <c r="E154" s="53">
+        <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
+        <v>196.43333333333317</v>
       </c>
       <c r="F154" s="54"/>
       <c r="G154" s="26"/>
       <c r="H154" s="27"/>
     </row>
-    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="28" t="s">
         <v>3</v>
       </c>
@@ -4231,141 +4516,141 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="99" t="s">
         <v>145</v>
       </c>
       <c r="B156" s="18"/>
       <c r="C156" s="19"/>
       <c r="D156" s="87"/>
-      <c r="E156" s="88" t="n">
-        <f aca="false">(B156-C156)*-24-D156</f>
+      <c r="E156" s="88">
+        <f t="shared" ref="E156:E161" si="15">(B156-C156)*-24-D156</f>
         <v>0</v>
       </c>
       <c r="F156" s="89"/>
       <c r="G156" s="90"/>
       <c r="H156" s="91"/>
     </row>
-    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="99" t="s">
         <v>146</v>
       </c>
       <c r="B157" s="18"/>
       <c r="C157" s="19"/>
       <c r="D157" s="87"/>
-      <c r="E157" s="88" t="n">
-        <f aca="false">(B157-C157)*-24-D157</f>
-        <v>-0</v>
+      <c r="E157" s="88">
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="F157" s="89"/>
       <c r="G157" s="90"/>
       <c r="H157" s="91"/>
     </row>
-    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="99" t="s">
         <v>147</v>
       </c>
       <c r="B158" s="18"/>
       <c r="C158" s="19"/>
       <c r="D158" s="87"/>
-      <c r="E158" s="88" t="n">
-        <f aca="false">(B158-C158)*-24-D158</f>
-        <v>-0</v>
+      <c r="E158" s="88">
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="F158" s="89"/>
       <c r="G158" s="90"/>
       <c r="H158" s="91"/>
     </row>
-    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="99" t="s">
         <v>148</v>
       </c>
       <c r="B159" s="18"/>
       <c r="C159" s="19"/>
       <c r="D159" s="87"/>
-      <c r="E159" s="88" t="n">
-        <f aca="false">(B159-C159)*-24-D159</f>
-        <v>-0</v>
+      <c r="E159" s="88">
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="F159" s="89"/>
       <c r="G159" s="90"/>
       <c r="H159" s="91"/>
     </row>
-    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="99" t="s">
         <v>149</v>
       </c>
       <c r="B160" s="18"/>
       <c r="C160" s="19"/>
       <c r="D160" s="87"/>
-      <c r="E160" s="88" t="n">
-        <f aca="false">(B160-C160)*-24-D160</f>
-        <v>-0</v>
+      <c r="E160" s="88">
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="F160" s="89"/>
       <c r="G160" s="90"/>
       <c r="H160" s="91"/>
     </row>
-    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="99" t="s">
         <v>150</v>
       </c>
       <c r="B161" s="18"/>
       <c r="C161" s="19"/>
       <c r="D161" s="87"/>
-      <c r="E161" s="88" t="n">
-        <f aca="false">(B161-C161)*-24-D161</f>
-        <v>-0</v>
+      <c r="E161" s="88">
+        <f t="shared" si="15"/>
+        <v>0</v>
       </c>
       <c r="F161" s="89"/>
       <c r="G161" s="90"/>
       <c r="H161" s="91"/>
     </row>
-    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="99" t="s">
         <v>151</v>
       </c>
       <c r="B162" s="92"/>
       <c r="C162" s="93"/>
       <c r="D162" s="94"/>
-      <c r="E162" s="100" t="n">
+      <c r="E162" s="100">
         <v>0</v>
       </c>
       <c r="F162" s="96"/>
       <c r="G162" s="97"/>
       <c r="H162" s="98"/>
     </row>
-    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="17"/>
       <c r="B163" s="10"/>
       <c r="C163" s="11"/>
       <c r="D163" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E163" s="83" t="n">
-        <f aca="false">SUM(E156:E162)</f>
+      <c r="E163" s="83">
+        <f>SUM(E156:E162)</f>
         <v>0</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="15"/>
       <c r="H163" s="16"/>
     </row>
-    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="20"/>
       <c r="B164" s="21"/>
       <c r="C164" s="22"/>
       <c r="D164" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E164" s="53" t="n">
-        <f aca="false">SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>196.433333333333</v>
+      <c r="E164" s="53">
+        <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
+        <v>196.43333333333317</v>
       </c>
       <c r="F164" s="54"/>
       <c r="G164" s="26"/>
       <c r="H164" s="27"/>
     </row>
-    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="28" t="s">
         <v>3</v>
       </c>
@@ -4391,142 +4676,142 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="99" t="s">
         <v>152</v>
       </c>
       <c r="B166" s="18"/>
       <c r="C166" s="19"/>
       <c r="D166" s="87"/>
-      <c r="E166" s="88" t="n">
-        <f aca="false">(B166-C166)*-24-D166</f>
+      <c r="E166" s="88">
+        <f t="shared" ref="E166:E172" si="16">(B166-C166)*-24-D166</f>
         <v>0</v>
       </c>
       <c r="F166" s="89"/>
       <c r="G166" s="90"/>
       <c r="H166" s="91"/>
     </row>
-    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="99" t="s">
         <v>153</v>
       </c>
       <c r="B167" s="18"/>
       <c r="C167" s="19"/>
       <c r="D167" s="87"/>
-      <c r="E167" s="88" t="n">
-        <f aca="false">(B167-C167)*-24-D167</f>
-        <v>-0</v>
+      <c r="E167" s="88">
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="F167" s="89"/>
       <c r="G167" s="90"/>
       <c r="H167" s="91"/>
     </row>
-    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="99" t="s">
         <v>154</v>
       </c>
       <c r="B168" s="18"/>
       <c r="C168" s="19"/>
       <c r="D168" s="87"/>
-      <c r="E168" s="88" t="n">
-        <f aca="false">(B168-C168)*-24-D168</f>
-        <v>-0</v>
+      <c r="E168" s="88">
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="F168" s="89"/>
       <c r="G168" s="90"/>
       <c r="H168" s="91"/>
     </row>
-    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="99" t="s">
         <v>155</v>
       </c>
       <c r="B169" s="18"/>
       <c r="C169" s="19"/>
       <c r="D169" s="87"/>
-      <c r="E169" s="88" t="n">
-        <f aca="false">(B169-C169)*-24-D169</f>
-        <v>-0</v>
+      <c r="E169" s="88">
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="F169" s="89"/>
       <c r="G169" s="90"/>
       <c r="H169" s="91"/>
     </row>
-    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="99" t="s">
         <v>156</v>
       </c>
       <c r="B170" s="18"/>
       <c r="C170" s="19"/>
       <c r="D170" s="87"/>
-      <c r="E170" s="88" t="n">
-        <f aca="false">(B170-C170)*-24-D170</f>
-        <v>-0</v>
+      <c r="E170" s="88">
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="F170" s="89"/>
       <c r="G170" s="90"/>
       <c r="H170" s="91"/>
     </row>
-    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="99" t="s">
         <v>157</v>
       </c>
       <c r="B171" s="18"/>
       <c r="C171" s="19"/>
       <c r="D171" s="87"/>
-      <c r="E171" s="88" t="n">
-        <f aca="false">(B171-C171)*-24-D171</f>
-        <v>-0</v>
+      <c r="E171" s="88">
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="F171" s="89"/>
       <c r="G171" s="90"/>
       <c r="H171" s="91"/>
     </row>
-    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="99" t="s">
         <v>158</v>
       </c>
       <c r="B172" s="92"/>
       <c r="C172" s="93"/>
       <c r="D172" s="94"/>
-      <c r="E172" s="95" t="n">
-        <f aca="false">(B172-C172)*-24-D172</f>
-        <v>-0</v>
+      <c r="E172" s="95">
+        <f t="shared" si="16"/>
+        <v>0</v>
       </c>
       <c r="F172" s="96"/>
       <c r="G172" s="97"/>
       <c r="H172" s="98"/>
     </row>
-    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="17"/>
       <c r="B173" s="10"/>
       <c r="C173" s="11"/>
       <c r="D173" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E173" s="83" t="n">
-        <f aca="false">SUM(E166:E172)</f>
+      <c r="E173" s="83">
+        <f>SUM(E166:E172)</f>
         <v>0</v>
       </c>
       <c r="F173" s="14"/>
       <c r="G173" s="15"/>
       <c r="H173" s="16"/>
     </row>
-    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="20"/>
       <c r="B174" s="21"/>
       <c r="C174" s="22"/>
       <c r="D174" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E174" s="53" t="n">
-        <f aca="false">SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>196.433333333333</v>
+      <c r="E174" s="53">
+        <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
+        <v>196.43333333333317</v>
       </c>
       <c r="F174" s="54"/>
       <c r="G174" s="26"/>
       <c r="H174" s="27"/>
     </row>
-    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="28" t="s">
         <v>3</v>
       </c>
@@ -4552,148 +4837,143 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="99" t="s">
         <v>159</v>
       </c>
       <c r="B176" s="18"/>
       <c r="C176" s="19"/>
       <c r="D176" s="87"/>
-      <c r="E176" s="88" t="n">
-        <f aca="false">(B176-C176)*-24-D176</f>
+      <c r="E176" s="88">
+        <f t="shared" ref="E176:E182" si="17">(B176-C176)*-24-D176</f>
         <v>0</v>
       </c>
       <c r="F176" s="89"/>
       <c r="G176" s="90"/>
       <c r="H176" s="91"/>
     </row>
-    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="99" t="s">
         <v>160</v>
       </c>
       <c r="B177" s="18"/>
       <c r="C177" s="19"/>
       <c r="D177" s="87"/>
-      <c r="E177" s="88" t="n">
-        <f aca="false">(B177-C177)*-24-D177</f>
-        <v>-0</v>
+      <c r="E177" s="88">
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="F177" s="89"/>
       <c r="G177" s="90"/>
       <c r="H177" s="91"/>
     </row>
-    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="99" t="s">
         <v>161</v>
       </c>
       <c r="B178" s="18"/>
       <c r="C178" s="19"/>
       <c r="D178" s="87"/>
-      <c r="E178" s="88" t="n">
-        <f aca="false">(B178-C178)*-24-D178</f>
-        <v>-0</v>
+      <c r="E178" s="88">
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="F178" s="89"/>
       <c r="G178" s="90"/>
       <c r="H178" s="91"/>
     </row>
-    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="99" t="s">
         <v>162</v>
       </c>
       <c r="B179" s="18"/>
       <c r="C179" s="19"/>
       <c r="D179" s="87"/>
-      <c r="E179" s="88" t="n">
-        <f aca="false">(B179-C179)*-24-D179</f>
-        <v>-0</v>
+      <c r="E179" s="88">
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="F179" s="89"/>
       <c r="G179" s="90"/>
       <c r="H179" s="91"/>
     </row>
-    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="99" t="s">
         <v>163</v>
       </c>
       <c r="B180" s="18"/>
       <c r="C180" s="19"/>
       <c r="D180" s="87"/>
-      <c r="E180" s="88" t="n">
-        <f aca="false">(B180-C180)*-24-D180</f>
-        <v>-0</v>
+      <c r="E180" s="88">
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="F180" s="89"/>
       <c r="G180" s="90"/>
       <c r="H180" s="91"/>
     </row>
-    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="99" t="s">
         <v>164</v>
       </c>
       <c r="B181" s="18"/>
       <c r="C181" s="19"/>
       <c r="D181" s="87"/>
-      <c r="E181" s="88" t="n">
-        <f aca="false">(B181-C181)*-24-D181</f>
-        <v>-0</v>
+      <c r="E181" s="88">
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="F181" s="89"/>
       <c r="G181" s="90"/>
       <c r="H181" s="91"/>
     </row>
-    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="99" t="s">
         <v>165</v>
       </c>
       <c r="B182" s="92"/>
       <c r="C182" s="93"/>
       <c r="D182" s="94"/>
-      <c r="E182" s="95" t="n">
-        <f aca="false">(B182-C182)*-24-D182</f>
-        <v>-0</v>
+      <c r="E182" s="95">
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="F182" s="96"/>
       <c r="G182" s="97"/>
       <c r="H182" s="98"/>
     </row>
-    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="17"/>
       <c r="B183" s="10"/>
       <c r="C183" s="11"/>
       <c r="D183" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E183" s="83" t="n">
-        <f aca="false">SUM(E176:E182)</f>
+      <c r="E183" s="83">
+        <f>SUM(E176:E182)</f>
         <v>0</v>
       </c>
       <c r="F183" s="14"/>
       <c r="G183" s="15"/>
       <c r="H183" s="16"/>
     </row>
-    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="17"/>
       <c r="B184" s="10"/>
       <c r="C184" s="11"/>
       <c r="D184" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E184" s="83" t="n">
-        <f aca="false">SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>196.433333333333</v>
+      <c r="E184" s="83">
+        <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
+        <v>196.43333333333317</v>
       </c>
       <c r="F184" s="14"/>
       <c r="G184" s="15"/>
       <c r="H184" s="16"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/_WIP/Lou/Lou-Zeiterfassung.xlsx
+++ b/_WIP/Lou/Lou-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="166">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -1112,9 +1112,6 @@
     <xf numFmtId="2" fontId="3" fillId="10" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1201,6 +1198,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1579,7 +1579,7 @@
   <dimension ref="A1:P184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O100" sqref="O100"/>
+      <selection activeCell="H127" sqref="H127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3578,7 +3578,7 @@
       <c r="H100" s="45"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="101" t="s">
+      <c r="A101" s="100" t="s">
         <v>104</v>
       </c>
       <c r="B101" s="44"/>
@@ -3593,7 +3593,7 @@
       <c r="H101" s="45"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="101" t="s">
+      <c r="A102" s="100" t="s">
         <v>105</v>
       </c>
       <c r="B102" s="44"/>
@@ -3664,7 +3664,7 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="101" t="s">
+      <c r="A106" s="100" t="s">
         <v>106</v>
       </c>
       <c r="B106" s="44">
@@ -3689,7 +3689,7 @@
       <c r="H106" s="41"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="101" t="s">
+      <c r="A107" s="100" t="s">
         <v>109</v>
       </c>
       <c r="B107" s="44">
@@ -3712,7 +3712,7 @@
       <c r="H107" s="41"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="101" t="s">
+      <c r="A108" s="100" t="s">
         <v>110</v>
       </c>
       <c r="B108" s="44">
@@ -3735,7 +3735,7 @@
       <c r="H108" s="41"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="101" t="s">
+      <c r="A109" s="100" t="s">
         <v>111</v>
       </c>
       <c r="B109" s="44">
@@ -3758,7 +3758,7 @@
       <c r="H109" s="41"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="101" t="s">
+      <c r="A110" s="100" t="s">
         <v>112</v>
       </c>
       <c r="B110" s="44">
@@ -3781,40 +3781,40 @@
       <c r="H110" s="41"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="101" t="s">
+      <c r="A111" s="100" t="s">
         <v>114</v>
       </c>
-      <c r="B111" s="102"/>
-      <c r="C111" s="103"/>
-      <c r="D111" s="104"/>
-      <c r="E111" s="105">
+      <c r="B111" s="101"/>
+      <c r="C111" s="102"/>
+      <c r="D111" s="103"/>
+      <c r="E111" s="104">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F111" s="106"/>
-      <c r="G111" s="107"/>
-      <c r="H111" s="108"/>
+      <c r="F111" s="105"/>
+      <c r="G111" s="106"/>
+      <c r="H111" s="107"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="101" t="s">
+      <c r="A112" s="100" t="s">
         <v>115</v>
       </c>
-      <c r="B112" s="109">
+      <c r="B112" s="108">
         <v>0.75</v>
       </c>
-      <c r="C112" s="110">
+      <c r="C112" s="109">
         <v>0.85416666666666696</v>
       </c>
-      <c r="D112" s="111"/>
-      <c r="E112" s="112">
+      <c r="D112" s="110"/>
+      <c r="E112" s="111">
         <f t="shared" si="10"/>
         <v>2.5000000000000071</v>
       </c>
-      <c r="F112" s="113"/>
-      <c r="G112" s="114" t="s">
+      <c r="F112" s="112"/>
+      <c r="G112" s="113" t="s">
         <v>116</v>
       </c>
-      <c r="H112" s="115"/>
+      <c r="H112" s="114"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="17"/>
@@ -3873,109 +3873,109 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="86" t="s">
+      <c r="A116" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="B116" s="18"/>
-      <c r="C116" s="19"/>
-      <c r="D116" s="87"/>
-      <c r="E116" s="88">
+      <c r="B116" s="101"/>
+      <c r="C116" s="102"/>
+      <c r="D116" s="103"/>
+      <c r="E116" s="104">
         <f t="shared" ref="E116:E122" si="11">(B116-C116)*-24-D116</f>
         <v>0</v>
       </c>
-      <c r="F116" s="89"/>
-      <c r="G116" s="90"/>
-      <c r="H116" s="91"/>
+      <c r="F116" s="105"/>
+      <c r="G116" s="106"/>
+      <c r="H116" s="107"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="86" t="s">
+      <c r="A117" s="100" t="s">
         <v>118</v>
       </c>
-      <c r="B117" s="18"/>
-      <c r="C117" s="19"/>
-      <c r="D117" s="87"/>
-      <c r="E117" s="88">
+      <c r="B117" s="101"/>
+      <c r="C117" s="102"/>
+      <c r="D117" s="103"/>
+      <c r="E117" s="104">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F117" s="89"/>
-      <c r="G117" s="90"/>
-      <c r="H117" s="91"/>
+      <c r="F117" s="105"/>
+      <c r="G117" s="106"/>
+      <c r="H117" s="107"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="86" t="s">
+      <c r="A118" s="100" t="s">
         <v>119</v>
       </c>
-      <c r="B118" s="18"/>
-      <c r="C118" s="19"/>
-      <c r="D118" s="87"/>
-      <c r="E118" s="88">
+      <c r="B118" s="101"/>
+      <c r="C118" s="102"/>
+      <c r="D118" s="103"/>
+      <c r="E118" s="104">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F118" s="89"/>
-      <c r="G118" s="90"/>
-      <c r="H118" s="91"/>
+      <c r="F118" s="105"/>
+      <c r="G118" s="106"/>
+      <c r="H118" s="107"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="86" t="s">
+      <c r="A119" s="100" t="s">
         <v>120</v>
       </c>
-      <c r="B119" s="18"/>
-      <c r="C119" s="19"/>
-      <c r="D119" s="87"/>
-      <c r="E119" s="88">
+      <c r="B119" s="101"/>
+      <c r="C119" s="102"/>
+      <c r="D119" s="103"/>
+      <c r="E119" s="104">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F119" s="89"/>
-      <c r="G119" s="90"/>
-      <c r="H119" s="91"/>
+      <c r="F119" s="105"/>
+      <c r="G119" s="106"/>
+      <c r="H119" s="107"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="86" t="s">
+      <c r="A120" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="B120" s="18"/>
-      <c r="C120" s="19"/>
-      <c r="D120" s="87"/>
-      <c r="E120" s="88">
+      <c r="B120" s="101"/>
+      <c r="C120" s="102"/>
+      <c r="D120" s="103"/>
+      <c r="E120" s="104">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F120" s="89"/>
-      <c r="G120" s="90"/>
-      <c r="H120" s="91"/>
+      <c r="F120" s="105"/>
+      <c r="G120" s="106"/>
+      <c r="H120" s="107"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="86" t="s">
+      <c r="A121" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="B121" s="18"/>
-      <c r="C121" s="19"/>
-      <c r="D121" s="87"/>
-      <c r="E121" s="88">
+      <c r="B121" s="101"/>
+      <c r="C121" s="102"/>
+      <c r="D121" s="103"/>
+      <c r="E121" s="104">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F121" s="89"/>
-      <c r="G121" s="90"/>
-      <c r="H121" s="91"/>
+      <c r="F121" s="105"/>
+      <c r="G121" s="106"/>
+      <c r="H121" s="107"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="86" t="s">
+      <c r="A122" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="B122" s="92"/>
-      <c r="C122" s="93"/>
-      <c r="D122" s="94"/>
-      <c r="E122" s="95">
+      <c r="B122" s="108"/>
+      <c r="C122" s="109"/>
+      <c r="D122" s="110"/>
+      <c r="E122" s="111">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F122" s="96"/>
-      <c r="G122" s="97"/>
-      <c r="H122" s="98"/>
+      <c r="F122" s="112"/>
+      <c r="G122" s="113"/>
+      <c r="H122" s="114"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="17"/>
@@ -4034,109 +4034,117 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="99" t="s">
+      <c r="A126" s="115" t="s">
         <v>124</v>
       </c>
-      <c r="B126" s="18"/>
-      <c r="C126" s="19"/>
-      <c r="D126" s="87"/>
-      <c r="E126" s="88">
+      <c r="B126" s="101">
+        <v>0.40625</v>
+      </c>
+      <c r="C126" s="102">
+        <v>0.74652777777777779</v>
+      </c>
+      <c r="D126" s="103">
+        <v>1.5</v>
+      </c>
+      <c r="E126" s="104">
         <f t="shared" ref="E126:E132" si="12">(B126-C126)*-24-D126</f>
-        <v>0</v>
-      </c>
-      <c r="F126" s="89"/>
-      <c r="G126" s="90"/>
-      <c r="H126" s="91"/>
+        <v>6.6666666666666679</v>
+      </c>
+      <c r="F126" s="105"/>
+      <c r="G126" s="106"/>
+      <c r="H126" s="107" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="99" t="s">
+      <c r="A127" s="98" t="s">
         <v>125</v>
       </c>
       <c r="B127" s="18"/>
       <c r="C127" s="19"/>
-      <c r="D127" s="87"/>
-      <c r="E127" s="88">
+      <c r="D127" s="86"/>
+      <c r="E127" s="87">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F127" s="89"/>
-      <c r="G127" s="90"/>
-      <c r="H127" s="91"/>
+      <c r="F127" s="88"/>
+      <c r="G127" s="89"/>
+      <c r="H127" s="90"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="99" t="s">
+      <c r="A128" s="98" t="s">
         <v>126</v>
       </c>
       <c r="B128" s="18"/>
       <c r="C128" s="19"/>
-      <c r="D128" s="87"/>
-      <c r="E128" s="88">
+      <c r="D128" s="86"/>
+      <c r="E128" s="87">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F128" s="89"/>
-      <c r="G128" s="90"/>
-      <c r="H128" s="91"/>
+      <c r="F128" s="88"/>
+      <c r="G128" s="89"/>
+      <c r="H128" s="90"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="99" t="s">
+      <c r="A129" s="98" t="s">
         <v>127</v>
       </c>
       <c r="B129" s="18"/>
       <c r="C129" s="19"/>
-      <c r="D129" s="87"/>
-      <c r="E129" s="88">
+      <c r="D129" s="86"/>
+      <c r="E129" s="87">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F129" s="89"/>
-      <c r="G129" s="90"/>
-      <c r="H129" s="91"/>
+      <c r="F129" s="88"/>
+      <c r="G129" s="89"/>
+      <c r="H129" s="90"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="99" t="s">
+      <c r="A130" s="98" t="s">
         <v>128</v>
       </c>
       <c r="B130" s="18"/>
       <c r="C130" s="19"/>
-      <c r="D130" s="87"/>
-      <c r="E130" s="88">
+      <c r="D130" s="86"/>
+      <c r="E130" s="87">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F130" s="89"/>
-      <c r="G130" s="90"/>
-      <c r="H130" s="91"/>
+      <c r="F130" s="88"/>
+      <c r="G130" s="89"/>
+      <c r="H130" s="90"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="99" t="s">
+      <c r="A131" s="98" t="s">
         <v>129</v>
       </c>
       <c r="B131" s="18"/>
       <c r="C131" s="19"/>
-      <c r="D131" s="87"/>
-      <c r="E131" s="88">
+      <c r="D131" s="86"/>
+      <c r="E131" s="87">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F131" s="89"/>
-      <c r="G131" s="90"/>
-      <c r="H131" s="91"/>
+      <c r="F131" s="88"/>
+      <c r="G131" s="89"/>
+      <c r="H131" s="90"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="99" t="s">
+      <c r="A132" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="B132" s="92"/>
-      <c r="C132" s="93"/>
-      <c r="D132" s="94"/>
-      <c r="E132" s="95">
+      <c r="B132" s="91"/>
+      <c r="C132" s="92"/>
+      <c r="D132" s="93"/>
+      <c r="E132" s="94">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F132" s="96"/>
-      <c r="G132" s="97"/>
-      <c r="H132" s="98"/>
+      <c r="F132" s="95"/>
+      <c r="G132" s="96"/>
+      <c r="H132" s="97"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="17"/>
@@ -4147,7 +4155,7 @@
       </c>
       <c r="E133" s="83">
         <f>SUM(E126:E132)</f>
-        <v>0</v>
+        <v>6.6666666666666679</v>
       </c>
       <c r="F133" s="14"/>
       <c r="G133" s="15"/>
@@ -4162,7 +4170,7 @@
       </c>
       <c r="E134" s="53">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>196.43333333333317</v>
+        <v>203.09999999999982</v>
       </c>
       <c r="F134" s="54"/>
       <c r="G134" s="26"/>
@@ -4195,109 +4203,109 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="99" t="s">
+      <c r="A136" s="98" t="s">
         <v>131</v>
       </c>
       <c r="B136" s="18"/>
       <c r="C136" s="19"/>
-      <c r="D136" s="87"/>
-      <c r="E136" s="88">
+      <c r="D136" s="86"/>
+      <c r="E136" s="87">
         <f t="shared" ref="E136:E142" si="13">(B136-C136)*-24-D136</f>
         <v>0</v>
       </c>
-      <c r="F136" s="89"/>
-      <c r="G136" s="90"/>
-      <c r="H136" s="91"/>
+      <c r="F136" s="88"/>
+      <c r="G136" s="89"/>
+      <c r="H136" s="90"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="99" t="s">
+      <c r="A137" s="98" t="s">
         <v>132</v>
       </c>
       <c r="B137" s="18"/>
       <c r="C137" s="19"/>
-      <c r="D137" s="87"/>
-      <c r="E137" s="88">
+      <c r="D137" s="86"/>
+      <c r="E137" s="87">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F137" s="89"/>
-      <c r="G137" s="90"/>
-      <c r="H137" s="91"/>
+      <c r="F137" s="88"/>
+      <c r="G137" s="89"/>
+      <c r="H137" s="90"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="99" t="s">
+      <c r="A138" s="98" t="s">
         <v>133</v>
       </c>
       <c r="B138" s="18"/>
       <c r="C138" s="19"/>
-      <c r="D138" s="87"/>
-      <c r="E138" s="88">
+      <c r="D138" s="86"/>
+      <c r="E138" s="87">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F138" s="89"/>
-      <c r="G138" s="90"/>
-      <c r="H138" s="91"/>
+      <c r="F138" s="88"/>
+      <c r="G138" s="89"/>
+      <c r="H138" s="90"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="99" t="s">
+      <c r="A139" s="98" t="s">
         <v>134</v>
       </c>
       <c r="B139" s="18"/>
       <c r="C139" s="19"/>
-      <c r="D139" s="87"/>
-      <c r="E139" s="88">
+      <c r="D139" s="86"/>
+      <c r="E139" s="87">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F139" s="89"/>
-      <c r="G139" s="90"/>
-      <c r="H139" s="91"/>
+      <c r="F139" s="88"/>
+      <c r="G139" s="89"/>
+      <c r="H139" s="90"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="99" t="s">
+      <c r="A140" s="98" t="s">
         <v>135</v>
       </c>
       <c r="B140" s="18"/>
       <c r="C140" s="19"/>
-      <c r="D140" s="87"/>
-      <c r="E140" s="88">
+      <c r="D140" s="86"/>
+      <c r="E140" s="87">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F140" s="89"/>
-      <c r="G140" s="90"/>
-      <c r="H140" s="91"/>
+      <c r="F140" s="88"/>
+      <c r="G140" s="89"/>
+      <c r="H140" s="90"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="99" t="s">
+      <c r="A141" s="98" t="s">
         <v>136</v>
       </c>
       <c r="B141" s="18"/>
       <c r="C141" s="19"/>
-      <c r="D141" s="87"/>
-      <c r="E141" s="88">
+      <c r="D141" s="86"/>
+      <c r="E141" s="87">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F141" s="89"/>
-      <c r="G141" s="90"/>
-      <c r="H141" s="91"/>
+      <c r="F141" s="88"/>
+      <c r="G141" s="89"/>
+      <c r="H141" s="90"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="99" t="s">
+      <c r="A142" s="98" t="s">
         <v>137</v>
       </c>
-      <c r="B142" s="92"/>
-      <c r="C142" s="93"/>
-      <c r="D142" s="94"/>
-      <c r="E142" s="95">
+      <c r="B142" s="91"/>
+      <c r="C142" s="92"/>
+      <c r="D142" s="93"/>
+      <c r="E142" s="94">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F142" s="96"/>
-      <c r="G142" s="97"/>
-      <c r="H142" s="98"/>
+      <c r="F142" s="95"/>
+      <c r="G142" s="96"/>
+      <c r="H142" s="97"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="17"/>
@@ -4323,7 +4331,7 @@
       </c>
       <c r="E144" s="53">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>196.43333333333317</v>
+        <v>203.09999999999982</v>
       </c>
       <c r="F144" s="54"/>
       <c r="G144" s="26"/>
@@ -4356,109 +4364,109 @@
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="99" t="s">
+      <c r="A146" s="98" t="s">
         <v>138</v>
       </c>
       <c r="B146" s="18"/>
       <c r="C146" s="19"/>
-      <c r="D146" s="87"/>
-      <c r="E146" s="88">
+      <c r="D146" s="86"/>
+      <c r="E146" s="87">
         <f t="shared" ref="E146:E152" si="14">(B146-C146)*-24-D146</f>
         <v>0</v>
       </c>
-      <c r="F146" s="89"/>
-      <c r="G146" s="90"/>
-      <c r="H146" s="91"/>
+      <c r="F146" s="88"/>
+      <c r="G146" s="89"/>
+      <c r="H146" s="90"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="99" t="s">
+      <c r="A147" s="98" t="s">
         <v>139</v>
       </c>
       <c r="B147" s="18"/>
       <c r="C147" s="19"/>
-      <c r="D147" s="87"/>
-      <c r="E147" s="88">
+      <c r="D147" s="86"/>
+      <c r="E147" s="87">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F147" s="89"/>
-      <c r="G147" s="90"/>
-      <c r="H147" s="91"/>
+      <c r="F147" s="88"/>
+      <c r="G147" s="89"/>
+      <c r="H147" s="90"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="99" t="s">
+      <c r="A148" s="98" t="s">
         <v>140</v>
       </c>
       <c r="B148" s="18"/>
       <c r="C148" s="19"/>
-      <c r="D148" s="87"/>
-      <c r="E148" s="88">
+      <c r="D148" s="86"/>
+      <c r="E148" s="87">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F148" s="89"/>
-      <c r="G148" s="90"/>
-      <c r="H148" s="91"/>
+      <c r="F148" s="88"/>
+      <c r="G148" s="89"/>
+      <c r="H148" s="90"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="99" t="s">
+      <c r="A149" s="98" t="s">
         <v>141</v>
       </c>
       <c r="B149" s="18"/>
       <c r="C149" s="19"/>
-      <c r="D149" s="87"/>
-      <c r="E149" s="88">
+      <c r="D149" s="86"/>
+      <c r="E149" s="87">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F149" s="89"/>
-      <c r="G149" s="90"/>
-      <c r="H149" s="91"/>
+      <c r="F149" s="88"/>
+      <c r="G149" s="89"/>
+      <c r="H149" s="90"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="99" t="s">
+      <c r="A150" s="98" t="s">
         <v>142</v>
       </c>
       <c r="B150" s="18"/>
       <c r="C150" s="19"/>
-      <c r="D150" s="87"/>
-      <c r="E150" s="88">
+      <c r="D150" s="86"/>
+      <c r="E150" s="87">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F150" s="89"/>
-      <c r="G150" s="90"/>
-      <c r="H150" s="91"/>
+      <c r="F150" s="88"/>
+      <c r="G150" s="89"/>
+      <c r="H150" s="90"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="99" t="s">
+      <c r="A151" s="98" t="s">
         <v>143</v>
       </c>
       <c r="B151" s="18"/>
       <c r="C151" s="19"/>
-      <c r="D151" s="87"/>
-      <c r="E151" s="88">
+      <c r="D151" s="86"/>
+      <c r="E151" s="87">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F151" s="89"/>
-      <c r="G151" s="90"/>
-      <c r="H151" s="91"/>
+      <c r="F151" s="88"/>
+      <c r="G151" s="89"/>
+      <c r="H151" s="90"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="99" t="s">
+      <c r="A152" s="98" t="s">
         <v>144</v>
       </c>
-      <c r="B152" s="92"/>
-      <c r="C152" s="93"/>
-      <c r="D152" s="94"/>
-      <c r="E152" s="95">
+      <c r="B152" s="91"/>
+      <c r="C152" s="92"/>
+      <c r="D152" s="93"/>
+      <c r="E152" s="94">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F152" s="96"/>
-      <c r="G152" s="97"/>
-      <c r="H152" s="98"/>
+      <c r="F152" s="95"/>
+      <c r="G152" s="96"/>
+      <c r="H152" s="97"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="17"/>
@@ -4484,7 +4492,7 @@
       </c>
       <c r="E154" s="53">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>196.43333333333317</v>
+        <v>203.09999999999982</v>
       </c>
       <c r="F154" s="54"/>
       <c r="G154" s="26"/>
@@ -4517,108 +4525,108 @@
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="99" t="s">
+      <c r="A156" s="98" t="s">
         <v>145</v>
       </c>
       <c r="B156" s="18"/>
       <c r="C156" s="19"/>
-      <c r="D156" s="87"/>
-      <c r="E156" s="88">
+      <c r="D156" s="86"/>
+      <c r="E156" s="87">
         <f t="shared" ref="E156:E161" si="15">(B156-C156)*-24-D156</f>
         <v>0</v>
       </c>
-      <c r="F156" s="89"/>
-      <c r="G156" s="90"/>
-      <c r="H156" s="91"/>
+      <c r="F156" s="88"/>
+      <c r="G156" s="89"/>
+      <c r="H156" s="90"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="99" t="s">
+      <c r="A157" s="98" t="s">
         <v>146</v>
       </c>
       <c r="B157" s="18"/>
       <c r="C157" s="19"/>
-      <c r="D157" s="87"/>
-      <c r="E157" s="88">
+      <c r="D157" s="86"/>
+      <c r="E157" s="87">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F157" s="89"/>
-      <c r="G157" s="90"/>
-      <c r="H157" s="91"/>
+      <c r="F157" s="88"/>
+      <c r="G157" s="89"/>
+      <c r="H157" s="90"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="99" t="s">
+      <c r="A158" s="98" t="s">
         <v>147</v>
       </c>
       <c r="B158" s="18"/>
       <c r="C158" s="19"/>
-      <c r="D158" s="87"/>
-      <c r="E158" s="88">
+      <c r="D158" s="86"/>
+      <c r="E158" s="87">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F158" s="89"/>
-      <c r="G158" s="90"/>
-      <c r="H158" s="91"/>
+      <c r="F158" s="88"/>
+      <c r="G158" s="89"/>
+      <c r="H158" s="90"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="99" t="s">
+      <c r="A159" s="98" t="s">
         <v>148</v>
       </c>
       <c r="B159" s="18"/>
       <c r="C159" s="19"/>
-      <c r="D159" s="87"/>
-      <c r="E159" s="88">
+      <c r="D159" s="86"/>
+      <c r="E159" s="87">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F159" s="89"/>
-      <c r="G159" s="90"/>
-      <c r="H159" s="91"/>
+      <c r="F159" s="88"/>
+      <c r="G159" s="89"/>
+      <c r="H159" s="90"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="99" t="s">
+      <c r="A160" s="98" t="s">
         <v>149</v>
       </c>
       <c r="B160" s="18"/>
       <c r="C160" s="19"/>
-      <c r="D160" s="87"/>
-      <c r="E160" s="88">
+      <c r="D160" s="86"/>
+      <c r="E160" s="87">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F160" s="89"/>
-      <c r="G160" s="90"/>
-      <c r="H160" s="91"/>
+      <c r="F160" s="88"/>
+      <c r="G160" s="89"/>
+      <c r="H160" s="90"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="99" t="s">
+      <c r="A161" s="98" t="s">
         <v>150</v>
       </c>
       <c r="B161" s="18"/>
       <c r="C161" s="19"/>
-      <c r="D161" s="87"/>
-      <c r="E161" s="88">
+      <c r="D161" s="86"/>
+      <c r="E161" s="87">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="F161" s="89"/>
-      <c r="G161" s="90"/>
-      <c r="H161" s="91"/>
+      <c r="F161" s="88"/>
+      <c r="G161" s="89"/>
+      <c r="H161" s="90"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="99" t="s">
+      <c r="A162" s="98" t="s">
         <v>151</v>
       </c>
-      <c r="B162" s="92"/>
-      <c r="C162" s="93"/>
-      <c r="D162" s="94"/>
-      <c r="E162" s="100">
-        <v>0</v>
-      </c>
-      <c r="F162" s="96"/>
-      <c r="G162" s="97"/>
-      <c r="H162" s="98"/>
+      <c r="B162" s="91"/>
+      <c r="C162" s="92"/>
+      <c r="D162" s="93"/>
+      <c r="E162" s="99">
+        <v>0</v>
+      </c>
+      <c r="F162" s="95"/>
+      <c r="G162" s="96"/>
+      <c r="H162" s="97"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="17"/>
@@ -4644,7 +4652,7 @@
       </c>
       <c r="E164" s="53">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>196.43333333333317</v>
+        <v>203.09999999999982</v>
       </c>
       <c r="F164" s="54"/>
       <c r="G164" s="26"/>
@@ -4677,109 +4685,109 @@
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="99" t="s">
+      <c r="A166" s="98" t="s">
         <v>152</v>
       </c>
       <c r="B166" s="18"/>
       <c r="C166" s="19"/>
-      <c r="D166" s="87"/>
-      <c r="E166" s="88">
+      <c r="D166" s="86"/>
+      <c r="E166" s="87">
         <f t="shared" ref="E166:E172" si="16">(B166-C166)*-24-D166</f>
         <v>0</v>
       </c>
-      <c r="F166" s="89"/>
-      <c r="G166" s="90"/>
-      <c r="H166" s="91"/>
+      <c r="F166" s="88"/>
+      <c r="G166" s="89"/>
+      <c r="H166" s="90"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="99" t="s">
+      <c r="A167" s="98" t="s">
         <v>153</v>
       </c>
       <c r="B167" s="18"/>
       <c r="C167" s="19"/>
-      <c r="D167" s="87"/>
-      <c r="E167" s="88">
+      <c r="D167" s="86"/>
+      <c r="E167" s="87">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F167" s="89"/>
-      <c r="G167" s="90"/>
-      <c r="H167" s="91"/>
+      <c r="F167" s="88"/>
+      <c r="G167" s="89"/>
+      <c r="H167" s="90"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="99" t="s">
+      <c r="A168" s="98" t="s">
         <v>154</v>
       </c>
       <c r="B168" s="18"/>
       <c r="C168" s="19"/>
-      <c r="D168" s="87"/>
-      <c r="E168" s="88">
+      <c r="D168" s="86"/>
+      <c r="E168" s="87">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F168" s="89"/>
-      <c r="G168" s="90"/>
-      <c r="H168" s="91"/>
+      <c r="F168" s="88"/>
+      <c r="G168" s="89"/>
+      <c r="H168" s="90"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="99" t="s">
+      <c r="A169" s="98" t="s">
         <v>155</v>
       </c>
       <c r="B169" s="18"/>
       <c r="C169" s="19"/>
-      <c r="D169" s="87"/>
-      <c r="E169" s="88">
+      <c r="D169" s="86"/>
+      <c r="E169" s="87">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F169" s="89"/>
-      <c r="G169" s="90"/>
-      <c r="H169" s="91"/>
+      <c r="F169" s="88"/>
+      <c r="G169" s="89"/>
+      <c r="H169" s="90"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="99" t="s">
+      <c r="A170" s="98" t="s">
         <v>156</v>
       </c>
       <c r="B170" s="18"/>
       <c r="C170" s="19"/>
-      <c r="D170" s="87"/>
-      <c r="E170" s="88">
+      <c r="D170" s="86"/>
+      <c r="E170" s="87">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F170" s="89"/>
-      <c r="G170" s="90"/>
-      <c r="H170" s="91"/>
+      <c r="F170" s="88"/>
+      <c r="G170" s="89"/>
+      <c r="H170" s="90"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="99" t="s">
+      <c r="A171" s="98" t="s">
         <v>157</v>
       </c>
       <c r="B171" s="18"/>
       <c r="C171" s="19"/>
-      <c r="D171" s="87"/>
-      <c r="E171" s="88">
+      <c r="D171" s="86"/>
+      <c r="E171" s="87">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F171" s="89"/>
-      <c r="G171" s="90"/>
-      <c r="H171" s="91"/>
+      <c r="F171" s="88"/>
+      <c r="G171" s="89"/>
+      <c r="H171" s="90"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="99" t="s">
+      <c r="A172" s="98" t="s">
         <v>158</v>
       </c>
-      <c r="B172" s="92"/>
-      <c r="C172" s="93"/>
-      <c r="D172" s="94"/>
-      <c r="E172" s="95">
+      <c r="B172" s="91"/>
+      <c r="C172" s="92"/>
+      <c r="D172" s="93"/>
+      <c r="E172" s="94">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F172" s="96"/>
-      <c r="G172" s="97"/>
-      <c r="H172" s="98"/>
+      <c r="F172" s="95"/>
+      <c r="G172" s="96"/>
+      <c r="H172" s="97"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="17"/>
@@ -4805,7 +4813,7 @@
       </c>
       <c r="E174" s="53">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>196.43333333333317</v>
+        <v>203.09999999999982</v>
       </c>
       <c r="F174" s="54"/>
       <c r="G174" s="26"/>
@@ -4838,109 +4846,109 @@
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="99" t="s">
+      <c r="A176" s="98" t="s">
         <v>159</v>
       </c>
       <c r="B176" s="18"/>
       <c r="C176" s="19"/>
-      <c r="D176" s="87"/>
-      <c r="E176" s="88">
+      <c r="D176" s="86"/>
+      <c r="E176" s="87">
         <f t="shared" ref="E176:E182" si="17">(B176-C176)*-24-D176</f>
         <v>0</v>
       </c>
-      <c r="F176" s="89"/>
-      <c r="G176" s="90"/>
-      <c r="H176" s="91"/>
+      <c r="F176" s="88"/>
+      <c r="G176" s="89"/>
+      <c r="H176" s="90"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="99" t="s">
+      <c r="A177" s="98" t="s">
         <v>160</v>
       </c>
       <c r="B177" s="18"/>
       <c r="C177" s="19"/>
-      <c r="D177" s="87"/>
-      <c r="E177" s="88">
+      <c r="D177" s="86"/>
+      <c r="E177" s="87">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F177" s="89"/>
-      <c r="G177" s="90"/>
-      <c r="H177" s="91"/>
+      <c r="F177" s="88"/>
+      <c r="G177" s="89"/>
+      <c r="H177" s="90"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="99" t="s">
+      <c r="A178" s="98" t="s">
         <v>161</v>
       </c>
       <c r="B178" s="18"/>
       <c r="C178" s="19"/>
-      <c r="D178" s="87"/>
-      <c r="E178" s="88">
+      <c r="D178" s="86"/>
+      <c r="E178" s="87">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F178" s="89"/>
-      <c r="G178" s="90"/>
-      <c r="H178" s="91"/>
+      <c r="F178" s="88"/>
+      <c r="G178" s="89"/>
+      <c r="H178" s="90"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="99" t="s">
+      <c r="A179" s="98" t="s">
         <v>162</v>
       </c>
       <c r="B179" s="18"/>
       <c r="C179" s="19"/>
-      <c r="D179" s="87"/>
-      <c r="E179" s="88">
+      <c r="D179" s="86"/>
+      <c r="E179" s="87">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F179" s="89"/>
-      <c r="G179" s="90"/>
-      <c r="H179" s="91"/>
+      <c r="F179" s="88"/>
+      <c r="G179" s="89"/>
+      <c r="H179" s="90"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="99" t="s">
+      <c r="A180" s="98" t="s">
         <v>163</v>
       </c>
       <c r="B180" s="18"/>
       <c r="C180" s="19"/>
-      <c r="D180" s="87"/>
-      <c r="E180" s="88">
+      <c r="D180" s="86"/>
+      <c r="E180" s="87">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F180" s="89"/>
-      <c r="G180" s="90"/>
-      <c r="H180" s="91"/>
+      <c r="F180" s="88"/>
+      <c r="G180" s="89"/>
+      <c r="H180" s="90"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="99" t="s">
+      <c r="A181" s="98" t="s">
         <v>164</v>
       </c>
       <c r="B181" s="18"/>
       <c r="C181" s="19"/>
-      <c r="D181" s="87"/>
-      <c r="E181" s="88">
+      <c r="D181" s="86"/>
+      <c r="E181" s="87">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F181" s="89"/>
-      <c r="G181" s="90"/>
-      <c r="H181" s="91"/>
+      <c r="F181" s="88"/>
+      <c r="G181" s="89"/>
+      <c r="H181" s="90"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="99" t="s">
+      <c r="A182" s="98" t="s">
         <v>165</v>
       </c>
-      <c r="B182" s="92"/>
-      <c r="C182" s="93"/>
-      <c r="D182" s="94"/>
-      <c r="E182" s="95">
+      <c r="B182" s="91"/>
+      <c r="C182" s="92"/>
+      <c r="D182" s="93"/>
+      <c r="E182" s="94">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F182" s="96"/>
-      <c r="G182" s="97"/>
-      <c r="H182" s="98"/>
+      <c r="F182" s="95"/>
+      <c r="G182" s="96"/>
+      <c r="H182" s="97"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="17"/>
@@ -4966,7 +4974,7 @@
       </c>
       <c r="E184" s="83">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>196.43333333333317</v>
+        <v>203.09999999999982</v>
       </c>
       <c r="F184" s="14"/>
       <c r="G184" s="15"/>

--- a/_WIP/Lou/Lou-Zeiterfassung.xlsx
+++ b/_WIP/Lou/Lou-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="166">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -1579,7 +1579,7 @@
   <dimension ref="A1:P184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H127" sqref="H127"/>
+      <selection activeCell="I122" sqref="I122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4057,19 +4057,27 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="98" t="s">
+      <c r="A127" s="115" t="s">
         <v>125</v>
       </c>
-      <c r="B127" s="18"/>
-      <c r="C127" s="19"/>
-      <c r="D127" s="86"/>
-      <c r="E127" s="87">
+      <c r="B127" s="101">
+        <v>0.375</v>
+      </c>
+      <c r="C127" s="102">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D127" s="103">
+        <v>1</v>
+      </c>
+      <c r="E127" s="104">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F127" s="88"/>
-      <c r="G127" s="89"/>
-      <c r="H127" s="90"/>
+        <v>7.5</v>
+      </c>
+      <c r="F127" s="105"/>
+      <c r="G127" s="106" t="s">
+        <v>116</v>
+      </c>
+      <c r="H127" s="107"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="98" t="s">
@@ -4155,7 +4163,7 @@
       </c>
       <c r="E133" s="83">
         <f>SUM(E126:E132)</f>
-        <v>6.6666666666666679</v>
+        <v>14.166666666666668</v>
       </c>
       <c r="F133" s="14"/>
       <c r="G133" s="15"/>
@@ -4170,7 +4178,7 @@
       </c>
       <c r="E134" s="53">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>203.09999999999982</v>
+        <v>210.59999999999982</v>
       </c>
       <c r="F134" s="54"/>
       <c r="G134" s="26"/>
@@ -4331,7 +4339,7 @@
       </c>
       <c r="E144" s="53">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>203.09999999999982</v>
+        <v>210.59999999999982</v>
       </c>
       <c r="F144" s="54"/>
       <c r="G144" s="26"/>
@@ -4492,7 +4500,7 @@
       </c>
       <c r="E154" s="53">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>203.09999999999982</v>
+        <v>210.59999999999982</v>
       </c>
       <c r="F154" s="54"/>
       <c r="G154" s="26"/>
@@ -4652,7 +4660,7 @@
       </c>
       <c r="E164" s="53">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>203.09999999999982</v>
+        <v>210.59999999999982</v>
       </c>
       <c r="F164" s="54"/>
       <c r="G164" s="26"/>
@@ -4813,7 +4821,7 @@
       </c>
       <c r="E174" s="53">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>203.09999999999982</v>
+        <v>210.59999999999982</v>
       </c>
       <c r="F174" s="54"/>
       <c r="G174" s="26"/>
@@ -4974,7 +4982,7 @@
       </c>
       <c r="E184" s="83">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>203.09999999999982</v>
+        <v>210.59999999999982</v>
       </c>
       <c r="F184" s="14"/>
       <c r="G184" s="15"/>

--- a/_WIP/Lou/Lou-Zeiterfassung.xlsx
+++ b/_WIP/Lou/Lou-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="169">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -517,6 +517,15 @@
   </si>
   <si>
     <t>So., 12.08.2018</t>
+  </si>
+  <si>
+    <t>unity, texturen, modelling</t>
+  </si>
+  <si>
+    <t>unity</t>
+  </si>
+  <si>
+    <t>bin um 1 uhr morgens weg, angefangen um 10 uhr…</t>
   </si>
 </sst>
 </file>
@@ -1579,7 +1588,7 @@
   <dimension ref="A1:P184"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I122" sqref="I122"/>
+      <selection activeCell="K114" sqref="K114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4079,35 +4088,53 @@
       </c>
       <c r="H127" s="107"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="98" t="s">
+    <row r="128" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A128" s="115" t="s">
         <v>126</v>
       </c>
-      <c r="B128" s="18"/>
-      <c r="C128" s="19"/>
-      <c r="D128" s="86"/>
-      <c r="E128" s="87">
+      <c r="B128" s="101">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C128" s="102">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D128" s="103">
+        <v>0.5</v>
+      </c>
+      <c r="E128" s="104">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F128" s="88"/>
-      <c r="G128" s="89"/>
-      <c r="H128" s="90"/>
+        <v>14.5</v>
+      </c>
+      <c r="F128" s="105"/>
+      <c r="G128" s="106" t="s">
+        <v>166</v>
+      </c>
+      <c r="H128" s="107" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="98" t="s">
+      <c r="A129" s="115" t="s">
         <v>127</v>
       </c>
-      <c r="B129" s="18"/>
-      <c r="C129" s="19"/>
-      <c r="D129" s="86"/>
-      <c r="E129" s="87">
+      <c r="B129" s="101">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C129" s="102">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="D129" s="103">
+        <v>0.125</v>
+      </c>
+      <c r="E129" s="104">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F129" s="88"/>
-      <c r="G129" s="89"/>
-      <c r="H129" s="90"/>
+        <v>13.375</v>
+      </c>
+      <c r="F129" s="105"/>
+      <c r="G129" s="106" t="s">
+        <v>167</v>
+      </c>
+      <c r="H129" s="107"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="98" t="s">
@@ -4163,7 +4190,7 @@
       </c>
       <c r="E133" s="83">
         <f>SUM(E126:E132)</f>
-        <v>14.166666666666668</v>
+        <v>42.041666666666671</v>
       </c>
       <c r="F133" s="14"/>
       <c r="G133" s="15"/>
@@ -4178,7 +4205,7 @@
       </c>
       <c r="E134" s="53">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133)</f>
-        <v>210.59999999999982</v>
+        <v>238.47499999999985</v>
       </c>
       <c r="F134" s="54"/>
       <c r="G134" s="26"/>
@@ -4339,7 +4366,7 @@
       </c>
       <c r="E144" s="53">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143)</f>
-        <v>210.59999999999982</v>
+        <v>238.47499999999985</v>
       </c>
       <c r="F144" s="54"/>
       <c r="G144" s="26"/>
@@ -4500,7 +4527,7 @@
       </c>
       <c r="E154" s="53">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>210.59999999999982</v>
+        <v>238.47499999999985</v>
       </c>
       <c r="F154" s="54"/>
       <c r="G154" s="26"/>
@@ -4660,7 +4687,7 @@
       </c>
       <c r="E164" s="53">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>210.59999999999982</v>
+        <v>238.47499999999985</v>
       </c>
       <c r="F164" s="54"/>
       <c r="G164" s="26"/>
@@ -4821,7 +4848,7 @@
       </c>
       <c r="E174" s="53">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>210.59999999999982</v>
+        <v>238.47499999999985</v>
       </c>
       <c r="F174" s="54"/>
       <c r="G174" s="26"/>
@@ -4982,7 +5009,7 @@
       </c>
       <c r="E184" s="83">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>210.59999999999982</v>
+        <v>238.47499999999985</v>
       </c>
       <c r="F184" s="14"/>
       <c r="G184" s="15"/>
@@ -4990,6 +5017,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/_WIP/Lou/Lou-Zeiterfassung.xlsx
+++ b/_WIP/Lou/Lou-Zeiterfassung.xlsx
@@ -1587,8 +1587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K114" sqref="K114"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L112" sqref="L112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4137,49 +4137,49 @@
       <c r="H129" s="107"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="98" t="s">
+      <c r="A130" s="115" t="s">
         <v>128</v>
       </c>
-      <c r="B130" s="18"/>
-      <c r="C130" s="19"/>
-      <c r="D130" s="86"/>
-      <c r="E130" s="87">
+      <c r="B130" s="101"/>
+      <c r="C130" s="102"/>
+      <c r="D130" s="103"/>
+      <c r="E130" s="104">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F130" s="88"/>
-      <c r="G130" s="89"/>
-      <c r="H130" s="90"/>
+      <c r="F130" s="105"/>
+      <c r="G130" s="106"/>
+      <c r="H130" s="107"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="98" t="s">
+      <c r="A131" s="115" t="s">
         <v>129</v>
       </c>
-      <c r="B131" s="18"/>
-      <c r="C131" s="19"/>
-      <c r="D131" s="86"/>
-      <c r="E131" s="87">
+      <c r="B131" s="101"/>
+      <c r="C131" s="102"/>
+      <c r="D131" s="103"/>
+      <c r="E131" s="104">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F131" s="88"/>
-      <c r="G131" s="89"/>
-      <c r="H131" s="90"/>
+      <c r="F131" s="105"/>
+      <c r="G131" s="106"/>
+      <c r="H131" s="107"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="98" t="s">
+      <c r="A132" s="115" t="s">
         <v>130</v>
       </c>
-      <c r="B132" s="91"/>
-      <c r="C132" s="92"/>
-      <c r="D132" s="93"/>
-      <c r="E132" s="94">
+      <c r="B132" s="108"/>
+      <c r="C132" s="109"/>
+      <c r="D132" s="110"/>
+      <c r="E132" s="111">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F132" s="95"/>
-      <c r="G132" s="96"/>
-      <c r="H132" s="97"/>
+      <c r="F132" s="112"/>
+      <c r="G132" s="113"/>
+      <c r="H132" s="114"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="17"/>

--- a/_WIP/Lou/Lou-Zeiterfassung.xlsx
+++ b/_WIP/Lou/Lou-Zeiterfassung.xlsx
@@ -1587,8 +1587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L112" sqref="L112"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K151" sqref="K151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4238,109 +4238,109 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="98" t="s">
+      <c r="A136" s="115" t="s">
         <v>131</v>
       </c>
-      <c r="B136" s="18"/>
-      <c r="C136" s="19"/>
-      <c r="D136" s="86"/>
-      <c r="E136" s="87">
+      <c r="B136" s="101"/>
+      <c r="C136" s="102"/>
+      <c r="D136" s="103"/>
+      <c r="E136" s="104">
         <f t="shared" ref="E136:E142" si="13">(B136-C136)*-24-D136</f>
         <v>0</v>
       </c>
-      <c r="F136" s="88"/>
-      <c r="G136" s="89"/>
-      <c r="H136" s="90"/>
+      <c r="F136" s="105"/>
+      <c r="G136" s="106"/>
+      <c r="H136" s="107"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="98" t="s">
+      <c r="A137" s="115" t="s">
         <v>132</v>
       </c>
-      <c r="B137" s="18"/>
-      <c r="C137" s="19"/>
-      <c r="D137" s="86"/>
-      <c r="E137" s="87">
+      <c r="B137" s="101"/>
+      <c r="C137" s="102"/>
+      <c r="D137" s="103"/>
+      <c r="E137" s="104">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F137" s="88"/>
-      <c r="G137" s="89"/>
-      <c r="H137" s="90"/>
+      <c r="F137" s="105"/>
+      <c r="G137" s="106"/>
+      <c r="H137" s="107"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="98" t="s">
+      <c r="A138" s="115" t="s">
         <v>133</v>
       </c>
-      <c r="B138" s="18"/>
-      <c r="C138" s="19"/>
-      <c r="D138" s="86"/>
-      <c r="E138" s="87">
+      <c r="B138" s="101"/>
+      <c r="C138" s="102"/>
+      <c r="D138" s="103"/>
+      <c r="E138" s="104">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F138" s="88"/>
-      <c r="G138" s="89"/>
-      <c r="H138" s="90"/>
+      <c r="F138" s="105"/>
+      <c r="G138" s="106"/>
+      <c r="H138" s="107"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="98" t="s">
+      <c r="A139" s="115" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="18"/>
-      <c r="C139" s="19"/>
-      <c r="D139" s="86"/>
-      <c r="E139" s="87">
+      <c r="B139" s="101"/>
+      <c r="C139" s="102"/>
+      <c r="D139" s="103"/>
+      <c r="E139" s="104">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F139" s="88"/>
-      <c r="G139" s="89"/>
-      <c r="H139" s="90"/>
+      <c r="F139" s="105"/>
+      <c r="G139" s="106"/>
+      <c r="H139" s="107"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="98" t="s">
+      <c r="A140" s="115" t="s">
         <v>135</v>
       </c>
-      <c r="B140" s="18"/>
-      <c r="C140" s="19"/>
-      <c r="D140" s="86"/>
-      <c r="E140" s="87">
+      <c r="B140" s="101"/>
+      <c r="C140" s="102"/>
+      <c r="D140" s="103"/>
+      <c r="E140" s="104">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F140" s="88"/>
-      <c r="G140" s="89"/>
-      <c r="H140" s="90"/>
+      <c r="F140" s="105"/>
+      <c r="G140" s="106"/>
+      <c r="H140" s="107"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="98" t="s">
+      <c r="A141" s="115" t="s">
         <v>136</v>
       </c>
-      <c r="B141" s="18"/>
-      <c r="C141" s="19"/>
-      <c r="D141" s="86"/>
-      <c r="E141" s="87">
+      <c r="B141" s="101"/>
+      <c r="C141" s="102"/>
+      <c r="D141" s="103"/>
+      <c r="E141" s="104">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F141" s="88"/>
-      <c r="G141" s="89"/>
-      <c r="H141" s="90"/>
+      <c r="F141" s="105"/>
+      <c r="G141" s="106"/>
+      <c r="H141" s="107"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="98" t="s">
+      <c r="A142" s="115" t="s">
         <v>137</v>
       </c>
-      <c r="B142" s="91"/>
-      <c r="C142" s="92"/>
-      <c r="D142" s="93"/>
-      <c r="E142" s="94">
+      <c r="B142" s="108"/>
+      <c r="C142" s="109"/>
+      <c r="D142" s="110"/>
+      <c r="E142" s="111">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F142" s="95"/>
-      <c r="G142" s="96"/>
-      <c r="H142" s="97"/>
+      <c r="F142" s="112"/>
+      <c r="G142" s="113"/>
+      <c r="H142" s="114"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="17"/>
@@ -4399,109 +4399,121 @@
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="98" t="s">
+      <c r="A146" s="115" t="s">
         <v>138</v>
       </c>
-      <c r="B146" s="18"/>
-      <c r="C146" s="19"/>
-      <c r="D146" s="86"/>
-      <c r="E146" s="87">
+      <c r="B146" s="101"/>
+      <c r="C146" s="102"/>
+      <c r="D146" s="103"/>
+      <c r="E146" s="104">
         <f t="shared" ref="E146:E152" si="14">(B146-C146)*-24-D146</f>
         <v>0</v>
       </c>
-      <c r="F146" s="88"/>
-      <c r="G146" s="89"/>
-      <c r="H146" s="90"/>
+      <c r="F146" s="105"/>
+      <c r="G146" s="106"/>
+      <c r="H146" s="107"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="98" t="s">
+      <c r="A147" s="115" t="s">
         <v>139</v>
       </c>
-      <c r="B147" s="18"/>
-      <c r="C147" s="19"/>
-      <c r="D147" s="86"/>
-      <c r="E147" s="87">
+      <c r="B147" s="101"/>
+      <c r="C147" s="102"/>
+      <c r="D147" s="103"/>
+      <c r="E147" s="104">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F147" s="88"/>
-      <c r="G147" s="89"/>
-      <c r="H147" s="90"/>
+      <c r="F147" s="105"/>
+      <c r="G147" s="106"/>
+      <c r="H147" s="107"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="98" t="s">
+      <c r="A148" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="B148" s="18"/>
-      <c r="C148" s="19"/>
-      <c r="D148" s="86"/>
-      <c r="E148" s="87">
+      <c r="B148" s="101"/>
+      <c r="C148" s="102"/>
+      <c r="D148" s="103"/>
+      <c r="E148" s="104">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F148" s="88"/>
-      <c r="G148" s="89"/>
-      <c r="H148" s="90"/>
+      <c r="F148" s="105"/>
+      <c r="G148" s="106"/>
+      <c r="H148" s="107"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="98" t="s">
+      <c r="A149" s="115" t="s">
         <v>141</v>
       </c>
-      <c r="B149" s="18"/>
-      <c r="C149" s="19"/>
-      <c r="D149" s="86"/>
-      <c r="E149" s="87">
+      <c r="B149" s="101">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C149" s="102">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D149" s="103">
+        <v>1.25</v>
+      </c>
+      <c r="E149" s="104">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="F149" s="88"/>
-      <c r="G149" s="89"/>
-      <c r="H149" s="90"/>
+        <v>6.2500000000000018</v>
+      </c>
+      <c r="F149" s="105"/>
+      <c r="G149" s="106"/>
+      <c r="H149" s="107"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="98" t="s">
+      <c r="A150" s="115" t="s">
         <v>142</v>
       </c>
-      <c r="B150" s="18"/>
-      <c r="C150" s="19"/>
-      <c r="D150" s="86"/>
-      <c r="E150" s="87">
+      <c r="B150" s="101">
+        <v>0.375</v>
+      </c>
+      <c r="C150" s="102">
+        <v>0.72152777777777777</v>
+      </c>
+      <c r="D150" s="103">
+        <v>1</v>
+      </c>
+      <c r="E150" s="104">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="F150" s="88"/>
-      <c r="G150" s="89"/>
-      <c r="H150" s="90"/>
+        <v>7.3166666666666664</v>
+      </c>
+      <c r="F150" s="105"/>
+      <c r="G150" s="106"/>
+      <c r="H150" s="107"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="98" t="s">
+      <c r="A151" s="115" t="s">
         <v>143</v>
       </c>
-      <c r="B151" s="18"/>
-      <c r="C151" s="19"/>
-      <c r="D151" s="86"/>
-      <c r="E151" s="87">
+      <c r="B151" s="101"/>
+      <c r="C151" s="102"/>
+      <c r="D151" s="103"/>
+      <c r="E151" s="104">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F151" s="88"/>
-      <c r="G151" s="89"/>
-      <c r="H151" s="90"/>
+      <c r="F151" s="105"/>
+      <c r="G151" s="106"/>
+      <c r="H151" s="107"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="98" t="s">
+      <c r="A152" s="115" t="s">
         <v>144</v>
       </c>
-      <c r="B152" s="91"/>
-      <c r="C152" s="92"/>
-      <c r="D152" s="93"/>
-      <c r="E152" s="94">
+      <c r="B152" s="108"/>
+      <c r="C152" s="109"/>
+      <c r="D152" s="110"/>
+      <c r="E152" s="111">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F152" s="95"/>
-      <c r="G152" s="96"/>
-      <c r="H152" s="97"/>
+      <c r="F152" s="112"/>
+      <c r="G152" s="113"/>
+      <c r="H152" s="114"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="17"/>
@@ -4512,7 +4524,7 @@
       </c>
       <c r="E153" s="83">
         <f>SUM(E146:E152)</f>
-        <v>0</v>
+        <v>13.566666666666668</v>
       </c>
       <c r="F153" s="14"/>
       <c r="G153" s="15"/>
@@ -4527,7 +4539,7 @@
       </c>
       <c r="E154" s="53">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153)</f>
-        <v>238.47499999999985</v>
+        <v>252.04166666666652</v>
       </c>
       <c r="F154" s="54"/>
       <c r="G154" s="26"/>
@@ -4687,7 +4699,7 @@
       </c>
       <c r="E164" s="53">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>238.47499999999985</v>
+        <v>252.04166666666652</v>
       </c>
       <c r="F164" s="54"/>
       <c r="G164" s="26"/>
@@ -4848,7 +4860,7 @@
       </c>
       <c r="E174" s="53">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>238.47499999999985</v>
+        <v>252.04166666666652</v>
       </c>
       <c r="F174" s="54"/>
       <c r="G174" s="26"/>
@@ -5009,7 +5021,7 @@
       </c>
       <c r="E184" s="83">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>238.47499999999985</v>
+        <v>252.04166666666652</v>
       </c>
       <c r="F184" s="14"/>
       <c r="G184" s="15"/>

--- a/_WIP/Lou/Lou-Zeiterfassung.xlsx
+++ b/_WIP/Lou/Lou-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="170">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -526,6 +526,9 @@
   </si>
   <si>
     <t>bin um 1 uhr morgens weg, angefangen um 10 uhr…</t>
+  </si>
+  <si>
+    <t>unity, puppen, sunstance</t>
   </si>
 </sst>
 </file>
@@ -1160,9 +1163,6 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -1210,6 +1210,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="17" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1587,8 +1590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K151" sqref="K151"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D186" sqref="D186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3587,7 +3590,7 @@
       <c r="H100" s="45"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="100" t="s">
+      <c r="A101" s="99" t="s">
         <v>104</v>
       </c>
       <c r="B101" s="44"/>
@@ -3602,7 +3605,7 @@
       <c r="H101" s="45"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="100" t="s">
+      <c r="A102" s="99" t="s">
         <v>105</v>
       </c>
       <c r="B102" s="44"/>
@@ -3673,7 +3676,7 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="100" t="s">
+      <c r="A106" s="99" t="s">
         <v>106</v>
       </c>
       <c r="B106" s="44">
@@ -3698,7 +3701,7 @@
       <c r="H106" s="41"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="100" t="s">
+      <c r="A107" s="99" t="s">
         <v>109</v>
       </c>
       <c r="B107" s="44">
@@ -3721,7 +3724,7 @@
       <c r="H107" s="41"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="100" t="s">
+      <c r="A108" s="99" t="s">
         <v>110</v>
       </c>
       <c r="B108" s="44">
@@ -3744,7 +3747,7 @@
       <c r="H108" s="41"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="100" t="s">
+      <c r="A109" s="99" t="s">
         <v>111</v>
       </c>
       <c r="B109" s="44">
@@ -3767,7 +3770,7 @@
       <c r="H109" s="41"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="100" t="s">
+      <c r="A110" s="99" t="s">
         <v>112</v>
       </c>
       <c r="B110" s="44">
@@ -3790,40 +3793,40 @@
       <c r="H110" s="41"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="100" t="s">
+      <c r="A111" s="99" t="s">
         <v>114</v>
       </c>
-      <c r="B111" s="101"/>
-      <c r="C111" s="102"/>
-      <c r="D111" s="103"/>
-      <c r="E111" s="104">
+      <c r="B111" s="100"/>
+      <c r="C111" s="101"/>
+      <c r="D111" s="102"/>
+      <c r="E111" s="103">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="F111" s="105"/>
-      <c r="G111" s="106"/>
-      <c r="H111" s="107"/>
+      <c r="F111" s="104"/>
+      <c r="G111" s="105"/>
+      <c r="H111" s="106"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="100" t="s">
+      <c r="A112" s="99" t="s">
         <v>115</v>
       </c>
-      <c r="B112" s="108">
+      <c r="B112" s="107">
         <v>0.75</v>
       </c>
-      <c r="C112" s="109">
+      <c r="C112" s="108">
         <v>0.85416666666666696</v>
       </c>
-      <c r="D112" s="110"/>
-      <c r="E112" s="111">
+      <c r="D112" s="109"/>
+      <c r="E112" s="110">
         <f t="shared" si="10"/>
         <v>2.5000000000000071</v>
       </c>
-      <c r="F112" s="112"/>
-      <c r="G112" s="113" t="s">
+      <c r="F112" s="111"/>
+      <c r="G112" s="112" t="s">
         <v>116</v>
       </c>
-      <c r="H112" s="114"/>
+      <c r="H112" s="113"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="17"/>
@@ -3882,109 +3885,109 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="100" t="s">
+      <c r="A116" s="99" t="s">
         <v>117</v>
       </c>
-      <c r="B116" s="101"/>
-      <c r="C116" s="102"/>
-      <c r="D116" s="103"/>
-      <c r="E116" s="104">
+      <c r="B116" s="100"/>
+      <c r="C116" s="101"/>
+      <c r="D116" s="102"/>
+      <c r="E116" s="103">
         <f t="shared" ref="E116:E122" si="11">(B116-C116)*-24-D116</f>
         <v>0</v>
       </c>
-      <c r="F116" s="105"/>
-      <c r="G116" s="106"/>
-      <c r="H116" s="107"/>
+      <c r="F116" s="104"/>
+      <c r="G116" s="105"/>
+      <c r="H116" s="106"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="100" t="s">
+      <c r="A117" s="99" t="s">
         <v>118</v>
       </c>
-      <c r="B117" s="101"/>
-      <c r="C117" s="102"/>
-      <c r="D117" s="103"/>
-      <c r="E117" s="104">
+      <c r="B117" s="100"/>
+      <c r="C117" s="101"/>
+      <c r="D117" s="102"/>
+      <c r="E117" s="103">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F117" s="105"/>
-      <c r="G117" s="106"/>
-      <c r="H117" s="107"/>
+      <c r="F117" s="104"/>
+      <c r="G117" s="105"/>
+      <c r="H117" s="106"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="100" t="s">
+      <c r="A118" s="99" t="s">
         <v>119</v>
       </c>
-      <c r="B118" s="101"/>
-      <c r="C118" s="102"/>
-      <c r="D118" s="103"/>
-      <c r="E118" s="104">
+      <c r="B118" s="100"/>
+      <c r="C118" s="101"/>
+      <c r="D118" s="102"/>
+      <c r="E118" s="103">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F118" s="105"/>
-      <c r="G118" s="106"/>
-      <c r="H118" s="107"/>
+      <c r="F118" s="104"/>
+      <c r="G118" s="105"/>
+      <c r="H118" s="106"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="100" t="s">
+      <c r="A119" s="99" t="s">
         <v>120</v>
       </c>
-      <c r="B119" s="101"/>
-      <c r="C119" s="102"/>
-      <c r="D119" s="103"/>
-      <c r="E119" s="104">
+      <c r="B119" s="100"/>
+      <c r="C119" s="101"/>
+      <c r="D119" s="102"/>
+      <c r="E119" s="103">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F119" s="105"/>
-      <c r="G119" s="106"/>
-      <c r="H119" s="107"/>
+      <c r="F119" s="104"/>
+      <c r="G119" s="105"/>
+      <c r="H119" s="106"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="100" t="s">
+      <c r="A120" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="B120" s="101"/>
-      <c r="C120" s="102"/>
-      <c r="D120" s="103"/>
-      <c r="E120" s="104">
+      <c r="B120" s="100"/>
+      <c r="C120" s="101"/>
+      <c r="D120" s="102"/>
+      <c r="E120" s="103">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F120" s="105"/>
-      <c r="G120" s="106"/>
-      <c r="H120" s="107"/>
+      <c r="F120" s="104"/>
+      <c r="G120" s="105"/>
+      <c r="H120" s="106"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="100" t="s">
+      <c r="A121" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="B121" s="101"/>
-      <c r="C121" s="102"/>
-      <c r="D121" s="103"/>
-      <c r="E121" s="104">
+      <c r="B121" s="100"/>
+      <c r="C121" s="101"/>
+      <c r="D121" s="102"/>
+      <c r="E121" s="103">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F121" s="105"/>
-      <c r="G121" s="106"/>
-      <c r="H121" s="107"/>
+      <c r="F121" s="104"/>
+      <c r="G121" s="105"/>
+      <c r="H121" s="106"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="100" t="s">
+      <c r="A122" s="99" t="s">
         <v>123</v>
       </c>
-      <c r="B122" s="108"/>
-      <c r="C122" s="109"/>
-      <c r="D122" s="110"/>
-      <c r="E122" s="111">
+      <c r="B122" s="107"/>
+      <c r="C122" s="108"/>
+      <c r="D122" s="109"/>
+      <c r="E122" s="110">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="F122" s="112"/>
-      <c r="G122" s="113"/>
-      <c r="H122" s="114"/>
+      <c r="F122" s="111"/>
+      <c r="G122" s="112"/>
+      <c r="H122" s="113"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="17"/>
@@ -4043,143 +4046,143 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="115" t="s">
+      <c r="A126" s="114" t="s">
         <v>124</v>
       </c>
-      <c r="B126" s="101">
+      <c r="B126" s="100">
         <v>0.40625</v>
       </c>
-      <c r="C126" s="102">
+      <c r="C126" s="101">
         <v>0.74652777777777779</v>
       </c>
-      <c r="D126" s="103">
+      <c r="D126" s="102">
         <v>1.5</v>
       </c>
-      <c r="E126" s="104">
+      <c r="E126" s="103">
         <f t="shared" ref="E126:E132" si="12">(B126-C126)*-24-D126</f>
         <v>6.6666666666666679</v>
       </c>
-      <c r="F126" s="105"/>
-      <c r="G126" s="106"/>
-      <c r="H126" s="107" t="s">
+      <c r="F126" s="104"/>
+      <c r="G126" s="105"/>
+      <c r="H126" s="106" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="115" t="s">
+      <c r="A127" s="114" t="s">
         <v>125</v>
       </c>
-      <c r="B127" s="101">
+      <c r="B127" s="100">
         <v>0.375</v>
       </c>
-      <c r="C127" s="102">
+      <c r="C127" s="101">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D127" s="103">
+      <c r="D127" s="102">
         <v>1</v>
       </c>
-      <c r="E127" s="104">
+      <c r="E127" s="103">
         <f t="shared" si="12"/>
         <v>7.5</v>
       </c>
-      <c r="F127" s="105"/>
-      <c r="G127" s="106" t="s">
+      <c r="F127" s="104"/>
+      <c r="G127" s="105" t="s">
         <v>116</v>
       </c>
-      <c r="H127" s="107"/>
+      <c r="H127" s="106"/>
     </row>
     <row r="128" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="115" t="s">
+      <c r="A128" s="114" t="s">
         <v>126</v>
       </c>
-      <c r="B128" s="101">
+      <c r="B128" s="100">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C128" s="102">
+      <c r="C128" s="101">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D128" s="103">
+      <c r="D128" s="102">
         <v>0.5</v>
       </c>
-      <c r="E128" s="104">
+      <c r="E128" s="103">
         <f t="shared" si="12"/>
         <v>14.5</v>
       </c>
-      <c r="F128" s="105"/>
-      <c r="G128" s="106" t="s">
+      <c r="F128" s="104"/>
+      <c r="G128" s="105" t="s">
         <v>166</v>
       </c>
-      <c r="H128" s="107" t="s">
+      <c r="H128" s="106" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="115" t="s">
+      <c r="A129" s="114" t="s">
         <v>127</v>
       </c>
-      <c r="B129" s="101">
+      <c r="B129" s="100">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C129" s="102">
+      <c r="C129" s="101">
         <v>0.95833333333333337</v>
       </c>
-      <c r="D129" s="103">
+      <c r="D129" s="102">
         <v>0.125</v>
       </c>
-      <c r="E129" s="104">
+      <c r="E129" s="103">
         <f t="shared" si="12"/>
         <v>13.375</v>
       </c>
-      <c r="F129" s="105"/>
-      <c r="G129" s="106" t="s">
+      <c r="F129" s="104"/>
+      <c r="G129" s="105" t="s">
         <v>167</v>
       </c>
-      <c r="H129" s="107"/>
+      <c r="H129" s="106"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="115" t="s">
+      <c r="A130" s="114" t="s">
         <v>128</v>
       </c>
-      <c r="B130" s="101"/>
-      <c r="C130" s="102"/>
-      <c r="D130" s="103"/>
-      <c r="E130" s="104">
+      <c r="B130" s="100"/>
+      <c r="C130" s="101"/>
+      <c r="D130" s="102"/>
+      <c r="E130" s="103">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F130" s="105"/>
-      <c r="G130" s="106"/>
-      <c r="H130" s="107"/>
+      <c r="F130" s="104"/>
+      <c r="G130" s="105"/>
+      <c r="H130" s="106"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="115" t="s">
+      <c r="A131" s="114" t="s">
         <v>129</v>
       </c>
-      <c r="B131" s="101"/>
-      <c r="C131" s="102"/>
-      <c r="D131" s="103"/>
-      <c r="E131" s="104">
+      <c r="B131" s="100"/>
+      <c r="C131" s="101"/>
+      <c r="D131" s="102"/>
+      <c r="E131" s="103">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F131" s="105"/>
-      <c r="G131" s="106"/>
-      <c r="H131" s="107"/>
+      <c r="F131" s="104"/>
+      <c r="G131" s="105"/>
+      <c r="H131" s="106"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="115" t="s">
+      <c r="A132" s="114" t="s">
         <v>130</v>
       </c>
-      <c r="B132" s="108"/>
-      <c r="C132" s="109"/>
-      <c r="D132" s="110"/>
-      <c r="E132" s="111">
+      <c r="B132" s="107"/>
+      <c r="C132" s="108"/>
+      <c r="D132" s="109"/>
+      <c r="E132" s="110">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F132" s="112"/>
-      <c r="G132" s="113"/>
-      <c r="H132" s="114"/>
+      <c r="F132" s="111"/>
+      <c r="G132" s="112"/>
+      <c r="H132" s="113"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="17"/>
@@ -4238,109 +4241,109 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="115" t="s">
+      <c r="A136" s="114" t="s">
         <v>131</v>
       </c>
-      <c r="B136" s="101"/>
-      <c r="C136" s="102"/>
-      <c r="D136" s="103"/>
-      <c r="E136" s="104">
+      <c r="B136" s="100"/>
+      <c r="C136" s="101"/>
+      <c r="D136" s="102"/>
+      <c r="E136" s="103">
         <f t="shared" ref="E136:E142" si="13">(B136-C136)*-24-D136</f>
         <v>0</v>
       </c>
-      <c r="F136" s="105"/>
-      <c r="G136" s="106"/>
-      <c r="H136" s="107"/>
+      <c r="F136" s="104"/>
+      <c r="G136" s="105"/>
+      <c r="H136" s="106"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="115" t="s">
+      <c r="A137" s="114" t="s">
         <v>132</v>
       </c>
-      <c r="B137" s="101"/>
-      <c r="C137" s="102"/>
-      <c r="D137" s="103"/>
-      <c r="E137" s="104">
+      <c r="B137" s="100"/>
+      <c r="C137" s="101"/>
+      <c r="D137" s="102"/>
+      <c r="E137" s="103">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F137" s="105"/>
-      <c r="G137" s="106"/>
-      <c r="H137" s="107"/>
+      <c r="F137" s="104"/>
+      <c r="G137" s="105"/>
+      <c r="H137" s="106"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="115" t="s">
+      <c r="A138" s="114" t="s">
         <v>133</v>
       </c>
-      <c r="B138" s="101"/>
-      <c r="C138" s="102"/>
-      <c r="D138" s="103"/>
-      <c r="E138" s="104">
+      <c r="B138" s="100"/>
+      <c r="C138" s="101"/>
+      <c r="D138" s="102"/>
+      <c r="E138" s="103">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F138" s="105"/>
-      <c r="G138" s="106"/>
-      <c r="H138" s="107"/>
+      <c r="F138" s="104"/>
+      <c r="G138" s="105"/>
+      <c r="H138" s="106"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="115" t="s">
+      <c r="A139" s="114" t="s">
         <v>134</v>
       </c>
-      <c r="B139" s="101"/>
-      <c r="C139" s="102"/>
-      <c r="D139" s="103"/>
-      <c r="E139" s="104">
+      <c r="B139" s="100"/>
+      <c r="C139" s="101"/>
+      <c r="D139" s="102"/>
+      <c r="E139" s="103">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F139" s="105"/>
-      <c r="G139" s="106"/>
-      <c r="H139" s="107"/>
+      <c r="F139" s="104"/>
+      <c r="G139" s="105"/>
+      <c r="H139" s="106"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="115" t="s">
+      <c r="A140" s="114" t="s">
         <v>135</v>
       </c>
-      <c r="B140" s="101"/>
-      <c r="C140" s="102"/>
-      <c r="D140" s="103"/>
-      <c r="E140" s="104">
+      <c r="B140" s="100"/>
+      <c r="C140" s="101"/>
+      <c r="D140" s="102"/>
+      <c r="E140" s="103">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F140" s="105"/>
-      <c r="G140" s="106"/>
-      <c r="H140" s="107"/>
+      <c r="F140" s="104"/>
+      <c r="G140" s="105"/>
+      <c r="H140" s="106"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="115" t="s">
+      <c r="A141" s="114" t="s">
         <v>136</v>
       </c>
-      <c r="B141" s="101"/>
-      <c r="C141" s="102"/>
-      <c r="D141" s="103"/>
-      <c r="E141" s="104">
+      <c r="B141" s="100"/>
+      <c r="C141" s="101"/>
+      <c r="D141" s="102"/>
+      <c r="E141" s="103">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F141" s="105"/>
-      <c r="G141" s="106"/>
-      <c r="H141" s="107"/>
+      <c r="F141" s="104"/>
+      <c r="G141" s="105"/>
+      <c r="H141" s="106"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="115" t="s">
+      <c r="A142" s="114" t="s">
         <v>137</v>
       </c>
-      <c r="B142" s="108"/>
-      <c r="C142" s="109"/>
-      <c r="D142" s="110"/>
-      <c r="E142" s="111">
+      <c r="B142" s="107"/>
+      <c r="C142" s="108"/>
+      <c r="D142" s="109"/>
+      <c r="E142" s="110">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F142" s="112"/>
-      <c r="G142" s="113"/>
-      <c r="H142" s="114"/>
+      <c r="F142" s="111"/>
+      <c r="G142" s="112"/>
+      <c r="H142" s="113"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="17"/>
@@ -4399,121 +4402,121 @@
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="115" t="s">
+      <c r="A146" s="114" t="s">
         <v>138</v>
       </c>
-      <c r="B146" s="101"/>
-      <c r="C146" s="102"/>
-      <c r="D146" s="103"/>
-      <c r="E146" s="104">
+      <c r="B146" s="100"/>
+      <c r="C146" s="101"/>
+      <c r="D146" s="102"/>
+      <c r="E146" s="103">
         <f t="shared" ref="E146:E152" si="14">(B146-C146)*-24-D146</f>
         <v>0</v>
       </c>
-      <c r="F146" s="105"/>
-      <c r="G146" s="106"/>
-      <c r="H146" s="107"/>
+      <c r="F146" s="104"/>
+      <c r="G146" s="105"/>
+      <c r="H146" s="106"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="115" t="s">
+      <c r="A147" s="114" t="s">
         <v>139</v>
       </c>
-      <c r="B147" s="101"/>
-      <c r="C147" s="102"/>
-      <c r="D147" s="103"/>
-      <c r="E147" s="104">
+      <c r="B147" s="100"/>
+      <c r="C147" s="101"/>
+      <c r="D147" s="102"/>
+      <c r="E147" s="103">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F147" s="105"/>
-      <c r="G147" s="106"/>
-      <c r="H147" s="107"/>
+      <c r="F147" s="104"/>
+      <c r="G147" s="105"/>
+      <c r="H147" s="106"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="115" t="s">
+      <c r="A148" s="114" t="s">
         <v>140</v>
       </c>
-      <c r="B148" s="101"/>
-      <c r="C148" s="102"/>
-      <c r="D148" s="103"/>
-      <c r="E148" s="104">
+      <c r="B148" s="100"/>
+      <c r="C148" s="101"/>
+      <c r="D148" s="102"/>
+      <c r="E148" s="103">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F148" s="105"/>
-      <c r="G148" s="106"/>
-      <c r="H148" s="107"/>
+      <c r="F148" s="104"/>
+      <c r="G148" s="105"/>
+      <c r="H148" s="106"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="115" t="s">
+      <c r="A149" s="114" t="s">
         <v>141</v>
       </c>
-      <c r="B149" s="101">
+      <c r="B149" s="100">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C149" s="102">
+      <c r="C149" s="101">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D149" s="103">
+      <c r="D149" s="102">
         <v>1.25</v>
       </c>
-      <c r="E149" s="104">
+      <c r="E149" s="103">
         <f t="shared" si="14"/>
         <v>6.2500000000000018</v>
       </c>
-      <c r="F149" s="105"/>
-      <c r="G149" s="106"/>
-      <c r="H149" s="107"/>
+      <c r="F149" s="104"/>
+      <c r="G149" s="105"/>
+      <c r="H149" s="106"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="115" t="s">
+      <c r="A150" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="B150" s="101">
+      <c r="B150" s="100">
         <v>0.375</v>
       </c>
-      <c r="C150" s="102">
+      <c r="C150" s="101">
         <v>0.72152777777777777</v>
       </c>
-      <c r="D150" s="103">
+      <c r="D150" s="102">
         <v>1</v>
       </c>
-      <c r="E150" s="104">
+      <c r="E150" s="103">
         <f t="shared" si="14"/>
         <v>7.3166666666666664</v>
       </c>
-      <c r="F150" s="105"/>
-      <c r="G150" s="106"/>
-      <c r="H150" s="107"/>
+      <c r="F150" s="104"/>
+      <c r="G150" s="105"/>
+      <c r="H150" s="106"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="115" t="s">
+      <c r="A151" s="114" t="s">
         <v>143</v>
       </c>
-      <c r="B151" s="101"/>
-      <c r="C151" s="102"/>
-      <c r="D151" s="103"/>
-      <c r="E151" s="104">
+      <c r="B151" s="100"/>
+      <c r="C151" s="101"/>
+      <c r="D151" s="102"/>
+      <c r="E151" s="103">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F151" s="105"/>
-      <c r="G151" s="106"/>
-      <c r="H151" s="107"/>
+      <c r="F151" s="104"/>
+      <c r="G151" s="105"/>
+      <c r="H151" s="106"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="115" t="s">
+      <c r="A152" s="114" t="s">
         <v>144</v>
       </c>
-      <c r="B152" s="108"/>
-      <c r="C152" s="109"/>
-      <c r="D152" s="110"/>
-      <c r="E152" s="111">
+      <c r="B152" s="107"/>
+      <c r="C152" s="108"/>
+      <c r="D152" s="109"/>
+      <c r="E152" s="110">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F152" s="112"/>
-      <c r="G152" s="113"/>
-      <c r="H152" s="114"/>
+      <c r="F152" s="111"/>
+      <c r="G152" s="112"/>
+      <c r="H152" s="113"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="17"/>
@@ -4572,108 +4575,156 @@
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="98" t="s">
+      <c r="A156" s="114" t="s">
         <v>145</v>
       </c>
-      <c r="B156" s="18"/>
-      <c r="C156" s="19"/>
-      <c r="D156" s="86"/>
-      <c r="E156" s="87">
+      <c r="B156" s="100">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C156" s="101">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D156" s="102">
+        <v>1</v>
+      </c>
+      <c r="E156" s="103">
         <f t="shared" ref="E156:E161" si="15">(B156-C156)*-24-D156</f>
-        <v>0</v>
-      </c>
-      <c r="F156" s="88"/>
-      <c r="G156" s="89"/>
-      <c r="H156" s="90"/>
+        <v>6</v>
+      </c>
+      <c r="F156" s="104"/>
+      <c r="G156" s="105" t="s">
+        <v>169</v>
+      </c>
+      <c r="H156" s="106"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="98" t="s">
+      <c r="A157" s="114" t="s">
         <v>146</v>
       </c>
-      <c r="B157" s="18"/>
-      <c r="C157" s="19"/>
-      <c r="D157" s="86"/>
-      <c r="E157" s="87">
+      <c r="B157" s="100">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C157" s="101">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D157" s="102">
+        <v>1</v>
+      </c>
+      <c r="E157" s="103">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F157" s="88"/>
-      <c r="G157" s="89"/>
-      <c r="H157" s="90"/>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="98" t="s">
+        <v>6</v>
+      </c>
+      <c r="F157" s="104"/>
+      <c r="G157" s="105" t="s">
+        <v>169</v>
+      </c>
+      <c r="H157" s="106"/>
+    </row>
+    <row r="158" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="114" t="s">
         <v>147</v>
       </c>
-      <c r="B158" s="18"/>
-      <c r="C158" s="19"/>
-      <c r="D158" s="86"/>
-      <c r="E158" s="87">
+      <c r="B158" s="100">
+        <v>0.375</v>
+      </c>
+      <c r="C158" s="101">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D158" s="102">
+        <v>1</v>
+      </c>
+      <c r="E158" s="103">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F158" s="88"/>
-      <c r="G158" s="89"/>
-      <c r="H158" s="90"/>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="98" t="s">
+        <v>5.9999999999999991</v>
+      </c>
+      <c r="F158" s="104"/>
+      <c r="G158" s="105" t="s">
+        <v>169</v>
+      </c>
+      <c r="H158" s="106"/>
+    </row>
+    <row r="159" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="114" t="s">
         <v>148</v>
       </c>
-      <c r="B159" s="18"/>
-      <c r="C159" s="19"/>
-      <c r="D159" s="86"/>
-      <c r="E159" s="87">
+      <c r="B159" s="100">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C159" s="101">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D159" s="102">
+        <v>1</v>
+      </c>
+      <c r="E159" s="103">
+        <f>(B159-C159)*-24-D159</f>
+        <v>9</v>
+      </c>
+      <c r="F159" s="104"/>
+      <c r="G159" s="105" t="s">
+        <v>169</v>
+      </c>
+      <c r="H159" s="106"/>
+    </row>
+    <row r="160" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="114" t="s">
+        <v>149</v>
+      </c>
+      <c r="B160" s="100">
+        <v>0.375</v>
+      </c>
+      <c r="C160" s="101">
+        <v>0.6875</v>
+      </c>
+      <c r="D160" s="102">
+        <v>1</v>
+      </c>
+      <c r="E160" s="103">
+        <f>(B160-C160)*-24-D160</f>
+        <v>6.5</v>
+      </c>
+      <c r="F160" s="104"/>
+      <c r="G160" s="105" t="s">
+        <v>169</v>
+      </c>
+      <c r="H160" s="106"/>
+    </row>
+    <row r="161" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="114" t="s">
+        <v>150</v>
+      </c>
+      <c r="B161" s="100">
+        <v>0.375</v>
+      </c>
+      <c r="C161" s="101">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D161" s="102">
+        <v>1</v>
+      </c>
+      <c r="E161" s="103">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F159" s="88"/>
-      <c r="G159" s="89"/>
-      <c r="H159" s="90"/>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="98" t="s">
-        <v>149</v>
-      </c>
-      <c r="B160" s="18"/>
-      <c r="C160" s="19"/>
-      <c r="D160" s="86"/>
-      <c r="E160" s="87">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F160" s="88"/>
-      <c r="G160" s="89"/>
-      <c r="H160" s="90"/>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="B161" s="18"/>
-      <c r="C161" s="19"/>
-      <c r="D161" s="86"/>
-      <c r="E161" s="87">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F161" s="88"/>
-      <c r="G161" s="89"/>
-      <c r="H161" s="90"/>
+        <v>5.9999999999999991</v>
+      </c>
+      <c r="F161" s="104"/>
+      <c r="G161" s="105" t="s">
+        <v>169</v>
+      </c>
+      <c r="H161" s="106"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="98" t="s">
+      <c r="A162" s="114" t="s">
         <v>151</v>
       </c>
-      <c r="B162" s="91"/>
-      <c r="C162" s="92"/>
-      <c r="D162" s="93"/>
-      <c r="E162" s="99">
-        <v>0</v>
-      </c>
-      <c r="F162" s="95"/>
-      <c r="G162" s="96"/>
-      <c r="H162" s="97"/>
+      <c r="B162" s="107"/>
+      <c r="C162" s="108"/>
+      <c r="D162" s="109"/>
+      <c r="E162" s="115">
+        <v>0</v>
+      </c>
+      <c r="F162" s="111"/>
+      <c r="G162" s="112"/>
+      <c r="H162" s="113"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="17"/>
@@ -4684,7 +4735,7 @@
       </c>
       <c r="E163" s="83">
         <f>SUM(E156:E162)</f>
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="F163" s="14"/>
       <c r="G163" s="15"/>
@@ -4699,7 +4750,7 @@
       </c>
       <c r="E164" s="53">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163)</f>
-        <v>252.04166666666652</v>
+        <v>291.54166666666652</v>
       </c>
       <c r="F164" s="54"/>
       <c r="G164" s="26"/>
@@ -4860,7 +4911,7 @@
       </c>
       <c r="E174" s="53">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>252.04166666666652</v>
+        <v>291.54166666666652</v>
       </c>
       <c r="F174" s="54"/>
       <c r="G174" s="26"/>
@@ -5021,7 +5072,7 @@
       </c>
       <c r="E184" s="83">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>252.04166666666652</v>
+        <v>291.54166666666652</v>
       </c>
       <c r="F184" s="14"/>
       <c r="G184" s="15"/>

--- a/_WIP/Lou/Lou-Zeiterfassung.xlsx
+++ b/_WIP/Lou/Lou-Zeiterfassung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="171">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -529,6 +529,9 @@
   </si>
   <si>
     <t>unity, puppen, sunstance</t>
+  </si>
+  <si>
+    <t>Überarbeitung von Meshes, Unity, textur</t>
   </si>
 </sst>
 </file>
@@ -1590,8 +1593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D186" sqref="D186"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J159" sqref="J159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4783,64 +4786,72 @@
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="98" t="s">
+      <c r="A166" s="114" t="s">
         <v>152</v>
       </c>
-      <c r="B166" s="18"/>
-      <c r="C166" s="19"/>
-      <c r="D166" s="86"/>
-      <c r="E166" s="87">
+      <c r="B166" s="100"/>
+      <c r="C166" s="101"/>
+      <c r="D166" s="102"/>
+      <c r="E166" s="103">
         <f t="shared" ref="E166:E172" si="16">(B166-C166)*-24-D166</f>
         <v>0</v>
       </c>
-      <c r="F166" s="88"/>
-      <c r="G166" s="89"/>
-      <c r="H166" s="90"/>
+      <c r="F166" s="104"/>
+      <c r="G166" s="105"/>
+      <c r="H166" s="106"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="98" t="s">
+      <c r="A167" s="114" t="s">
         <v>153</v>
       </c>
-      <c r="B167" s="18"/>
-      <c r="C167" s="19"/>
-      <c r="D167" s="86"/>
-      <c r="E167" s="87">
+      <c r="B167" s="100"/>
+      <c r="C167" s="101"/>
+      <c r="D167" s="102"/>
+      <c r="E167" s="103">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F167" s="88"/>
-      <c r="G167" s="89"/>
-      <c r="H167" s="90"/>
+      <c r="F167" s="104"/>
+      <c r="G167" s="105"/>
+      <c r="H167" s="106"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="98" t="s">
+      <c r="A168" s="114" t="s">
         <v>154</v>
       </c>
-      <c r="B168" s="18"/>
-      <c r="C168" s="19"/>
-      <c r="D168" s="86"/>
-      <c r="E168" s="87">
+      <c r="B168" s="100"/>
+      <c r="C168" s="101"/>
+      <c r="D168" s="102"/>
+      <c r="E168" s="103">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F168" s="88"/>
-      <c r="G168" s="89"/>
-      <c r="H168" s="90"/>
+      <c r="F168" s="104"/>
+      <c r="G168" s="105"/>
+      <c r="H168" s="106"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="98" t="s">
+      <c r="A169" s="114" t="s">
         <v>155</v>
       </c>
-      <c r="B169" s="18"/>
-      <c r="C169" s="19"/>
-      <c r="D169" s="86"/>
-      <c r="E169" s="87">
+      <c r="B169" s="100">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C169" s="101">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D169" s="102">
+        <v>1.5</v>
+      </c>
+      <c r="E169" s="103">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="F169" s="88"/>
-      <c r="G169" s="89"/>
-      <c r="H169" s="90"/>
+        <v>7</v>
+      </c>
+      <c r="F169" s="104"/>
+      <c r="G169" s="105" t="s">
+        <v>170</v>
+      </c>
+      <c r="H169" s="106"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="98" t="s">
@@ -4896,7 +4907,7 @@
       </c>
       <c r="E173" s="83">
         <f>SUM(E166:E172)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F173" s="14"/>
       <c r="G173" s="15"/>
@@ -4911,7 +4922,7 @@
       </c>
       <c r="E174" s="53">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173)</f>
-        <v>291.54166666666652</v>
+        <v>298.54166666666652</v>
       </c>
       <c r="F174" s="54"/>
       <c r="G174" s="26"/>
@@ -5072,7 +5083,7 @@
       </c>
       <c r="E184" s="83">
         <f>SUM(E13+E23+E33+E43+E53+E63+E73+E83+E93+E103+E113+E123+E133+E143+E153+E163+E173+E183)</f>
-        <v>291.54166666666652</v>
+        <v>298.54166666666652</v>
       </c>
       <c r="F184" s="14"/>
       <c r="G184" s="15"/>
